--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Body" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>フォルダー名</t>
     <rPh sb="5" eb="6">
@@ -130,15 +130,6 @@
     <t>すごくいいノーズコーン</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd:0.5 /n質量:0.2 </t>
-  </si>
-  <si>
-    <t>Cd:0.1  /n質量:0.15</t>
-  </si>
-  <si>
-    <t>Cd:0.01 /n質量:0.05</t>
-  </si>
-  <si>
     <t>まあ普通のノーズコーン/nゴム製でフニャ</t>
   </si>
   <si>
@@ -192,6 +183,30 @@
   </si>
   <si>
     <t>Cd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cd:0.5 /n質量:10g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cd:0.1  /n質量:8g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cd:0.01 /n質量:2g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cd:0.01 /n質量:5g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cd:0.005 /n質量:1g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cd:0.001 /n質量:1g</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -559,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -602,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -610,25 +625,25 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="C5" s="1">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="E5" s="1">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="F5" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G5" s="1">
-        <v>0.01</v>
+        <v>2E-3</v>
       </c>
       <c r="H5" s="1">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -644,6 +659,18 @@
       <c r="D6" s="1">
         <v>5000</v>
       </c>
+      <c r="E6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>50000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>100000</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="38.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -664,25 +691,25 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="35.25" customHeight="1">
@@ -731,7 +758,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1">
         <v>2.0000000000000001E-4</v>
@@ -757,7 +784,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1">
         <v>0.6</v>
@@ -792,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -839,13 +866,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="C5" s="1">
-        <v>0.15</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -861,6 +897,15 @@
       <c r="D6" s="1">
         <v>1000</v>
       </c>
+      <c r="E6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>20000</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="38.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -876,18 +921,27 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="27">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="63" customHeight="1">
@@ -895,13 +949,13 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -909,7 +963,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -919,7 +973,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1">
         <v>0.5</v>
@@ -929,6 +983,15 @@
       </c>
       <c r="D12" s="1">
         <v>0.01</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7">

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>フォルダー名</t>
     <rPh sb="5" eb="6">
@@ -118,27 +118,9 @@
     <t>nose4</t>
   </si>
   <si>
-    <t>nose5</t>
-  </si>
-  <si>
     <t>最初のノーズコーン</t>
   </si>
   <si>
-    <t>ちょっといいノーズコーン</t>
-  </si>
-  <si>
-    <t>すごくいいノーズコーン</t>
-  </si>
-  <si>
-    <t>まあ普通のノーズコーン/nゴム製でフニャ</t>
-  </si>
-  <si>
-    <t>ちょっといいやつで、硬い</t>
-  </si>
-  <si>
-    <t>何故かCD値が小さい不思議なノーズコーン</t>
-  </si>
-  <si>
     <t>nosecorn</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -186,11 +168,89 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cd:0.5 /n質量:10g</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cd:0.1  /n質量:8g</t>
+    <t>ウレタンのノーズコーン/nフニャフニャだが安全性は高い</t>
+    <rPh sb="21" eb="24">
+      <t>アンゼンセイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チタン製ノーズコーン</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チタン製で軽くて丈夫</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カル</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドライカーボン製ノーズコーン</t>
+    <rPh sb="7" eb="8">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーボンナノチューブ製</t>
+    <rPh sb="10" eb="11">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最高級のノーズコーン/nコレは良い物だ</t>
+    <rPh sb="0" eb="3">
+      <t>サイコウキュウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーボン製のにくい奴/nこれで万全</t>
+    <rPh sb="4" eb="5">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヤツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バンゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラスチックノーズコーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cd:0.5 /n質量:30g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cd:0.1  /n質量:15g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cd:0.01 /n質量:5g</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -198,15 +258,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cd:0.01 /n質量:5g</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cd:0.005 /n質量:1g</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cd:0.001 /n質量:1g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラスチック製で硬い/n表面がツルツルで空気抵抗が少ない</t>
+    <rPh sb="6" eb="7">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>クウキテイコウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>スク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -617,7 +685,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -691,25 +759,25 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="35.25" customHeight="1">
@@ -758,7 +826,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1">
         <v>2.0000000000000001E-4</v>
@@ -784,7 +852,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1">
         <v>0.6</v>
@@ -817,20 +885,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
-    <col min="2" max="7" width="16.125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="2" max="6" width="16.125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,7 +906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -857,19 +925,16 @@
       <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="C5" s="1">
         <v>0.01</v>
-      </c>
-      <c r="C5" s="1">
-        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D5" s="1">
         <v>5.0000000000000001E-3</v>
@@ -880,16 +945,13 @@
       <c r="F5" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G5" s="1">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>200</v>
@@ -898,82 +960,88 @@
         <v>1000</v>
       </c>
       <c r="E6" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F6" s="1">
         <v>5000</v>
       </c>
-      <c r="F6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G6" s="1">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="38.25" customHeight="1">
+    </row>
+    <row r="7" spans="1:6" ht="38.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="63" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="63" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1">
         <v>0.5</v>
@@ -988,18 +1056,15 @@
         <v>0.01</v>
       </c>
       <c r="F12" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G12" s="1">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>3</v>
       </c>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Body" sheetId="2" r:id="rId1"/>
-    <sheet name="NoseCorn" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="NoseCorn" sheetId="4" r:id="rId1"/>
+    <sheet name="Body" sheetId="2" r:id="rId2"/>
+    <sheet name="Fin" sheetId="5" r:id="rId3"/>
+    <sheet name="Pump" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="100">
   <si>
     <t>フォルダー名</t>
     <rPh sb="5" eb="6">
@@ -67,15 +68,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>弱いボディ</t>
-  </si>
-  <si>
-    <t>ちょっといいボディ</t>
-  </si>
-  <si>
-    <t>すごくいいボディ</t>
-  </si>
-  <si>
     <t>Specs</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -129,35 +121,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>耐圧300kPa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>耐圧400kPa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>耐圧800kPa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>body6</t>
-  </si>
-  <si>
-    <t>耐圧1000kPa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>耐圧1500kPa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>耐圧2500kPa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>耐圧5000kPa</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>FuelCapacity</t>
@@ -274,6 +238,483 @@
     </rPh>
     <rPh sb="25" eb="26">
       <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FinFolder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fin0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fin1</t>
+  </si>
+  <si>
+    <t>fin2</t>
+  </si>
+  <si>
+    <t>fin3</t>
+  </si>
+  <si>
+    <t>fin4</t>
+  </si>
+  <si>
+    <t>SideFin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FinCD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標準のフィン</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウレタンのフィン/nフニャフニャで安定が悪い</t>
+    <rPh sb="17" eb="19">
+      <t>アンテイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ワル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cd:0.01 /n質量:2g/n安定性★★★★</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cd:0.05 /n質量:10g/n安定性★★★</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cd:0.1  /n質量:20g/n安定性★★</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cd:0.2 /n質量:30g/n安定性★</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バルサ材のフィン</t>
+    <rPh sb="3" eb="4">
+      <t>ザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽量バルサ材のフィン/n安価だが安定性がUP</t>
+    <rPh sb="0" eb="2">
+      <t>ケイリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ザイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>アンカ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>アンテイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイコフレームのフィン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイコフレームの影響で空気抵抗が劇的に減り安定性も抜群</t>
+    <rPh sb="8" eb="10">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>クウキテイコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゲキテキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>アンテイセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バツグン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーボンのフィン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cd:-0.1 /n質量:1g /n安定性★★★★★</t>
+    <rPh sb="18" eb="21">
+      <t>アンテイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドライカーボンで空気抵抗が小さく、安定する。</t>
+    <rPh sb="8" eb="12">
+      <t>クウキテイコウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>アンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステンレスのフィン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステンレスで軽量高剛性/n安定性も向上。</t>
+    <rPh sb="6" eb="8">
+      <t>ケイリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>コウゴウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>アンテイセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炭酸用ペットボトル</t>
+    <rPh sb="0" eb="3">
+      <t>タンサンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強炭酸用ペットボトル</t>
+    <rPh sb="0" eb="1">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>タンサンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強化チタンカーボンナノチューブハイブリッド</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チタン削り出しボディ</t>
+    <rPh sb="3" eb="4">
+      <t>ケズ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーボンボディ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スーパーファインセラミックボデー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイコフレームが練りこまれている /n軽くて耐圧が高く超圧縮技術で50Lもの燃料が搭載できる</t>
+    <rPh sb="8" eb="9">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カル</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>タイアツ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>チョウアッシュク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ネンリョウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>トウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耐圧:300kPa /n容量:2L /nCD:0.6</t>
+    <rPh sb="12" eb="14">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耐圧:400kPa /n容量:2L /nCD:0.6</t>
+    <rPh sb="12" eb="14">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耐圧:800kPa /n容量:3L /nCD:0.6</t>
+    <rPh sb="12" eb="14">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耐圧:1000kPa /n容量:5L /nCD:0.5</t>
+    <rPh sb="13" eb="15">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耐圧:1500kPa /n容量:10L /nCD:0.4</t>
+    <rPh sb="13" eb="15">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耐圧:5000kPa /n容量:50L /nCD:0.2</t>
+    <rPh sb="13" eb="15">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耐圧:2000kPa /n容量:20L /nCD:0.3</t>
+    <rPh sb="13" eb="15">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強化ABSボディ</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さらに高圧に耐えるボディ/n容量も上がってる</t>
+    <rPh sb="3" eb="5">
+      <t>コウアツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耐圧が高いカーボンの専用ボディ/n容量も増えてるし空気抵抗も若干下がる</t>
+    <rPh sb="0" eb="2">
+      <t>タイアツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>クウキテイコウ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ジャッカンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チタン一体物の専用ボディ/n軽くて丈夫/nなぜか燃料が沢山入る</t>
+    <rPh sb="3" eb="6">
+      <t>イッタイモノ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カル</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強化チタンカーボンナノチューブハイブリッド製/nさらに軽くて丈夫で空気抵抗も少ない/nなぜか燃料がもっと沢山入る</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カル</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>クウキテイコウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ネンリョウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>タクサン</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いわゆる普通のペットボトル/nまずはこれから</t>
+    <rPh sb="4" eb="6">
+      <t>フツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強炭酸用ペットボトルなので、耐圧が高い。/nポンプもいいものに変えよう</t>
+    <rPh sb="0" eb="1">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>タンサンヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイアツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PumpFolder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pump0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pump1</t>
+  </si>
+  <si>
+    <t>Pump2</t>
+  </si>
+  <si>
+    <t>Pump3</t>
+  </si>
+  <si>
+    <t>Pump4</t>
+  </si>
+  <si>
+    <t>PumpMax</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PumpCapacity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浮き輪とかに空気入れるあれですよ/nすぐに買い替えなきゃ</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>クウキイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょっと強化されているポンプ/n圧力ちょっと高めで、ボディを壊さないよう注意</t>
+    <rPh sb="4" eb="6">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>アツリョク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通の自転車用のポンプ/n基本はこれ</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ジテンシャヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キホン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -640,10 +1081,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
+    <col min="2" max="6" width="16.125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>200</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="38.25" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="63" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B12" sqref="B12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -685,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -745,62 +1379,95 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="94.5">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
+      <c r="B9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1">
         <v>300</v>
@@ -818,7 +1485,7 @@
         <v>1500</v>
       </c>
       <c r="G12" s="1">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="H12" s="1">
         <v>5000</v>
@@ -826,7 +1493,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1">
         <v>2.0000000000000001E-4</v>
@@ -844,15 +1511,15 @@
         <v>1E-3</v>
       </c>
       <c r="G13" s="1">
-        <v>1.5E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H13" s="1">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1">
         <v>0.6</v>
@@ -883,12 +1550,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -903,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -911,19 +1578,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -934,10 +1601,10 @@
         <v>0.03</v>
       </c>
       <c r="C5" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.01</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E5" s="1">
         <v>2E-3</v>
@@ -954,16 +1621,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1">
         <v>200</v>
       </c>
-      <c r="D6" s="1">
-        <v>1000</v>
-      </c>
       <c r="E6" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="F6" s="1">
-        <v>5000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="38.25" customHeight="1">
@@ -971,97 +1638,112 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="40.5">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="63" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C12" s="1">
         <v>0.1</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="E12" s="1">
         <v>0.01</v>
       </c>
       <c r="F12" s="1">
-        <v>1E-3</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>2</v>
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1076,14 +1758,190 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
+    <col min="2" max="6" width="16.125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1">
+        <v>200</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="38.25" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="40.5">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="63" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="1">
+        <v>200</v>
+      </c>
+      <c r="C12" s="1">
+        <v>300</v>
+      </c>
+      <c r="D12" s="1">
+        <v>500</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NoseCorn" sheetId="4" r:id="rId1"/>
@@ -434,42 +434,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カーボンボディ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スーパーファインセラミックボデー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイコフレームが練りこまれている /n軽くて耐圧が高く超圧縮技術で50Lもの燃料が搭載できる</t>
-    <rPh sb="8" eb="9">
-      <t>ネ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カル</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>タイアツ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>チョウアッシュク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ギジュツ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ネンリョウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>トウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>耐圧:300kPa /n容量:2L /nCD:0.6</t>
     <rPh sb="12" eb="14">
       <t>ヨウリョウ</t>
@@ -716,6 +680,51 @@
     <rPh sb="13" eb="15">
       <t>キホン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>超構造体ボディ</t>
+    <rPh sb="0" eb="4">
+      <t>チョウコウゾウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新素材超構造体が練りこまれている /n軽くて耐圧が高く超圧縮技術で50Lもの燃料が搭載できる</t>
+    <rPh sb="0" eb="3">
+      <t>シンソザイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>チョウコウゾウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カル</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>タイアツ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>チョウアッシュク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ネンリョウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>トウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーボンボディ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1276,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1385,10 +1394,10 @@
         <v>69</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>71</v>
@@ -1397,7 +1406,7 @@
         <v>70</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="27">
@@ -1405,25 +1414,25 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="94.5">
@@ -1431,25 +1440,25 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1762,7 +1771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1778,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1786,19 +1795,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1871,13 +1880,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1895,7 +1904,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B12" s="1">
         <v>200</v>
@@ -1918,7 +1927,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NoseCorn" sheetId="4" r:id="rId1"/>
@@ -1285,7 +1285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1563,7 +1563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
   <si>
     <t>フォルダー名</t>
     <rPh sb="5" eb="6">
@@ -266,14 +266,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FinCD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Stability</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>標準のフィン</t>
     <rPh sb="0" eb="2">
       <t>ヒョウジュン</t>
@@ -330,36 +322,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サイコフレームのフィン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイコフレームの影響で空気抵抗が劇的に減り安定性も抜群</t>
-    <rPh sb="8" eb="10">
-      <t>エイキョウ</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>クウキテイコウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ゲキテキ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ヘ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>アンテイセイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バツグン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カーボンのフィン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cd:-0.1 /n質量:1g /n安定性★★★★★</t>
     <rPh sb="18" eb="21">
       <t>アンテイセイ</t>
@@ -380,10 +342,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ステンレスのフィン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ステンレスで軽量高剛性/n安定性も向上。</t>
     <rPh sb="6" eb="8">
       <t>ケイリョウ</t>
@@ -725,6 +683,76 @@
   </si>
   <si>
     <t>カーボンボディ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内側から光るフィン</t>
+    <rPh sb="0" eb="2">
+      <t>ウチガワ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステンレスのフィン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーボンのフィン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cd:0.2 /n質量:30g/n安定性★</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cd:0.1  /n質量:20g/n安定性★★</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cd:0.05 /n質量:10g/n安定性★★★</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cd:0.01 /n質量:2g/n安定性★★★★</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FinCD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不思議な力の影響で空気抵抗が劇的に減り安定性も抜群</t>
+    <rPh sb="0" eb="3">
+      <t>フシギ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>クウキテイコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゲキテキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>アンテイセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バツグン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1388,25 +1416,25 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="27">
@@ -1414,25 +1442,25 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="94.5">
@@ -1440,25 +1468,25 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1564,7 +1592,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1647,19 +1675,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="40.5">
@@ -1667,19 +1695,19 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="63" customHeight="1">
@@ -1687,19 +1715,19 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1717,7 +1745,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="B12" s="1">
         <v>0.2</v>
@@ -1737,7 +1765,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -1787,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1795,19 +1823,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1860,19 +1888,19 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="63" customHeight="1">
@@ -1880,13 +1908,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1904,7 +1932,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B12" s="1">
         <v>200</v>
@@ -1927,7 +1955,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NoseCorn" sheetId="4" r:id="rId1"/>
     <sheet name="Body" sheetId="2" r:id="rId2"/>
     <sheet name="Fin" sheetId="5" r:id="rId3"/>
     <sheet name="Pump" sheetId="6" r:id="rId4"/>
+    <sheet name="SRBA" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="183">
   <si>
     <t>フォルダー名</t>
     <rPh sb="5" eb="6">
@@ -752,6 +754,325 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>バツグン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足踏みポンプ</t>
+    <rPh sb="0" eb="2">
+      <t>アシブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自転車用ポンプ</t>
+    <rPh sb="0" eb="4">
+      <t>ジテンシャヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SRBAFolder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>srba0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>srba1</t>
+  </si>
+  <si>
+    <t>srba2</t>
+  </si>
+  <si>
+    <t>srba3</t>
+  </si>
+  <si>
+    <t>srba4</t>
+  </si>
+  <si>
+    <t>srba5</t>
+  </si>
+  <si>
+    <t>srba6</t>
+  </si>
+  <si>
+    <t>srba7</t>
+  </si>
+  <si>
+    <t>srba8</t>
+  </si>
+  <si>
+    <t>srba9</t>
+  </si>
+  <si>
+    <t>srba10</t>
+  </si>
+  <si>
+    <t>srba11</t>
+  </si>
+  <si>
+    <t>srba12</t>
+  </si>
+  <si>
+    <t>srba13</t>
+  </si>
+  <si>
+    <t>srba14</t>
+  </si>
+  <si>
+    <t>srba15</t>
+  </si>
+  <si>
+    <t>srba16</t>
+  </si>
+  <si>
+    <t>SRBANumber</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SRBAThrustForce</t>
+  </si>
+  <si>
+    <t>SRBABurningTime</t>
+  </si>
+  <si>
+    <t>ParameterName</t>
+  </si>
+  <si>
+    <t>ParameterName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブースター無し</t>
+    <rPh sb="5" eb="6">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブースタ無しの状態</t>
+    <rPh sb="4" eb="5">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数:2本 /n推力:1N /n燃焼時間:0.6秒</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>srba17</t>
+  </si>
+  <si>
+    <t>srba18</t>
+  </si>
+  <si>
+    <t>srba19</t>
+  </si>
+  <si>
+    <t>srba20</t>
+  </si>
+  <si>
+    <t>srba21</t>
+  </si>
+  <si>
+    <t>srba22</t>
+  </si>
+  <si>
+    <t>srba23</t>
+  </si>
+  <si>
+    <t>srba24</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>トータルインパルス</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>推力秒</t>
+    <rPh sb="0" eb="2">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>推力</t>
+    <rPh sb="0" eb="2">
+      <t>スイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秒</t>
+    <rPh sb="0" eb="1">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>N・s</t>
+  </si>
+  <si>
+    <t>8本での高度</t>
+    <rPh sb="1" eb="2">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CD値最低限</t>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サイテイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CD値最低限+毎回抵抗計算</t>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サイテイゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マイカイ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>テイコウケイサン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -760,6 +1081,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -794,16 +1118,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -814,15 +1138,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,6 +1161,856 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ja-JP"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1504592702085524"/>
+          <c:y val="4.214129483814525E-2"/>
+          <c:w val="0.69775377355808876"/>
+          <c:h val="0.8326195683872849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>推力秒</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet2!$A$4:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>K</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Q</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>U</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>W</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>X</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Z</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>AA</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>AB</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>AC</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>AD</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>AE</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>AF</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>AG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$4:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20480</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40960</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>81920</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>163840</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>327680</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>655360</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1310720</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2621440</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5242880</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10485760</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20971520</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41900000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>83900000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>168000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>336000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>671000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1340000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2680000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5370000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10700000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>推力</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet2!$A$4:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>K</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Q</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>U</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>W</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>X</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Z</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>AA</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>AB</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>AC</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>AD</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>AE</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>AF</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>AG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$4:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>170.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>170.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>409.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>744.72727272727275</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1365.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3276.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5461.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14563.555555555555</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>26214.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41943.040000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>69905.066666666666</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>130937.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>209750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>336000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>560000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>838750</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1340000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2061538.4615384615</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3356250</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5350000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="226721792"/>
+        <c:axId val="226723328"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>秒</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet2!$A$4:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>K</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Q</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>U</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>W</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>X</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Z</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>AA</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>AB</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>AC</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>AD</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>AE</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>AF</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>AG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$4:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="226743040"/>
+        <c:axId val="226724864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="226721792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="226723328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="226723328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="226721792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="226724864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="226743040"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="226743040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="226724864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1121,7 +2301,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1259,7 +2439,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="14.25" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1267,8 +2447,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:6" ht="14.25" thickBot="1">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1314,7 +2494,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1489,7 +2669,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="14.25" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1497,8 +2677,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:8" ht="14.25" thickBot="1">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1591,8 +2771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1730,7 +2910,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="14.25" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1738,8 +2918,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:6" ht="14.25" thickBot="1">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1800,7 +2980,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1882,6 +3062,12 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="40.5">
       <c r="A8" s="1" t="s">
@@ -1917,7 +3103,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="14.25" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1925,9 +3111,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
+    <row r="11" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A11" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1983,4 +3169,1269 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="16.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1">
+        <v>500</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>50000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="38.25" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="40.5">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" thickBot="1">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" thickBot="1">
+      <c r="A11" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1">
+        <v>8</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1">
+        <v>6</v>
+      </c>
+      <c r="J12" s="1">
+        <v>8</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4</v>
+      </c>
+      <c r="M12" s="1">
+        <v>6</v>
+      </c>
+      <c r="N12" s="1">
+        <v>8</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2</v>
+      </c>
+      <c r="P12" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>6</v>
+      </c>
+      <c r="R12" s="1">
+        <v>8</v>
+      </c>
+      <c r="S12" s="1">
+        <v>2</v>
+      </c>
+      <c r="T12" s="1">
+        <v>4</v>
+      </c>
+      <c r="U12" s="1">
+        <v>6</v>
+      </c>
+      <c r="V12" s="1">
+        <v>8</v>
+      </c>
+      <c r="W12" s="1">
+        <v>2</v>
+      </c>
+      <c r="X12" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:H45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1.26</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4">
+        <f>F4*G4</f>
+        <v>2.5</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E22" si="0">F5*G5</f>
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>6.25</v>
+      </c>
+      <c r="G5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5.01</v>
+      </c>
+      <c r="C6" s="4">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>6.25</v>
+      </c>
+      <c r="G6">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="4">
+        <v>10.01</v>
+      </c>
+      <c r="C7" s="4">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>19.98</v>
+      </c>
+      <c r="F7">
+        <v>11.1</v>
+      </c>
+      <c r="G7">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="4">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="C8" s="4">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="4">
+        <v>40.01</v>
+      </c>
+      <c r="C9" s="4">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F9">
+        <f>C9/G9</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="4">
+        <v>80.010000000000005</v>
+      </c>
+      <c r="C10" s="4">
+        <v>160</v>
+      </c>
+      <c r="D10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F22" si="1">C10/G10</f>
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="4">
+        <v>160.01</v>
+      </c>
+      <c r="C11" s="4">
+        <v>320</v>
+      </c>
+      <c r="D11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="4">
+        <v>320.01</v>
+      </c>
+      <c r="C12" s="4">
+        <v>640</v>
+      </c>
+      <c r="D12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="4">
+        <v>640.01</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1280</v>
+      </c>
+      <c r="D13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1280</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="G13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1280.01</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2560</v>
+      </c>
+      <c r="D14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2560</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>22906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2560.0100000000002</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5120</v>
+      </c>
+      <c r="D15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>5120</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="G15">
+        <v>32</v>
+      </c>
+      <c r="H15">
+        <v>38138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="F16">
+        <v>160</v>
+      </c>
+      <c r="G16">
+        <v>60</v>
+      </c>
+      <c r="H16">
+        <v>70887</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="4">
+        <v>5120.01</v>
+      </c>
+      <c r="C17" s="4">
+        <v>10240</v>
+      </c>
+      <c r="D17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17">
+        <f>F17*G17</f>
+        <v>10240</v>
+      </c>
+      <c r="F17">
+        <f>C17/G17</f>
+        <v>170.66666666666666</v>
+      </c>
+      <c r="G17">
+        <v>60</v>
+      </c>
+      <c r="H17">
+        <v>71827</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="4">
+        <v>10240</v>
+      </c>
+      <c r="E18">
+        <f>F18*G18</f>
+        <v>10240</v>
+      </c>
+      <c r="F18">
+        <f>C18/G18</f>
+        <v>170.66666666666666</v>
+      </c>
+      <c r="G18">
+        <v>60</v>
+      </c>
+      <c r="H18">
+        <v>344573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="H19">
+        <v>86340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="4">
+        <v>10240</v>
+      </c>
+      <c r="D21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>10240</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="G21">
+        <v>40</v>
+      </c>
+      <c r="H21">
+        <v>72242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="4">
+        <v>20480</v>
+      </c>
+      <c r="D22" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>20480</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>409.6</v>
+      </c>
+      <c r="G22">
+        <v>50</v>
+      </c>
+      <c r="H22">
+        <v>112017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="4">
+        <v>20480.009999999998</v>
+      </c>
+      <c r="C27" s="4">
+        <v>40960</v>
+      </c>
+      <c r="D27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27">
+        <f>F27*G27</f>
+        <v>40960</v>
+      </c>
+      <c r="F27">
+        <f>C27/G27</f>
+        <v>744.72727272727275</v>
+      </c>
+      <c r="G27">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="4">
+        <v>40960.01</v>
+      </c>
+      <c r="C28" s="4">
+        <v>81920</v>
+      </c>
+      <c r="D28" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28">
+        <f>F28*G28</f>
+        <v>81920</v>
+      </c>
+      <c r="F28">
+        <f>C28/G28</f>
+        <v>1365.3333333333333</v>
+      </c>
+      <c r="G28">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="4">
+        <v>81920.009999999995</v>
+      </c>
+      <c r="C29" s="4">
+        <v>163840</v>
+      </c>
+      <c r="D29" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29">
+        <f>F29*G29</f>
+        <v>163840</v>
+      </c>
+      <c r="F29">
+        <f>C29/G29</f>
+        <v>2048</v>
+      </c>
+      <c r="G29">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="4">
+        <v>163840.01</v>
+      </c>
+      <c r="C30" s="4">
+        <v>327680</v>
+      </c>
+      <c r="D30" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30">
+        <f>F30*G30</f>
+        <v>327680</v>
+      </c>
+      <c r="F30">
+        <f>C30/G30</f>
+        <v>3276.8</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="4">
+        <v>327680.01</v>
+      </c>
+      <c r="C31" s="4">
+        <v>655360</v>
+      </c>
+      <c r="D31" t="s">
+        <v>179</v>
+      </c>
+      <c r="E31">
+        <f>F31*G31</f>
+        <v>655360</v>
+      </c>
+      <c r="F31">
+        <f>C31/G31</f>
+        <v>5461.333333333333</v>
+      </c>
+      <c r="G31">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="4">
+        <v>655360.01</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1310720</v>
+      </c>
+      <c r="D32" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32">
+        <f>F32*G32</f>
+        <v>1310720</v>
+      </c>
+      <c r="F32">
+        <f>C32/G32</f>
+        <v>8192</v>
+      </c>
+      <c r="G32">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1310720.01</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2621440</v>
+      </c>
+      <c r="D33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33">
+        <f>F33*G33</f>
+        <v>2621440</v>
+      </c>
+      <c r="F33">
+        <f>C33/G33</f>
+        <v>14563.555555555555</v>
+      </c>
+      <c r="G33">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="4">
+        <v>2621440.0099999998</v>
+      </c>
+      <c r="C34" s="4">
+        <v>5242880</v>
+      </c>
+      <c r="D34" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34">
+        <f>F34*G34</f>
+        <v>5242880</v>
+      </c>
+      <c r="F34">
+        <f>C34/G34</f>
+        <v>26214.400000000001</v>
+      </c>
+      <c r="G34">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="4">
+        <v>5242880.01</v>
+      </c>
+      <c r="C35" s="4">
+        <v>10485760</v>
+      </c>
+      <c r="D35" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35">
+        <f>F35*G35</f>
+        <v>10485760</v>
+      </c>
+      <c r="F35">
+        <f>C35/G35</f>
+        <v>41943.040000000001</v>
+      </c>
+      <c r="G35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" s="4">
+        <v>10485760.01</v>
+      </c>
+      <c r="C36" s="4">
+        <v>20971520</v>
+      </c>
+      <c r="D36" t="s">
+        <v>179</v>
+      </c>
+      <c r="E36">
+        <f>F36*G36</f>
+        <v>20971520</v>
+      </c>
+      <c r="F36">
+        <f>C36/G36</f>
+        <v>69905.066666666666</v>
+      </c>
+      <c r="G36">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" s="4">
+        <v>21000000</v>
+      </c>
+      <c r="C37" s="4">
+        <v>41900000</v>
+      </c>
+      <c r="D37" t="s">
+        <v>179</v>
+      </c>
+      <c r="E37">
+        <f>F37*G37</f>
+        <v>41900000</v>
+      </c>
+      <c r="F37">
+        <f>C37/G37</f>
+        <v>130937.5</v>
+      </c>
+      <c r="G37">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" s="4">
+        <v>41900000</v>
+      </c>
+      <c r="C38" s="4">
+        <v>83900000</v>
+      </c>
+      <c r="D38" t="s">
+        <v>179</v>
+      </c>
+      <c r="E38">
+        <f>F38*G38</f>
+        <v>83900000</v>
+      </c>
+      <c r="F38">
+        <f>C38/G38</f>
+        <v>209750</v>
+      </c>
+      <c r="G38">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="4">
+        <v>83900000</v>
+      </c>
+      <c r="C39" s="4">
+        <v>168000000</v>
+      </c>
+      <c r="D39" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39">
+        <f>F39*G39</f>
+        <v>168000000</v>
+      </c>
+      <c r="F39">
+        <f>C39/G39</f>
+        <v>336000</v>
+      </c>
+      <c r="G39">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40" s="4">
+        <v>168000000</v>
+      </c>
+      <c r="C40" s="4">
+        <v>336000000</v>
+      </c>
+      <c r="D40" t="s">
+        <v>179</v>
+      </c>
+      <c r="E40">
+        <f>F40*G40</f>
+        <v>336000000</v>
+      </c>
+      <c r="F40">
+        <f>C40/G40</f>
+        <v>560000</v>
+      </c>
+      <c r="G40">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" s="4">
+        <v>336000000</v>
+      </c>
+      <c r="C41" s="4">
+        <v>671000000</v>
+      </c>
+      <c r="D41" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41">
+        <f>F41*G41</f>
+        <v>671000000</v>
+      </c>
+      <c r="F41">
+        <f>C41/G41</f>
+        <v>838750</v>
+      </c>
+      <c r="G41">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B42" s="4">
+        <v>671000000</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1340000000</v>
+      </c>
+      <c r="D42" t="s">
+        <v>179</v>
+      </c>
+      <c r="E42">
+        <f>F42*G42</f>
+        <v>1340000000</v>
+      </c>
+      <c r="F42">
+        <f>C42/G42</f>
+        <v>1340000</v>
+      </c>
+      <c r="G42">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1340000000</v>
+      </c>
+      <c r="C43" s="4">
+        <v>2680000000</v>
+      </c>
+      <c r="D43" t="s">
+        <v>179</v>
+      </c>
+      <c r="E43">
+        <f>F43*G43</f>
+        <v>2680000000</v>
+      </c>
+      <c r="F43">
+        <f>C43/G43</f>
+        <v>2061538.4615384615</v>
+      </c>
+      <c r="G43">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" s="4">
+        <v>2680000000</v>
+      </c>
+      <c r="C44" s="4">
+        <v>5370000000</v>
+      </c>
+      <c r="D44" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44">
+        <f>F44*G44</f>
+        <v>5370000000</v>
+      </c>
+      <c r="F44">
+        <f>C44/G44</f>
+        <v>3356250</v>
+      </c>
+      <c r="G44">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="4">
+        <v>5370000000</v>
+      </c>
+      <c r="C45" s="4">
+        <v>10700000000</v>
+      </c>
+      <c r="D45" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45">
+        <f>F45*G45</f>
+        <v>10700000000</v>
+      </c>
+      <c r="F45">
+        <f>C45/G45</f>
+        <v>5350000</v>
+      </c>
+      <c r="G45">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="184">
   <si>
     <t>フォルダー名</t>
     <rPh sb="5" eb="6">
@@ -1074,6 +1074,10 @@
     <rPh sb="9" eb="13">
       <t>テイコウケイサン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Best</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1101,12 +1105,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1138,7 +1148,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1152,6 +1162,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1173,9 +1189,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1504592702085524"/>
-          <c:y val="4.214129483814525E-2"/>
-          <c:w val="0.69775377355808876"/>
+          <c:x val="0.15045927020855238"/>
+          <c:y val="4.2141294838145271E-2"/>
+          <c:w val="0.69775377355808899"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -1236,13 +1252,16 @@
                 <c:pt idx="11">
                   <c:v>L</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
+                  <c:v>Best</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>M</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>M</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>N</c:v>
                 </c:pt>
                 <c:pt idx="23">
@@ -1347,16 +1366,16 @@
                 <c:pt idx="11">
                   <c:v>5120</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>10240</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>10240</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>10240</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>20480</c:v>
                 </c:pt>
                 <c:pt idx="23">
@@ -1476,13 +1495,16 @@
                 <c:pt idx="11">
                   <c:v>L</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
+                  <c:v>Best</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>M</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>M</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>N</c:v>
                 </c:pt>
                 <c:pt idx="23">
@@ -1591,15 +1613,21 @@
                   <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>170.66666666666666</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>170.66666666666666</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>409.6</c:v>
                 </c:pt>
                 <c:pt idx="23">
@@ -1664,8 +1692,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="226721792"/>
-        <c:axId val="226723328"/>
+        <c:axId val="226923648"/>
+        <c:axId val="226925184"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -1724,13 +1752,16 @@
                 <c:pt idx="11">
                   <c:v>L</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
+                  <c:v>Best</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>M</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>M</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>N</c:v>
                 </c:pt>
                 <c:pt idx="23">
@@ -1836,18 +1867,21 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>60</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="23">
@@ -1912,22 +1946,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="226743040"/>
-        <c:axId val="226724864"/>
+        <c:axId val="226944896"/>
+        <c:axId val="226943360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226721792"/>
+        <c:axId val="226923648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226723328"/>
+        <c:crossAx val="226925184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226723328"/>
+        <c:axId val="226925184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1935,31 +1969,31 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226721792"/>
+        <c:crossAx val="226923648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226724864"/>
+        <c:axId val="226943360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226743040"/>
+        <c:crossAx val="226944896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226743040"/>
+        <c:axId val="226944896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="226724864"/>
+        <c:crossAx val="226943360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1972,7 +2006,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3490,7 +3524,7 @@
   <dimension ref="A3:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3559,7 +3593,7 @@
         <v>179</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E22" si="0">F5*G5</f>
+        <f t="shared" ref="E5:E15" si="0">F5*G5</f>
         <v>5</v>
       </c>
       <c r="F5">
@@ -3684,7 +3718,7 @@
         <v>160</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:F22" si="1">C10/G10</f>
+        <f t="shared" ref="F10:F15" si="1">C10/G10</f>
         <v>40</v>
       </c>
       <c r="G10">
@@ -3790,9 +3824,6 @@
       <c r="G14">
         <v>20</v>
       </c>
-      <c r="H14">
-        <v>22906</v>
-      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
@@ -3819,138 +3850,152 @@
         <v>32</v>
       </c>
       <c r="H15">
-        <v>38138</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="F16">
+      <c r="A16" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5">
         <v>160</v>
       </c>
-      <c r="G16">
-        <v>60</v>
-      </c>
-      <c r="H16">
-        <v>70887</v>
+      <c r="G16" s="5">
+        <v>35</v>
+      </c>
+      <c r="H16" s="5">
+        <v>100000</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" s="4">
-        <v>5120.01</v>
-      </c>
-      <c r="C17" s="4">
-        <v>10240</v>
-      </c>
-      <c r="D17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17">
-        <f>F17*G17</f>
-        <v>10240</v>
-      </c>
       <c r="F17">
-        <f>C17/G17</f>
-        <v>170.66666666666666</v>
+        <v>160</v>
       </c>
       <c r="G17">
         <v>60</v>
       </c>
-      <c r="H17">
+    </row>
+    <row r="18" spans="1:8">
+      <c r="F18">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="4">
+        <v>5120.01</v>
+      </c>
+      <c r="C20" s="4">
+        <v>10240</v>
+      </c>
+      <c r="D20" t="s">
+        <v>179</v>
+      </c>
+      <c r="E20">
+        <f>F20*G20</f>
+        <v>10240</v>
+      </c>
+      <c r="F20">
+        <f>C20/G20</f>
+        <v>170.66666666666666</v>
+      </c>
+      <c r="G20">
+        <v>60</v>
+      </c>
+      <c r="H20">
         <v>71827</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="B18" s="4" t="s">
+    <row r="22" spans="1:8">
+      <c r="B22" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C22" s="4">
         <v>10240</v>
       </c>
-      <c r="E18">
-        <f>F18*G18</f>
+      <c r="E22">
+        <f>F22*G22</f>
         <v>10240</v>
       </c>
-      <c r="F18">
-        <f>C18/G18</f>
+      <c r="F22">
+        <f>C22/G22</f>
         <v>170.66666666666666</v>
       </c>
-      <c r="G18">
+      <c r="G22">
         <v>60</v>
       </c>
-      <c r="H18">
+      <c r="H22">
         <v>344573</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="B19" s="4" t="s">
+    <row r="23" spans="1:8">
+      <c r="B23" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="H19">
+      <c r="C23" s="4"/>
+      <c r="H23">
         <v>86340</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
         <v>155</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C24" s="4">
         <v>10240</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D24" t="s">
         <v>179</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
+      <c r="E24">
+        <f>F24*G24</f>
         <v>10240</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
+      <c r="F24">
+        <f>C24/G24</f>
         <v>256</v>
       </c>
-      <c r="G21">
+      <c r="G24">
         <v>40</v>
       </c>
-      <c r="H21">
+      <c r="H24">
         <v>72242</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C25" s="4">
         <v>20480</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D25" t="s">
         <v>179</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
+      <c r="E25">
+        <f>F25*G25</f>
         <v>20480</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
+      <c r="F25">
+        <f>C25/G25</f>
         <v>409.6</v>
       </c>
-      <c r="G22">
+      <c r="G25">
         <v>50</v>
       </c>
-      <c r="H22">
+      <c r="H25">
         <v>112017</v>
       </c>
     </row>
@@ -3968,11 +4013,11 @@
         <v>179</v>
       </c>
       <c r="E27">
-        <f>F27*G27</f>
+        <f t="shared" ref="E27:E45" si="2">F27*G27</f>
         <v>40960</v>
       </c>
       <c r="F27">
-        <f>C27/G27</f>
+        <f t="shared" ref="F27:F45" si="3">C27/G27</f>
         <v>744.72727272727275</v>
       </c>
       <c r="G27">
@@ -3993,11 +4038,11 @@
         <v>179</v>
       </c>
       <c r="E28">
-        <f>F28*G28</f>
+        <f t="shared" si="2"/>
         <v>81920</v>
       </c>
       <c r="F28">
-        <f>C28/G28</f>
+        <f t="shared" si="3"/>
         <v>1365.3333333333333</v>
       </c>
       <c r="G28">
@@ -4018,11 +4063,11 @@
         <v>179</v>
       </c>
       <c r="E29">
-        <f>F29*G29</f>
+        <f t="shared" si="2"/>
         <v>163840</v>
       </c>
       <c r="F29">
-        <f>C29/G29</f>
+        <f t="shared" si="3"/>
         <v>2048</v>
       </c>
       <c r="G29">
@@ -4043,11 +4088,11 @@
         <v>179</v>
       </c>
       <c r="E30">
-        <f>F30*G30</f>
+        <f t="shared" si="2"/>
         <v>327680</v>
       </c>
       <c r="F30">
-        <f>C30/G30</f>
+        <f t="shared" si="3"/>
         <v>3276.8</v>
       </c>
       <c r="G30">
@@ -4068,11 +4113,11 @@
         <v>179</v>
       </c>
       <c r="E31">
-        <f>F31*G31</f>
+        <f t="shared" si="2"/>
         <v>655360</v>
       </c>
       <c r="F31">
-        <f>C31/G31</f>
+        <f t="shared" si="3"/>
         <v>5461.333333333333</v>
       </c>
       <c r="G31">
@@ -4093,11 +4138,11 @@
         <v>179</v>
       </c>
       <c r="E32">
-        <f>F32*G32</f>
+        <f t="shared" si="2"/>
         <v>1310720</v>
       </c>
       <c r="F32">
-        <f>C32/G32</f>
+        <f t="shared" si="3"/>
         <v>8192</v>
       </c>
       <c r="G32">
@@ -4118,11 +4163,11 @@
         <v>179</v>
       </c>
       <c r="E33">
-        <f>F33*G33</f>
+        <f t="shared" si="2"/>
         <v>2621440</v>
       </c>
       <c r="F33">
-        <f>C33/G33</f>
+        <f t="shared" si="3"/>
         <v>14563.555555555555</v>
       </c>
       <c r="G33">
@@ -4143,11 +4188,11 @@
         <v>179</v>
       </c>
       <c r="E34">
-        <f>F34*G34</f>
+        <f t="shared" si="2"/>
         <v>5242880</v>
       </c>
       <c r="F34">
-        <f>C34/G34</f>
+        <f t="shared" si="3"/>
         <v>26214.400000000001</v>
       </c>
       <c r="G34">
@@ -4168,11 +4213,11 @@
         <v>179</v>
       </c>
       <c r="E35">
-        <f>F35*G35</f>
+        <f t="shared" si="2"/>
         <v>10485760</v>
       </c>
       <c r="F35">
-        <f>C35/G35</f>
+        <f t="shared" si="3"/>
         <v>41943.040000000001</v>
       </c>
       <c r="G35">
@@ -4193,11 +4238,11 @@
         <v>179</v>
       </c>
       <c r="E36">
-        <f>F36*G36</f>
+        <f t="shared" si="2"/>
         <v>20971520</v>
       </c>
       <c r="F36">
-        <f>C36/G36</f>
+        <f t="shared" si="3"/>
         <v>69905.066666666666</v>
       </c>
       <c r="G36">
@@ -4218,11 +4263,11 @@
         <v>179</v>
       </c>
       <c r="E37">
-        <f>F37*G37</f>
+        <f t="shared" si="2"/>
         <v>41900000</v>
       </c>
       <c r="F37">
-        <f>C37/G37</f>
+        <f t="shared" si="3"/>
         <v>130937.5</v>
       </c>
       <c r="G37">
@@ -4243,11 +4288,11 @@
         <v>179</v>
       </c>
       <c r="E38">
-        <f>F38*G38</f>
+        <f t="shared" si="2"/>
         <v>83900000</v>
       </c>
       <c r="F38">
-        <f>C38/G38</f>
+        <f t="shared" si="3"/>
         <v>209750</v>
       </c>
       <c r="G38">
@@ -4268,11 +4313,11 @@
         <v>179</v>
       </c>
       <c r="E39">
-        <f>F39*G39</f>
+        <f t="shared" si="2"/>
         <v>168000000</v>
       </c>
       <c r="F39">
-        <f>C39/G39</f>
+        <f t="shared" si="3"/>
         <v>336000</v>
       </c>
       <c r="G39">
@@ -4293,11 +4338,11 @@
         <v>179</v>
       </c>
       <c r="E40">
-        <f>F40*G40</f>
+        <f t="shared" si="2"/>
         <v>336000000</v>
       </c>
       <c r="F40">
-        <f>C40/G40</f>
+        <f t="shared" si="3"/>
         <v>560000</v>
       </c>
       <c r="G40">
@@ -4318,11 +4363,11 @@
         <v>179</v>
       </c>
       <c r="E41">
-        <f>F41*G41</f>
+        <f t="shared" si="2"/>
         <v>671000000</v>
       </c>
       <c r="F41">
-        <f>C41/G41</f>
+        <f t="shared" si="3"/>
         <v>838750</v>
       </c>
       <c r="G41">
@@ -4343,11 +4388,11 @@
         <v>179</v>
       </c>
       <c r="E42">
-        <f>F42*G42</f>
+        <f t="shared" si="2"/>
         <v>1340000000</v>
       </c>
       <c r="F42">
-        <f>C42/G42</f>
+        <f t="shared" si="3"/>
         <v>1340000</v>
       </c>
       <c r="G42">
@@ -4368,11 +4413,11 @@
         <v>179</v>
       </c>
       <c r="E43">
-        <f>F43*G43</f>
+        <f t="shared" si="2"/>
         <v>2680000000</v>
       </c>
       <c r="F43">
-        <f>C43/G43</f>
+        <f t="shared" si="3"/>
         <v>2061538.4615384615</v>
       </c>
       <c r="G43">
@@ -4393,11 +4438,11 @@
         <v>179</v>
       </c>
       <c r="E44">
-        <f>F44*G44</f>
+        <f t="shared" si="2"/>
         <v>5370000000</v>
       </c>
       <c r="F44">
-        <f>C44/G44</f>
+        <f t="shared" si="3"/>
         <v>3356250</v>
       </c>
       <c r="G44">
@@ -4418,11 +4463,11 @@
         <v>179</v>
       </c>
       <c r="E45">
-        <f>F45*G45</f>
+        <f t="shared" si="2"/>
         <v>10700000000</v>
       </c>
       <c r="F45">
-        <f>C45/G45</f>
+        <f t="shared" si="3"/>
         <v>5350000</v>
       </c>
       <c r="G45">

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="202">
   <si>
     <t>フォルダー名</t>
     <rPh sb="5" eb="6">
@@ -1078,6 +1078,87 @@
   </si>
   <si>
     <t>Best</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/4A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/2A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8本</t>
+    <rPh sb="1" eb="2">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2本</t>
+    <rPh sb="1" eb="2">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SRBA13種類</t>
+    <rPh sb="6" eb="8">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Saturn V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Falcon9.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Delta IV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Atlas V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Long March 2F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STS spaceShatle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Proton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H2A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Soyuz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aliane V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Epsiron</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pensil</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1085,10 +1166,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1104,8 +1188,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1115,6 +1206,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,7 +1251,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1168,6 +1271,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1190,8 +1317,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145271E-2"/>
-          <c:w val="0.69775377355808899"/>
+          <c:y val="4.2141294838145292E-2"/>
+          <c:w val="0.69775377355808921"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -1213,7 +1340,7 @@
           </c:tx>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet2!$A$4:$A$45</c:f>
+              <c:f>Sheet2!$A$7:$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
@@ -1326,7 +1453,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$E$45</c:f>
+              <c:f>Sheet2!$E$7:$E$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -1456,7 +1583,7 @@
           </c:tx>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet2!$A$4:$A$45</c:f>
+              <c:f>Sheet2!$A$7:$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
@@ -1569,7 +1696,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$F$4:$F$45</c:f>
+              <c:f>Sheet2!$F$7:$F$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -1692,8 +1819,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="226923648"/>
-        <c:axId val="226925184"/>
+        <c:axId val="224900224"/>
+        <c:axId val="224901760"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -1713,7 +1840,7 @@
           </c:tx>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet2!$A$4:$A$45</c:f>
+              <c:f>Sheet2!$A$7:$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
@@ -1826,7 +1953,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$G$4:$G$45</c:f>
+              <c:f>Sheet2!$G$7:$G$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -1946,22 +2073,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="226944896"/>
-        <c:axId val="226943360"/>
+        <c:axId val="238552960"/>
+        <c:axId val="238551424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226923648"/>
+        <c:axId val="224900224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226925184"/>
+        <c:crossAx val="224901760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226925184"/>
+        <c:axId val="224901760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1969,31 +2096,31 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226923648"/>
+        <c:crossAx val="224900224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226943360"/>
+        <c:axId val="238551424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226944896"/>
+        <c:crossAx val="238552960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226944896"/>
+        <c:axId val="238552960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="226943360"/>
+        <c:crossAx val="238551424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2006,7 +2133,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2016,16 +2143,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3521,25 +3648,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:H45"/>
+  <dimension ref="A3:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="11" customWidth="1"/>
     <col min="5" max="5" width="18.25" customWidth="1"/>
     <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>141</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="11" t="s">
         <v>142</v>
       </c>
       <c r="E3" t="s">
@@ -3555,928 +3683,1264 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1.26</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4">
-        <f>F4*G4</f>
-        <v>2.5</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="C5" s="4">
-        <v>5</v>
+    <row r="4" spans="1:13">
+      <c r="I4" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.625</v>
       </c>
       <c r="D5" t="s">
         <v>179</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E15" si="0">F5*G5</f>
+        <f t="shared" ref="E5:E6" si="0">F5*G5</f>
+        <v>0.625</v>
+      </c>
+      <c r="F5">
+        <v>3.125</v>
+      </c>
+      <c r="G5">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="5">
+        <f>E5*2</f>
+        <v>1.25</v>
+      </c>
+      <c r="J5" s="5">
+        <f>E5*4</f>
+        <v>2.5</v>
+      </c>
+      <c r="K5" s="5">
+        <f>E5*6</f>
+        <v>3.75</v>
+      </c>
+      <c r="L5" s="13">
+        <f>E5*8</f>
         <v>5</v>
       </c>
-      <c r="F5">
-        <v>6.25</v>
-      </c>
-      <c r="G5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="4">
-        <v>5.01</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10</v>
+      <c r="M5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1.25</v>
       </c>
       <c r="D6" t="s">
         <v>179</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1.248</v>
       </c>
       <c r="F6">
-        <v>6.25</v>
+        <v>4.16</v>
       </c>
       <c r="G6">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="4">
-        <v>10.01</v>
-      </c>
-      <c r="C7" s="4">
-        <v>20</v>
+        <v>0.3</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I32" si="1">E6*2</f>
+        <v>2.496</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J17" si="2">E6*4</f>
+        <v>4.992</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" ref="K6:K17" si="3">E6*6</f>
+        <v>7.4879999999999995</v>
+      </c>
+      <c r="L6">
+        <f>E6*8</f>
+        <v>9.984</v>
+      </c>
+      <c r="M6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1.26</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2.5</v>
       </c>
       <c r="D7" t="s">
         <v>179</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>19.98</v>
+        <f>F7*G7</f>
+        <v>2.5</v>
       </c>
       <c r="F7">
-        <v>11.1</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" s="4">
-        <v>20.010000000000002</v>
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="L7" s="5">
+        <f>E7*8</f>
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2.5099999999999998</v>
       </c>
       <c r="C8" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>179</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E8:E18" si="4">F8*G8</f>
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>6.25</v>
+      </c>
+      <c r="G8">
+        <v>0.8</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="L8">
+        <f>E8*8</f>
         <v>40</v>
       </c>
-      <c r="F8">
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" s="4">
-        <v>40.01</v>
+      <c r="M8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="9">
+        <v>5.01</v>
       </c>
       <c r="C9" s="4">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>179</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>6.25</v>
+      </c>
+      <c r="G9">
+        <v>1.6</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="L9">
+        <f>E9*8</f>
         <v>80</v>
       </c>
-      <c r="F9">
-        <f>C9/G9</f>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" s="4">
-        <v>80.010000000000005</v>
+      <c r="M9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="9">
+        <v>10.01</v>
       </c>
       <c r="C10" s="4">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>179</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <f t="shared" si="4"/>
+        <v>19.98</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:F15" si="1">C10/G10</f>
+        <v>11.1</v>
+      </c>
+      <c r="G10">
+        <v>1.8</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="1"/>
+        <v>39.96</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="2"/>
+        <v>79.92</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="3"/>
+        <v>119.88</v>
+      </c>
+      <c r="L10" s="5">
+        <f>E10*8</f>
+        <v>159.84</v>
+      </c>
+      <c r="M10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="9">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="C11" s="4">
         <v>40</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="4">
-        <v>160.01</v>
-      </c>
-      <c r="C11" s="4">
-        <v>320</v>
       </c>
       <c r="D11" t="s">
         <v>179</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="L11">
+        <f>E11*8</f>
         <v>320</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12" s="4">
-        <v>320.01</v>
+      <c r="M11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="9">
+        <v>40.01</v>
       </c>
       <c r="C12" s="4">
-        <v>640</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
         <v>179</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="F12">
+        <f>C12/G12</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="3"/>
+        <v>480</v>
+      </c>
+      <c r="L12">
+        <f>E12*8</f>
         <v>640</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" s="4">
-        <v>640.01</v>
+      <c r="M12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="9">
+        <v>80.010000000000005</v>
       </c>
       <c r="C13" s="4">
-        <v>1280</v>
+        <v>160</v>
       </c>
       <c r="D13" t="s">
         <v>179</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F18" si="5">C13/G13</f>
+        <v>40</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="2"/>
+        <v>640</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="3"/>
+        <v>960</v>
+      </c>
+      <c r="L13" s="5">
+        <f>E13*8</f>
         <v>1280</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="G13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1280.01</v>
+      <c r="M13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="9">
+        <v>160.01</v>
       </c>
       <c r="C14" s="4">
-        <v>2560</v>
+        <v>320</v>
       </c>
       <c r="D14" t="s">
         <v>179</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v>320</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>640</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>1280</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="3"/>
+        <v>1920</v>
+      </c>
+      <c r="L14" s="5">
+        <f>E14*8</f>
         <v>2560</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="G14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="4">
-        <v>2560.0100000000002</v>
+      <c r="M14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="9">
+        <v>320.01</v>
       </c>
       <c r="C15" s="4">
-        <v>5120</v>
+        <v>640</v>
       </c>
       <c r="D15" t="s">
         <v>179</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v>640</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>1280</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>2560</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="3"/>
+        <v>3840</v>
+      </c>
+      <c r="L15">
+        <f>E15*8</f>
         <v>5120</v>
       </c>
-      <c r="F15">
+      <c r="M15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="9">
+        <v>640.01</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1280</v>
+      </c>
+      <c r="D16" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>1280</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="G16">
+        <v>16</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="1"/>
+        <v>2560</v>
+      </c>
+      <c r="J16" s="13">
+        <f t="shared" si="2"/>
+        <v>5120</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="3"/>
+        <v>7680</v>
+      </c>
+      <c r="L16">
+        <f>E16*8</f>
+        <v>10240</v>
+      </c>
+      <c r="M16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1280.01</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2560</v>
+      </c>
+      <c r="D17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>2560</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="1"/>
+        <v>5120</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="2"/>
+        <v>10240</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="3"/>
+        <v>15360</v>
+      </c>
+      <c r="L17" s="14">
+        <f>E17*8</f>
+        <v>20480</v>
+      </c>
+      <c r="M17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2560.0100000000002</v>
+      </c>
+      <c r="C18" s="4">
+        <v>5120</v>
+      </c>
+      <c r="D18" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>5120</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
-      <c r="G15">
+      <c r="G18">
         <v>32</v>
       </c>
-      <c r="H15">
+      <c r="H18">
         <v>24000</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="5" t="s">
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5">
+      <c r="B19" s="10"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5">
         <v>160</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G19" s="5">
         <v>35</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H19" s="5">
         <v>100000</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="F17">
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="C20" s="4"/>
+      <c r="F20">
         <v>160</v>
-      </c>
-      <c r="G17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="F18">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>155</v>
-      </c>
-      <c r="B20" s="4">
-        <v>5120.01</v>
-      </c>
-      <c r="C20" s="4">
-        <v>10240</v>
-      </c>
-      <c r="D20" t="s">
-        <v>179</v>
-      </c>
-      <c r="E20">
-        <f>F20*G20</f>
-        <v>10240</v>
-      </c>
-      <c r="F20">
-        <f>C20/G20</f>
-        <v>170.66666666666666</v>
       </c>
       <c r="G20">
         <v>60</v>
       </c>
-      <c r="H20">
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="C21" s="4"/>
+      <c r="F21">
+        <v>160</v>
+      </c>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="C22" s="4"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="9">
+        <v>5120.01</v>
+      </c>
+      <c r="C23" s="4">
+        <v>10240</v>
+      </c>
+      <c r="D23" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23">
+        <f>F23*G23</f>
+        <v>10240</v>
+      </c>
+      <c r="F23">
+        <f>C23/G23</f>
+        <v>170.66666666666666</v>
+      </c>
+      <c r="G23">
+        <v>60</v>
+      </c>
+      <c r="H23">
         <v>71827</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="B22" s="4" t="s">
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="C24" s="4"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="B25" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C25" s="4">
         <v>10240</v>
-      </c>
-      <c r="E22">
-        <f>F22*G22</f>
-        <v>10240</v>
-      </c>
-      <c r="F22">
-        <f>C22/G22</f>
-        <v>170.66666666666666</v>
-      </c>
-      <c r="G22">
-        <v>60</v>
-      </c>
-      <c r="H22">
-        <v>344573</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="B23" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="H23">
-        <v>86340</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>155</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C24" s="4">
-        <v>10240</v>
-      </c>
-      <c r="D24" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24">
-        <f>F24*G24</f>
-        <v>10240</v>
-      </c>
-      <c r="F24">
-        <f>C24/G24</f>
-        <v>256</v>
-      </c>
-      <c r="G24">
-        <v>40</v>
-      </c>
-      <c r="H24">
-        <v>72242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C25" s="4">
-        <v>20480</v>
-      </c>
-      <c r="D25" t="s">
-        <v>179</v>
       </c>
       <c r="E25">
         <f>F25*G25</f>
-        <v>20480</v>
+        <v>10240</v>
       </c>
       <c r="F25">
         <f>C25/G25</f>
-        <v>409.6</v>
+        <v>170.66666666666666</v>
       </c>
       <c r="G25">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H25">
-        <v>112017</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>344573</v>
+      </c>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="H26">
+        <v>86340</v>
+      </c>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" s="4">
-        <v>20480.009999999998</v>
+        <v>155</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="C27" s="4">
-        <v>40960</v>
+        <v>10240</v>
       </c>
       <c r="D27" t="s">
         <v>179</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27:E45" si="2">F27*G27</f>
-        <v>40960</v>
+        <f>F27*G27</f>
+        <v>10240</v>
       </c>
       <c r="F27">
-        <f t="shared" ref="F27:F45" si="3">C27/G27</f>
-        <v>744.72727272727275</v>
+        <f>C27/G27</f>
+        <v>256</v>
       </c>
       <c r="G27">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="H27">
+        <v>72242</v>
+      </c>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" s="4">
-        <v>40960.01</v>
+        <v>156</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="C28" s="4">
-        <v>81920</v>
+        <v>20480</v>
       </c>
       <c r="D28" t="s">
         <v>179</v>
       </c>
       <c r="E28">
-        <f t="shared" si="2"/>
-        <v>81920</v>
+        <f>F28*G28</f>
+        <v>20480</v>
       </c>
       <c r="F28">
-        <f t="shared" si="3"/>
-        <v>1365.3333333333333</v>
+        <f>C28/G28</f>
+        <v>409.6</v>
       </c>
       <c r="G28">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>159</v>
-      </c>
-      <c r="B29" s="4">
-        <v>81920.009999999995</v>
-      </c>
-      <c r="C29" s="4">
-        <v>163840</v>
-      </c>
-      <c r="D29" t="s">
-        <v>179</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="2"/>
-        <v>163840</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="3"/>
-        <v>2048</v>
-      </c>
-      <c r="G29">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="H28">
+        <v>112017</v>
+      </c>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="C29" s="4"/>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B30" s="4">
-        <v>163840.01</v>
+        <v>157</v>
+      </c>
+      <c r="B30" s="9">
+        <v>20480.009999999998</v>
       </c>
       <c r="C30" s="4">
-        <v>327680</v>
+        <v>40960</v>
       </c>
       <c r="D30" t="s">
         <v>179</v>
       </c>
       <c r="E30">
-        <f t="shared" si="2"/>
-        <v>327680</v>
+        <f t="shared" ref="E30:E48" si="6">F30*G30</f>
+        <v>40960</v>
       </c>
       <c r="F30">
-        <f t="shared" si="3"/>
-        <v>3276.8</v>
+        <f t="shared" ref="F30:F48" si="7">C30/G30</f>
+        <v>744.72727272727275</v>
       </c>
       <c r="G30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="4">
-        <v>327680.01</v>
+        <v>158</v>
+      </c>
+      <c r="B31" s="9">
+        <v>40960.01</v>
       </c>
       <c r="C31" s="4">
-        <v>655360</v>
+        <v>81920</v>
       </c>
       <c r="D31" t="s">
         <v>179</v>
       </c>
       <c r="E31">
-        <f t="shared" si="2"/>
-        <v>655360</v>
+        <f t="shared" si="6"/>
+        <v>81920</v>
       </c>
       <c r="F31">
-        <f t="shared" si="3"/>
-        <v>5461.333333333333</v>
+        <f t="shared" si="7"/>
+        <v>1365.3333333333333</v>
       </c>
       <c r="G31">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="4">
-        <v>655360.01</v>
+        <v>159</v>
+      </c>
+      <c r="B32" s="9">
+        <v>81920.009999999995</v>
       </c>
       <c r="C32" s="4">
-        <v>1310720</v>
+        <v>163840</v>
       </c>
       <c r="D32" t="s">
         <v>179</v>
       </c>
       <c r="E32">
-        <f t="shared" si="2"/>
-        <v>1310720</v>
+        <f t="shared" si="6"/>
+        <v>163840</v>
       </c>
       <c r="F32">
-        <f t="shared" si="3"/>
-        <v>8192</v>
+        <f t="shared" si="7"/>
+        <v>2048</v>
       </c>
       <c r="G32">
+        <v>80</v>
+      </c>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B33" s="4">
-        <v>1310720.01</v>
+      <c r="B33" s="9">
+        <v>163840.01</v>
       </c>
       <c r="C33" s="4">
-        <v>2621440</v>
+        <v>327680</v>
       </c>
       <c r="D33" t="s">
         <v>179</v>
       </c>
       <c r="E33">
-        <f t="shared" si="2"/>
-        <v>2621440</v>
+        <f t="shared" si="6"/>
+        <v>327680</v>
       </c>
       <c r="F33">
-        <f t="shared" si="3"/>
-        <v>14563.555555555555</v>
+        <f t="shared" si="7"/>
+        <v>3276.8</v>
       </c>
       <c r="G33">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" s="4">
-        <v>2621440.0099999998</v>
+        <v>161</v>
+      </c>
+      <c r="B34" s="9">
+        <v>327680.01</v>
       </c>
       <c r="C34" s="4">
-        <v>5242880</v>
+        <v>655360</v>
       </c>
       <c r="D34" t="s">
         <v>179</v>
       </c>
       <c r="E34">
-        <f t="shared" si="2"/>
-        <v>5242880</v>
+        <f t="shared" si="6"/>
+        <v>655360</v>
       </c>
       <c r="F34">
-        <f t="shared" si="3"/>
-        <v>26214.400000000001</v>
+        <f t="shared" si="7"/>
+        <v>5461.333333333333</v>
       </c>
       <c r="G34">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>120</v>
+      </c>
+      <c r="L34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>165</v>
-      </c>
-      <c r="B35" s="4">
-        <v>5242880.01</v>
+        <v>162</v>
+      </c>
+      <c r="B35" s="9">
+        <v>655360.01</v>
       </c>
       <c r="C35" s="4">
-        <v>10485760</v>
+        <v>1310720</v>
       </c>
       <c r="D35" t="s">
         <v>179</v>
       </c>
       <c r="E35">
-        <f t="shared" si="2"/>
-        <v>10485760</v>
+        <f t="shared" si="6"/>
+        <v>1310720</v>
       </c>
       <c r="F35">
-        <f t="shared" si="3"/>
-        <v>41943.040000000001</v>
+        <f t="shared" si="7"/>
+        <v>8192</v>
       </c>
       <c r="G35">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B36" s="4">
-        <v>10485760.01</v>
+        <v>163</v>
+      </c>
+      <c r="B36" s="9">
+        <v>1310720.01</v>
       </c>
       <c r="C36" s="4">
-        <v>20971520</v>
+        <v>2621440</v>
       </c>
       <c r="D36" t="s">
         <v>179</v>
       </c>
       <c r="E36">
-        <f t="shared" si="2"/>
-        <v>20971520</v>
+        <f t="shared" si="6"/>
+        <v>2621440</v>
       </c>
       <c r="F36">
-        <f t="shared" si="3"/>
-        <v>69905.066666666666</v>
+        <f t="shared" si="7"/>
+        <v>14563.555555555555</v>
       </c>
       <c r="G36">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>177</v>
-      </c>
-      <c r="B37" s="4">
-        <v>21000000</v>
+        <v>164</v>
+      </c>
+      <c r="B37" s="9">
+        <v>2621440.0099999998</v>
       </c>
       <c r="C37" s="4">
-        <v>41900000</v>
+        <v>5242880</v>
       </c>
       <c r="D37" t="s">
         <v>179</v>
       </c>
       <c r="E37">
-        <f t="shared" si="2"/>
-        <v>41900000</v>
+        <f t="shared" si="6"/>
+        <v>5242880</v>
       </c>
       <c r="F37">
-        <f t="shared" si="3"/>
-        <v>130937.5</v>
+        <f t="shared" si="7"/>
+        <v>26214.400000000001</v>
       </c>
       <c r="G37">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>178</v>
-      </c>
-      <c r="B38" s="4">
-        <v>41900000</v>
+        <v>165</v>
+      </c>
+      <c r="B38" s="9">
+        <v>5242880.01</v>
       </c>
       <c r="C38" s="4">
-        <v>83900000</v>
+        <v>10485760</v>
       </c>
       <c r="D38" t="s">
         <v>179</v>
       </c>
       <c r="E38">
-        <f t="shared" si="2"/>
-        <v>83900000</v>
+        <f t="shared" si="6"/>
+        <v>10485760</v>
       </c>
       <c r="F38">
-        <f t="shared" si="3"/>
-        <v>209750</v>
+        <f t="shared" si="7"/>
+        <v>41943.040000000001</v>
       </c>
       <c r="G38">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>170</v>
-      </c>
-      <c r="B39" s="4">
-        <v>83900000</v>
+        <v>166</v>
+      </c>
+      <c r="B39" s="9">
+        <v>10485760.01</v>
       </c>
       <c r="C39" s="4">
-        <v>168000000</v>
+        <v>20971520</v>
       </c>
       <c r="D39" t="s">
         <v>179</v>
       </c>
       <c r="E39">
-        <f t="shared" si="2"/>
-        <v>168000000</v>
+        <f t="shared" si="6"/>
+        <v>20971520</v>
       </c>
       <c r="F39">
-        <f t="shared" si="3"/>
-        <v>336000</v>
+        <f t="shared" si="7"/>
+        <v>69905.066666666666</v>
       </c>
       <c r="G39">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>171</v>
-      </c>
-      <c r="B40" s="4">
-        <v>168000000</v>
+        <v>177</v>
+      </c>
+      <c r="B40" s="9">
+        <v>21000000</v>
       </c>
       <c r="C40" s="4">
-        <v>336000000</v>
+        <v>41900000</v>
       </c>
       <c r="D40" t="s">
         <v>179</v>
       </c>
       <c r="E40">
-        <f t="shared" si="2"/>
-        <v>336000000</v>
+        <f t="shared" si="6"/>
+        <v>41900000</v>
       </c>
       <c r="F40">
-        <f t="shared" si="3"/>
-        <v>560000</v>
+        <f t="shared" si="7"/>
+        <v>130937.5</v>
       </c>
       <c r="G40">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>172</v>
-      </c>
-      <c r="B41" s="4">
-        <v>336000000</v>
+        <v>178</v>
+      </c>
+      <c r="B41" s="9">
+        <v>41900000</v>
       </c>
       <c r="C41" s="4">
-        <v>671000000</v>
+        <v>83900000</v>
       </c>
       <c r="D41" t="s">
         <v>179</v>
       </c>
       <c r="E41">
-        <f t="shared" si="2"/>
-        <v>671000000</v>
+        <f t="shared" si="6"/>
+        <v>83900000</v>
       </c>
       <c r="F41">
-        <f t="shared" si="3"/>
-        <v>838750</v>
+        <f t="shared" si="7"/>
+        <v>209750</v>
       </c>
       <c r="G41">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>173</v>
-      </c>
-      <c r="B42" s="4">
-        <v>671000000</v>
+        <v>170</v>
+      </c>
+      <c r="B42" s="9">
+        <v>83900000</v>
       </c>
       <c r="C42" s="4">
-        <v>1340000000</v>
+        <v>168000000</v>
       </c>
       <c r="D42" t="s">
         <v>179</v>
       </c>
       <c r="E42">
-        <f t="shared" si="2"/>
-        <v>1340000000</v>
+        <f t="shared" si="6"/>
+        <v>168000000</v>
       </c>
       <c r="F42">
-        <f t="shared" si="3"/>
-        <v>1340000</v>
+        <f t="shared" si="7"/>
+        <v>336000</v>
       </c>
       <c r="G42">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>174</v>
-      </c>
-      <c r="B43" s="4">
-        <v>1340000000</v>
+        <v>171</v>
+      </c>
+      <c r="B43" s="9">
+        <v>168000000</v>
       </c>
       <c r="C43" s="4">
-        <v>2680000000</v>
+        <v>336000000</v>
       </c>
       <c r="D43" t="s">
         <v>179</v>
       </c>
       <c r="E43">
-        <f t="shared" si="2"/>
-        <v>2680000000</v>
+        <f t="shared" si="6"/>
+        <v>336000000</v>
       </c>
       <c r="F43">
-        <f t="shared" si="3"/>
-        <v>2061538.4615384615</v>
+        <f t="shared" si="7"/>
+        <v>560000</v>
       </c>
       <c r="G43">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>175</v>
-      </c>
-      <c r="B44" s="4">
-        <v>2680000000</v>
+        <v>172</v>
+      </c>
+      <c r="B44" s="9">
+        <v>336000000</v>
       </c>
       <c r="C44" s="4">
-        <v>5370000000</v>
+        <v>671000000</v>
       </c>
       <c r="D44" t="s">
         <v>179</v>
       </c>
       <c r="E44">
-        <f t="shared" si="2"/>
-        <v>5370000000</v>
+        <f t="shared" si="6"/>
+        <v>671000000</v>
       </c>
       <c r="F44">
-        <f t="shared" si="3"/>
-        <v>3356250</v>
+        <f t="shared" si="7"/>
+        <v>838750</v>
       </c>
       <c r="G44">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>176</v>
-      </c>
-      <c r="B45" s="4">
-        <v>5370000000</v>
+        <v>173</v>
+      </c>
+      <c r="B45" s="9">
+        <v>671000000</v>
       </c>
       <c r="C45" s="4">
-        <v>10700000000</v>
+        <v>1340000000</v>
       </c>
       <c r="D45" t="s">
         <v>179</v>
       </c>
       <c r="E45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
+        <v>1340000000</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="7"/>
+        <v>1340000</v>
+      </c>
+      <c r="G45">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" s="9">
+        <v>1340000000</v>
+      </c>
+      <c r="C46" s="4">
+        <v>2680000000</v>
+      </c>
+      <c r="D46" t="s">
+        <v>179</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="6"/>
+        <v>2680000000</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="7"/>
+        <v>2061538.4615384615</v>
+      </c>
+      <c r="G46">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" s="9">
+        <v>2680000000</v>
+      </c>
+      <c r="C47" s="4">
+        <v>5370000000</v>
+      </c>
+      <c r="D47" t="s">
+        <v>179</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="6"/>
+        <v>5370000000</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="7"/>
+        <v>3356250</v>
+      </c>
+      <c r="G47">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48" s="9">
+        <v>5370000000</v>
+      </c>
+      <c r="C48" s="4">
         <v>10700000000</v>
       </c>
-      <c r="F45">
-        <f t="shared" si="3"/>
+      <c r="D48" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="6"/>
+        <v>10700000000</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="7"/>
         <v>5350000</v>
       </c>
-      <c r="G45">
+      <c r="G48">
         <v>2000</v>
       </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="193">
   <si>
     <t>フォルダー名</t>
     <rPh sb="5" eb="6">
@@ -819,15 +819,6 @@
     <t>srba13</t>
   </si>
   <si>
-    <t>srba14</t>
-  </si>
-  <si>
-    <t>srba15</t>
-  </si>
-  <si>
-    <t>srba16</t>
-  </si>
-  <si>
     <t>SRBANumber</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -866,49 +857,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>本数:2本 /n推力:1N /n燃焼時間:0.6秒</t>
-    <rPh sb="0" eb="2">
-      <t>ホンスウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>スイリョク</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>ネンショウジカン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>srba17</t>
-  </si>
-  <si>
-    <t>srba18</t>
-  </si>
-  <si>
-    <t>srba19</t>
-  </si>
-  <si>
-    <t>srba20</t>
-  </si>
-  <si>
-    <t>srba21</t>
-  </si>
-  <si>
-    <t>srba22</t>
-  </si>
-  <si>
-    <t>srba23</t>
-  </si>
-  <si>
-    <t>srba24</t>
-  </si>
-  <si>
     <t>Class</t>
   </si>
   <si>
@@ -1158,7 +1106,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Pensil</t>
+    <t>本数:2本 /n推力:3.125N /n燃焼時間:0.2秒 /nType:Pencil Rocket</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4本</t>
+    <rPh sb="1" eb="2">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6本</t>
+    <rPh sb="1" eb="2">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PensilRocket</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1222,7 +1203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1245,13 +1226,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1297,6 +1287,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1317,8 +1310,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145292E-2"/>
-          <c:w val="0.69775377355808921"/>
+          <c:y val="4.2141294838145306E-2"/>
+          <c:w val="0.69775377355808943"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -1493,6 +1486,9 @@
                 <c:pt idx="11">
                   <c:v>5120</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>5280</c:v>
+                </c:pt>
                 <c:pt idx="16">
                   <c:v>10240</c:v>
                 </c:pt>
@@ -1819,8 +1815,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="224900224"/>
-        <c:axId val="224901760"/>
+        <c:axId val="223388800"/>
+        <c:axId val="223390336"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -1994,7 +1990,7 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>60</c:v>
@@ -2073,22 +2069,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="238552960"/>
-        <c:axId val="238551424"/>
+        <c:axId val="223410048"/>
+        <c:axId val="223408512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="224900224"/>
+        <c:axId val="223388800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224901760"/>
+        <c:crossAx val="223390336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="224901760"/>
+        <c:axId val="223390336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2096,44 +2092,43 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224900224"/>
+        <c:crossAx val="223388800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238551424"/>
+        <c:axId val="223408512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="238552960"/>
+        <c:crossAx val="223410048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238552960"/>
+        <c:axId val="223410048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="238551424"/>
+        <c:crossAx val="223408512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3274,7 +3269,7 @@
     </row>
     <row r="11" spans="1:7" ht="14.25" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3337,7 +3332,7 @@
   <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3402,39 +3397,6 @@
       <c r="O4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="1" t="s">
@@ -3449,22 +3411,43 @@
         <v>50</v>
       </c>
       <c r="C6" s="1">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1">
+        <v>150</v>
+      </c>
+      <c r="E6" s="1">
+        <v>200</v>
+      </c>
+      <c r="F6" s="1">
+        <v>250</v>
+      </c>
+      <c r="G6" s="1">
+        <v>300</v>
+      </c>
+      <c r="H6" s="1">
+        <v>350</v>
+      </c>
+      <c r="I6" s="1">
+        <v>400</v>
+      </c>
+      <c r="J6" s="1">
+        <v>450</v>
+      </c>
+      <c r="K6" s="1">
         <v>500</v>
       </c>
-      <c r="D6" s="1">
-        <v>5000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F6" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G6" s="1">
-        <v>50000</v>
-      </c>
-      <c r="H6" s="1">
-        <v>100000</v>
+      <c r="L6" s="1">
+        <v>550</v>
+      </c>
+      <c r="M6" s="1">
+        <v>600</v>
+      </c>
+      <c r="N6" s="1">
+        <v>650</v>
+      </c>
+      <c r="O6" s="1">
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="38.25" customHeight="1">
@@ -3472,18 +3455,18 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="40.5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="67.5">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -3491,7 +3474,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" thickBot="1">
@@ -3504,12 +3487,12 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -3589,13 +3572,13 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>3.125</v>
       </c>
       <c r="D13" s="1">
         <v>2.9999999999999997E-4</v>
@@ -3615,13 +3598,13 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="D14" s="1">
         <v>0.6</v>
@@ -3651,7 +3634,7 @@
   <dimension ref="A3:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3665,35 +3648,41 @@
   <sheetData>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" t="s">
         <v>168</v>
-      </c>
-      <c r="G3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H3" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="I4" t="s">
-        <v>187</v>
+        <v>175</v>
+      </c>
+      <c r="J4" t="s">
+        <v>190</v>
+      </c>
+      <c r="K4" t="s">
+        <v>191</v>
       </c>
       <c r="L4" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="12" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
@@ -3702,7 +3691,7 @@
         <v>0.625</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E6" si="0">F5*G5</f>
@@ -3727,16 +3716,16 @@
         <v>3.75</v>
       </c>
       <c r="L5" s="13">
-        <f>E5*8</f>
+        <f t="shared" ref="L5:L17" si="1">E5*8</f>
         <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="12" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B6" s="9">
         <v>0.625</v>
@@ -3745,7 +3734,7 @@
         <v>1.25</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -3758,28 +3747,28 @@
         <v>0.3</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I32" si="1">E6*2</f>
+        <f t="shared" ref="I6:I17" si="2">E6*2</f>
         <v>2.496</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J17" si="2">E6*4</f>
+        <f t="shared" ref="J6:J17" si="3">E6*4</f>
         <v>4.992</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" ref="K6:K17" si="3">E6*6</f>
+        <f t="shared" ref="K6:K17" si="4">E6*6</f>
         <v>7.4879999999999995</v>
       </c>
       <c r="L6">
-        <f>E6*8</f>
+        <f t="shared" si="1"/>
         <v>9.984</v>
       </c>
       <c r="M6" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B7" s="9">
         <v>1.26</v>
@@ -3788,7 +3777,7 @@
         <v>2.5</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E7">
         <f>F7*G7</f>
@@ -3801,114 +3790,114 @@
         <v>0.5</v>
       </c>
       <c r="I7" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="L7" s="5">
         <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="C8" s="4">
         <v>5</v>
       </c>
-      <c r="J7" s="5">
+      <c r="D8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E19" si="5">F8*G8</f>
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>6.25</v>
+      </c>
+      <c r="G8">
+        <v>0.8</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K7" s="5">
+      <c r="J8">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="L7" s="5">
-        <f>E7*8</f>
         <v>20</v>
       </c>
-      <c r="M7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" s="9">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="C8" s="4">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ref="E8:E18" si="4">F8*G8</f>
-        <v>5</v>
-      </c>
-      <c r="F8">
+      <c r="K8" s="5">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="9">
+        <v>5.01</v>
+      </c>
+      <c r="C9" s="4">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="F9">
         <v>6.25</v>
       </c>
-      <c r="G8">
-        <v>0.8</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="J8">
+      <c r="G9">
+        <v>1.6</v>
+      </c>
+      <c r="I9" s="13">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K8" s="5">
+      <c r="J9">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="L8">
-        <f>E8*8</f>
         <v>40</v>
       </c>
-      <c r="M8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="9">
-        <v>5.01</v>
-      </c>
-      <c r="C9" s="4">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9">
+      <c r="K9" s="5">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>6.25</v>
-      </c>
-      <c r="G9">
-        <v>1.6</v>
-      </c>
-      <c r="I9" s="13">
+        <v>60</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="K9" s="5">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="L9">
-        <f>E9*8</f>
         <v>80</v>
       </c>
       <c r="M9" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="12" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B10" s="9">
         <v>10.01</v>
@@ -3917,10 +3906,10 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.98</v>
       </c>
       <c r="F10">
@@ -3930,28 +3919,28 @@
         <v>1.8</v>
       </c>
       <c r="I10" s="5">
+        <f t="shared" si="2"/>
+        <v>39.96</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="3"/>
+        <v>79.92</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="4"/>
+        <v>119.88</v>
+      </c>
+      <c r="L10" s="5">
         <f t="shared" si="1"/>
-        <v>39.96</v>
-      </c>
-      <c r="J10" s="5">
-        <f t="shared" si="2"/>
-        <v>79.92</v>
-      </c>
-      <c r="K10" s="5">
-        <f t="shared" si="3"/>
-        <v>119.88</v>
-      </c>
-      <c r="L10" s="5">
-        <f>E10*8</f>
         <v>159.84</v>
       </c>
       <c r="M10" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="12" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B11" s="9">
         <v>20.010000000000002</v>
@@ -3960,10 +3949,10 @@
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="F11">
@@ -3973,28 +3962,28 @@
         <v>2</v>
       </c>
       <c r="I11">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
-      <c r="K11" s="5">
-        <f t="shared" si="3"/>
-        <v>240</v>
-      </c>
-      <c r="L11">
-        <f>E11*8</f>
         <v>320</v>
       </c>
       <c r="M11" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="12" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B12" s="9">
         <v>40.01</v>
@@ -4003,10 +3992,10 @@
         <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="F12">
@@ -4017,248 +4006,248 @@
         <v>3</v>
       </c>
       <c r="I12">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>320</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="4"/>
+        <v>480</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="1"/>
+        <v>640</v>
+      </c>
+      <c r="M12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="9">
+        <v>80.010000000000005</v>
+      </c>
+      <c r="C13" s="4">
         <v>160</v>
       </c>
-      <c r="J12">
+      <c r="D13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F18" si="6">C13/G13</f>
+        <v>40</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="I13" s="5">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="K12" s="5">
+      <c r="J13" s="5">
         <f t="shared" si="3"/>
-        <v>480</v>
-      </c>
-      <c r="L12">
-        <f>E12*8</f>
         <v>640</v>
       </c>
-      <c r="M12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="9">
-        <v>80.010000000000005</v>
-      </c>
-      <c r="C13" s="4">
-        <v>160</v>
-      </c>
-      <c r="D13" t="s">
-        <v>179</v>
-      </c>
-      <c r="E13">
+      <c r="K13" s="5">
         <f t="shared" si="4"/>
-        <v>160</v>
-      </c>
-      <c r="F13">
-        <f t="shared" ref="F13:F18" si="5">C13/G13</f>
-        <v>40</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="I13" s="5">
+        <v>960</v>
+      </c>
+      <c r="L13" s="5">
         <f t="shared" si="1"/>
+        <v>1280</v>
+      </c>
+      <c r="M13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="9">
+        <v>160.01</v>
+      </c>
+      <c r="C14" s="4">
         <v>320</v>
       </c>
-      <c r="J13" s="5">
+      <c r="D14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="5"/>
+        <v>320</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="2"/>
         <v>640</v>
       </c>
-      <c r="K13" s="5">
+      <c r="J14">
         <f t="shared" si="3"/>
-        <v>960</v>
-      </c>
-      <c r="L13" s="5">
-        <f>E13*8</f>
         <v>1280</v>
       </c>
-      <c r="M13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="9">
-        <v>160.01</v>
-      </c>
-      <c r="C14" s="4">
-        <v>320</v>
-      </c>
-      <c r="D14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E14">
+      <c r="K14" s="5">
         <f t="shared" si="4"/>
-        <v>320</v>
-      </c>
-      <c r="F14">
+        <v>1920</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="1"/>
+        <v>2560</v>
+      </c>
+      <c r="M14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="9">
+        <v>320.01</v>
+      </c>
+      <c r="C15" s="4">
+        <v>640</v>
+      </c>
+      <c r="D15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="5"/>
+        <v>640</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>640</v>
-      </c>
-      <c r="J14">
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="2"/>
         <v>1280</v>
       </c>
-      <c r="K14" s="5">
+      <c r="J15">
         <f t="shared" si="3"/>
-        <v>1920</v>
-      </c>
-      <c r="L14" s="5">
-        <f>E14*8</f>
         <v>2560</v>
       </c>
-      <c r="M14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="9">
-        <v>320.01</v>
-      </c>
-      <c r="C15" s="4">
-        <v>640</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="K15" s="5">
+        <f t="shared" si="4"/>
+        <v>3840</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>5120</v>
+      </c>
+      <c r="M15" t="s">
         <v>179</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="4"/>
-        <v>640</v>
-      </c>
-      <c r="F15">
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="9">
+        <v>640.01</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1280</v>
+      </c>
+      <c r="D16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="5"/>
-        <v>64</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
         <v>1280</v>
       </c>
-      <c r="J15">
+      <c r="F16">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G16">
+        <v>16</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="2"/>
         <v>2560</v>
       </c>
-      <c r="K15" s="5">
+      <c r="J16" s="13">
         <f t="shared" si="3"/>
-        <v>3840</v>
-      </c>
-      <c r="L15">
-        <f>E15*8</f>
         <v>5120</v>
       </c>
-      <c r="M15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16" s="9">
-        <v>640.01</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1280</v>
-      </c>
-      <c r="D16" t="s">
-        <v>179</v>
-      </c>
-      <c r="E16">
+      <c r="K16" s="5">
         <f t="shared" si="4"/>
-        <v>1280</v>
-      </c>
-      <c r="F16">
+        <v>7680</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>10240</v>
+      </c>
+      <c r="M16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1280.01</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2560</v>
+      </c>
+      <c r="D17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="G16">
-        <v>16</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
         <v>2560</v>
       </c>
-      <c r="J16" s="13">
+      <c r="F17">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="I17" s="5">
         <f t="shared" si="2"/>
         <v>5120</v>
       </c>
-      <c r="K16" s="5">
+      <c r="J17" s="5">
         <f t="shared" si="3"/>
-        <v>7680</v>
-      </c>
-      <c r="L16">
-        <f>E16*8</f>
         <v>10240</v>
       </c>
-      <c r="M16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B17" s="9">
-        <v>1280.01</v>
-      </c>
-      <c r="C17" s="4">
-        <v>2560</v>
-      </c>
-      <c r="D17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17">
+      <c r="K17" s="5">
         <f t="shared" si="4"/>
-        <v>2560</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="5"/>
-        <v>128</v>
-      </c>
-      <c r="G17">
-        <v>20</v>
-      </c>
-      <c r="I17" s="5">
+        <v>15360</v>
+      </c>
+      <c r="L17" s="14">
         <f t="shared" si="1"/>
-        <v>5120</v>
-      </c>
-      <c r="J17" s="5">
-        <f t="shared" si="2"/>
-        <v>10240</v>
-      </c>
-      <c r="K17" s="5">
-        <f t="shared" si="3"/>
-        <v>15360</v>
-      </c>
-      <c r="L17" s="14">
-        <f>E17*8</f>
         <v>20480</v>
       </c>
       <c r="M17" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B18" s="9">
         <v>2560.0100000000002</v>
@@ -4267,14 +4256,14 @@
         <v>5120</v>
       </c>
       <c r="D18" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5120</v>
       </c>
       <c r="F18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>160</v>
       </c>
       <c r="G18">
@@ -4283,26 +4272,59 @@
       <c r="H18">
         <v>24000</v>
       </c>
-      <c r="I18" s="13"/>
+      <c r="I18" s="13">
+        <f>E18:E19*2</f>
+        <v>10240</v>
+      </c>
+      <c r="J18" s="13">
+        <f t="shared" ref="J18:J19" si="7">E18*4</f>
+        <v>20480</v>
+      </c>
+      <c r="K18" s="13">
+        <f t="shared" ref="K18:K19" si="8">E18*6</f>
+        <v>30720</v>
+      </c>
+      <c r="L18" s="15">
+        <f t="shared" ref="L18:L19" si="9">E18*8</f>
+        <v>40960</v>
+      </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="6"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19">
+        <f t="shared" si="5"/>
+        <v>5280</v>
+      </c>
       <c r="F19" s="5">
         <v>160</v>
       </c>
       <c r="G19" s="5">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H19" s="5">
         <v>100000</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="13">
+        <f t="shared" ref="I19" si="10">E19*2</f>
+        <v>10560</v>
+      </c>
+      <c r="J19" s="13">
+        <f t="shared" si="7"/>
+        <v>21120</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" si="8"/>
+        <v>31680</v>
+      </c>
+      <c r="L19" s="14">
+        <f t="shared" si="9"/>
+        <v>42240</v>
+      </c>
     </row>
     <row r="20" spans="1:13">
       <c r="C20" s="4"/>
@@ -4327,7 +4349,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B23" s="9">
         <v>5120.01</v>
@@ -4336,7 +4358,7 @@
         <v>10240</v>
       </c>
       <c r="D23" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E23">
         <f>F23*G23</f>
@@ -4360,7 +4382,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="B25" s="9" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C25" s="4">
         <v>10240</v>
@@ -4383,7 +4405,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="B26" s="9" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C26" s="4"/>
       <c r="H26">
@@ -4393,16 +4415,16 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C27" s="4">
         <v>10240</v>
       </c>
       <c r="D27" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E27">
         <f>F27*G27</f>
@@ -4422,16 +4444,16 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C28" s="4">
         <v>20480</v>
       </c>
       <c r="D28" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E28">
         <f>F28*G28</f>
@@ -4455,7 +4477,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B30" s="9">
         <v>20480.009999999998</v>
@@ -4464,14 +4486,14 @@
         <v>40960</v>
       </c>
       <c r="D30" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30:E48" si="6">F30*G30</f>
+        <f t="shared" ref="E30:E48" si="11">F30*G30</f>
         <v>40960</v>
       </c>
       <c r="F30">
-        <f t="shared" ref="F30:F48" si="7">C30/G30</f>
+        <f t="shared" ref="F30:F48" si="12">C30/G30</f>
         <v>744.72727272727275</v>
       </c>
       <c r="G30">
@@ -4481,7 +4503,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B31" s="9">
         <v>40960.01</v>
@@ -4490,14 +4512,14 @@
         <v>81920</v>
       </c>
       <c r="D31" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>81920</v>
       </c>
       <c r="F31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1365.3333333333333</v>
       </c>
       <c r="G31">
@@ -4507,7 +4529,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B32" s="9">
         <v>81920.009999999995</v>
@@ -4516,14 +4538,14 @@
         <v>163840</v>
       </c>
       <c r="D32" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>163840</v>
       </c>
       <c r="F32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2048</v>
       </c>
       <c r="G32">
@@ -4533,7 +4555,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B33" s="9">
         <v>163840.01</v>
@@ -4542,14 +4564,14 @@
         <v>327680</v>
       </c>
       <c r="D33" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>327680</v>
       </c>
       <c r="F33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3276.8</v>
       </c>
       <c r="G33">
@@ -4558,7 +4580,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B34" s="9">
         <v>327680.01</v>
@@ -4567,26 +4589,26 @@
         <v>655360</v>
       </c>
       <c r="D34" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>655360</v>
       </c>
       <c r="F34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>5461.333333333333</v>
       </c>
       <c r="G34">
         <v>120</v>
       </c>
       <c r="L34" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B35" s="9">
         <v>655360.01</v>
@@ -4595,14 +4617,14 @@
         <v>1310720</v>
       </c>
       <c r="D35" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1310720</v>
       </c>
       <c r="F35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8192</v>
       </c>
       <c r="G35">
@@ -4611,7 +4633,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B36" s="9">
         <v>1310720.01</v>
@@ -4620,14 +4642,14 @@
         <v>2621440</v>
       </c>
       <c r="D36" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2621440</v>
       </c>
       <c r="F36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>14563.555555555555</v>
       </c>
       <c r="G36">
@@ -4636,7 +4658,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B37" s="9">
         <v>2621440.0099999998</v>
@@ -4645,14 +4667,14 @@
         <v>5242880</v>
       </c>
       <c r="D37" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5242880</v>
       </c>
       <c r="F37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>26214.400000000001</v>
       </c>
       <c r="G37">
@@ -4661,7 +4683,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B38" s="9">
         <v>5242880.01</v>
@@ -4670,14 +4692,14 @@
         <v>10485760</v>
       </c>
       <c r="D38" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>10485760</v>
       </c>
       <c r="F38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>41943.040000000001</v>
       </c>
       <c r="G38">
@@ -4686,7 +4708,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B39" s="9">
         <v>10485760.01</v>
@@ -4695,14 +4717,14 @@
         <v>20971520</v>
       </c>
       <c r="D39" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>20971520</v>
       </c>
       <c r="F39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>69905.066666666666</v>
       </c>
       <c r="G39">
@@ -4711,7 +4733,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B40" s="9">
         <v>21000000</v>
@@ -4720,14 +4742,14 @@
         <v>41900000</v>
       </c>
       <c r="D40" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>41900000</v>
       </c>
       <c r="F40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>130937.5</v>
       </c>
       <c r="G40">
@@ -4736,7 +4758,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B41" s="9">
         <v>41900000</v>
@@ -4745,14 +4767,14 @@
         <v>83900000</v>
       </c>
       <c r="D41" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>83900000</v>
       </c>
       <c r="F41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>209750</v>
       </c>
       <c r="G41">
@@ -4761,7 +4783,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B42" s="9">
         <v>83900000</v>
@@ -4770,14 +4792,14 @@
         <v>168000000</v>
       </c>
       <c r="D42" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>168000000</v>
       </c>
       <c r="F42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>336000</v>
       </c>
       <c r="G42">
@@ -4786,7 +4808,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B43" s="9">
         <v>168000000</v>
@@ -4795,14 +4817,14 @@
         <v>336000000</v>
       </c>
       <c r="D43" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>336000000</v>
       </c>
       <c r="F43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>560000</v>
       </c>
       <c r="G43">
@@ -4811,7 +4833,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B44" s="9">
         <v>336000000</v>
@@ -4820,14 +4842,14 @@
         <v>671000000</v>
       </c>
       <c r="D44" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>671000000</v>
       </c>
       <c r="F44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>838750</v>
       </c>
       <c r="G44">
@@ -4836,7 +4858,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B45" s="9">
         <v>671000000</v>
@@ -4845,14 +4867,14 @@
         <v>1340000000</v>
       </c>
       <c r="D45" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1340000000</v>
       </c>
       <c r="F45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1340000</v>
       </c>
       <c r="G45">
@@ -4861,7 +4883,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B46" s="9">
         <v>1340000000</v>
@@ -4870,14 +4892,14 @@
         <v>2680000000</v>
       </c>
       <c r="D46" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2680000000</v>
       </c>
       <c r="F46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2061538.4615384615</v>
       </c>
       <c r="G46">
@@ -4886,7 +4908,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B47" s="9">
         <v>2680000000</v>
@@ -4895,14 +4917,14 @@
         <v>5370000000</v>
       </c>
       <c r="D47" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5370000000</v>
       </c>
       <c r="F47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3356250</v>
       </c>
       <c r="G47">
@@ -4911,7 +4933,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B48" s="9">
         <v>5370000000</v>
@@ -4920,14 +4942,14 @@
         <v>10700000000</v>
       </c>
       <c r="D48" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>10700000000</v>
       </c>
       <c r="F48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>5350000</v>
       </c>
       <c r="G48">

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="195">
   <si>
     <t>フォルダー名</t>
     <rPh sb="5" eb="6">
@@ -1098,30 +1098,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Aliane V</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Epsiron</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>本数:2本 /n推力:3.125N /n燃焼時間:0.2秒 /nType:Pencil Rocket</t>
-    <rPh sb="0" eb="2">
-      <t>ホンスウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>スイリョク</t>
-    </rPh>
-    <rPh sb="20" eb="24">
-      <t>ネンショウジカン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ビョウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1140,6 +1117,37 @@
   </si>
   <si>
     <t>PensilRocket</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ariane V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pencil Rocket</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数:2本 /n推力:3.125N /n燃焼時間:0.2秒 /nトータルインパルス:1.25N・s/nType:Pencil Rocket</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ビョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3329,16 +3337,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="7" width="16.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
@@ -3458,7 +3468,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="67.5">
+    <row r="8" spans="1:26" ht="94.5">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -3466,7 +3476,7 @@
         <v>127</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -3620,6 +3630,51 @@
       </c>
       <c r="H14" s="1">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17">
+      <c r="C19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H19" t="s">
+        <v>184</v>
+      </c>
+      <c r="I19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" t="s">
+        <v>180</v>
+      </c>
+      <c r="M19" t="s">
+        <v>179</v>
+      </c>
+      <c r="N19" t="s">
+        <v>178</v>
+      </c>
+      <c r="O19" t="s">
+        <v>191</v>
+      </c>
+      <c r="P19"/>
+      <c r="Q19" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3633,8 +3688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3671,10 +3726,10 @@
         <v>175</v>
       </c>
       <c r="J4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L4" t="s">
         <v>174</v>
@@ -3720,7 +3775,7 @@
         <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3763,7 +3818,7 @@
         <v>9.984</v>
       </c>
       <c r="M6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3849,7 +3904,7 @@
         <v>40</v>
       </c>
       <c r="M8" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4317,11 +4372,11 @@
         <f t="shared" si="7"/>
         <v>21120</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="13">
         <f t="shared" si="8"/>
         <v>31680</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="13">
         <f t="shared" si="9"/>
         <v>42240</v>
       </c>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -3689,7 +3689,7 @@
   <dimension ref="A3:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NoseCorn" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="207">
   <si>
     <t>フォルダー名</t>
     <rPh sb="5" eb="6">
@@ -1120,10 +1120,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>N1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Ariane V</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1132,7 +1128,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>本数:2本 /n推力:3.125N /n燃焼時間:0.2秒 /nトータルインパルス:1.25N・s/nType:Pencil Rocket</t>
+    <t>本数:2本 /n推力:3.125N /n燃焼時間:0.2秒 /nトータルインパルス:1.25N・s/nType:1/2A /nModel:Pencil Rocket</t>
     <rPh sb="0" eb="2">
       <t>ホンスウ</t>
     </rPh>
@@ -1149,6 +1145,46 @@
       <t>ビョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SRBAs_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SRBAs_2</t>
+  </si>
+  <si>
+    <t>SRBAs_3</t>
+  </si>
+  <si>
+    <t>SRBAs_4</t>
+  </si>
+  <si>
+    <t>SRBAs_5</t>
+  </si>
+  <si>
+    <t>SRBAs_6</t>
+  </si>
+  <si>
+    <t>SRBAs_7</t>
+  </si>
+  <si>
+    <t>SRBAs_8</t>
+  </si>
+  <si>
+    <t>SRBAs_9</t>
+  </si>
+  <si>
+    <t>SRBAs_10</t>
+  </si>
+  <si>
+    <t>SRBAs_11</t>
+  </si>
+  <si>
+    <t>SRBAs_12</t>
+  </si>
+  <si>
+    <t>SRBAs_13</t>
   </si>
 </sst>
 </file>
@@ -1318,8 +1354,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145306E-2"/>
-          <c:w val="0.69775377355808943"/>
+          <c:y val="4.2141294838145327E-2"/>
+          <c:w val="0.69775377355808965"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -1823,8 +1859,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="223388800"/>
-        <c:axId val="223390336"/>
+        <c:axId val="218303488"/>
+        <c:axId val="218321664"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -2077,22 +2113,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="223410048"/>
-        <c:axId val="223408512"/>
+        <c:axId val="218324992"/>
+        <c:axId val="218323200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="223388800"/>
+        <c:axId val="218303488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223390336"/>
+        <c:crossAx val="218321664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="223390336"/>
+        <c:axId val="218321664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2100,31 +2136,31 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223388800"/>
+        <c:crossAx val="218303488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="223408512"/>
+        <c:axId val="218323200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223410048"/>
+        <c:crossAx val="218324992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="223410048"/>
+        <c:axId val="218324992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="223408512"/>
+        <c:crossAx val="218323200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2136,7 +2172,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3339,8 +3375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3468,7 +3504,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="94.5">
+    <row r="8" spans="1:26" ht="108">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -3476,7 +3512,7 @@
         <v>127</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -3494,6 +3530,45 @@
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" thickBot="1">
       <c r="A11" s="3" t="s">
@@ -3632,9 +3707,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="3:17">
+    <row r="19" spans="3:16">
       <c r="C19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D19" t="s">
         <v>187</v>
@@ -3643,7 +3718,7 @@
         <v>186</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
         <v>185</v>
@@ -3670,12 +3745,9 @@
         <v>178</v>
       </c>
       <c r="O19" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="P19"/>
-      <c r="Q19" t="s">
-        <v>177</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3688,7 +3760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -3904,7 +3976,7 @@
         <v>40</v>
       </c>
       <c r="M8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:13">

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NoseCorn" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="208">
   <si>
     <t>フォルダー名</t>
     <rPh sb="5" eb="6">
@@ -1185,6 +1185,10 @@
   </si>
   <si>
     <t>SRBAs_13</t>
+  </si>
+  <si>
+    <t>MAX400km ISSまで</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1354,8 +1358,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145327E-2"/>
-          <c:w val="0.69775377355808965"/>
+          <c:y val="4.2141294838145348E-2"/>
+          <c:w val="0.69775377355808976"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -1768,10 +1772,10 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>80</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>128</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>160</c:v>
@@ -1859,8 +1863,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="218303488"/>
-        <c:axId val="218321664"/>
+        <c:axId val="237732992"/>
+        <c:axId val="237734528"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -2025,10 +2029,10 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>32</c:v>
@@ -2113,22 +2117,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="218324992"/>
-        <c:axId val="218323200"/>
+        <c:axId val="237750144"/>
+        <c:axId val="237748608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="218303488"/>
+        <c:axId val="237732992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218321664"/>
+        <c:crossAx val="237734528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="218321664"/>
+        <c:axId val="237734528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2136,43 +2140,44 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218303488"/>
+        <c:crossAx val="237732992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="218323200"/>
+        <c:axId val="237748608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218324992"/>
+        <c:crossAx val="237750144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="218324992"/>
+        <c:axId val="237750144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="218323200"/>
+        <c:crossAx val="237748608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3375,7 +3380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
@@ -3758,10 +3763,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:M49"/>
+  <dimension ref="A3:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4303,10 +4308,10 @@
       </c>
       <c r="F16">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="G16">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
@@ -4328,7 +4333,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" s="12" t="s">
         <v>141</v>
       </c>
@@ -4347,10 +4352,10 @@
       </c>
       <c r="F17">
         <f t="shared" si="6"/>
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="G17">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I17" s="5">
         <f t="shared" si="2"/>
@@ -4371,8 +4376,11 @@
       <c r="M17" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -4416,7 +4424,7 @@
         <v>40960</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" s="5" t="s">
         <v>171</v>
       </c>
@@ -4453,7 +4461,7 @@
         <v>42240</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="C20" s="4"/>
       <c r="F20">
         <v>160</v>
@@ -4463,18 +4471,18 @@
       </c>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="C21" s="4"/>
       <c r="F21">
         <v>160</v>
       </c>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:14">
       <c r="C22" s="4"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>143</v>
       </c>
@@ -4503,11 +4511,11 @@
       </c>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14">
       <c r="C24" s="4"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14">
       <c r="B25" s="9" t="s">
         <v>169</v>
       </c>
@@ -4530,7 +4538,7 @@
       </c>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:14">
       <c r="B26" s="9" t="s">
         <v>170</v>
       </c>
@@ -4540,7 +4548,7 @@
       </c>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -4569,7 +4577,7 @@
       </c>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>144</v>
       </c>
@@ -4598,11 +4606,11 @@
       </c>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:14">
       <c r="C29" s="4"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>145</v>
       </c>
@@ -4628,7 +4636,7 @@
       </c>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>146</v>
       </c>
@@ -4654,7 +4662,7 @@
       </c>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>147</v>
       </c>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20850" windowHeight="13515" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NoseCorn" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="273">
   <si>
     <t>フォルダー名</t>
     <rPh sb="5" eb="6">
@@ -847,16 +847,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブースタ無しの状態</t>
-    <rPh sb="4" eb="5">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Class</t>
   </si>
   <si>
@@ -1128,7 +1118,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>本数:2本 /n推力:3.125N /n燃焼時間:0.2秒 /nトータルインパルス:1.25N・s/nType:1/2A /nModel:Pencil Rocket</t>
+    <t>SRBAs_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SRBAs_7</t>
+  </si>
+  <si>
+    <t>MAX400km ISSまで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数:2本 /n推力:3.125N /n燃焼時間:0.2秒 /nトータルインパルス:1.25N・s/nType:1/4A /nModel:Pencil Rocket</t>
     <rPh sb="0" eb="2">
       <t>ホンスウ</t>
     </rPh>
@@ -1147,47 +1148,908 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SRBAs_1</t>
+    <t>本数:4本 /n推力:3.125N /n燃焼時間:0.2秒 /nトータルインパルス:2.5N・s/nType:1/4A /nModel:Pencil Rocket</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数:6本 /n推力:3.125N /n燃焼時間:0.2秒 /nトータルインパルス:3.75N・s/nType:1/4A /nModel:Pencil Rocket</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/4A型 2本</t>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/4A型 4本</t>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/4A型 6本</t>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数:6本 /n推力:4.16N /n燃焼時間:0.3秒 /nトータルインパルス:7.488N・s/nType:1/2A /nModel:Epsiron</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ビョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>SRBAs_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/2A型 6本</t>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A型 2本</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A型6本</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数:2本 /n推力:5.0N /n燃焼時間:0.5秒 /nトータルインパルス:5N・s/nType:A /nModel:Soyuz</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>SRBAs_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固体ロケットブースタ無しの状態</t>
+    <rPh sb="0" eb="2">
+      <t>コタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/2A型 8本</t>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数:8本 /n推力:4.16N /n燃焼時間:0.3秒 /nトータルインパルス:9.984N・s/nType:1/2A /nModel:Epsiron</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数:6本 /n推力:5.0N /n燃焼時間:0.5秒 /nトータルインパルス:15N・s/nType:A /nModel:Soyuz</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B型4本</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>SRBAs_4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D型2本</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SRBAs_6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C型6本</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>SRBAs_5</t>
-  </si>
-  <si>
-    <t>SRBAs_6</t>
-  </si>
-  <si>
-    <t>SRBAs_7</t>
-  </si>
-  <si>
-    <t>SRBAs_8</t>
-  </si>
-  <si>
-    <t>SRBAs_9</t>
-  </si>
-  <si>
-    <t>SRBAs_10</t>
-  </si>
-  <si>
-    <t>SRBAs_11</t>
-  </si>
-  <si>
-    <t>SRBAs_12</t>
-  </si>
-  <si>
-    <t>SRBAs_13</t>
-  </si>
-  <si>
-    <t>MAX400km ISSまで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C型8本</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D型6本</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数:8本 /n推力:6.25N /n燃焼時間:1.6秒 /nトータルインパルス:80N・s/nType:C /nModel:H2A</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数:6本 /n推力:6.25N /n燃焼時間:1.6秒 /nトータルインパルス:60N・s/nType:C /nModel:H2A</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数:4本 /n推力:6.25N /n燃焼時間:0.8秒 /nトータルインパルス:20N・s/nType:B /nModel:Ariane V</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数:6本 /n推力:20N /n燃焼時間:2秒 /nトータルインパルス:240N・s/nType:E /nModel:Proton</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数:6本 /n推力:11.1N /n燃焼時間:1.8秒 /nトータルインパルス:119.88N・s/nType:D /nModel:H3</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数:2本 /n推力:11.1N /n燃焼時間:1.8秒 /nトータルインパルス:39.96N・s/nType:D /nModel:H3</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E型6本</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>srba14</t>
+  </si>
+  <si>
+    <t>E型8本</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数:8本 /n推力:20N /n燃焼時間:2秒 /nトータルインパルス:320N・s/nType:E /nModel:Proton</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>srba15</t>
+  </si>
+  <si>
+    <t>srba16</t>
+  </si>
+  <si>
+    <t>srba17</t>
+  </si>
+  <si>
+    <t>srba18</t>
+  </si>
+  <si>
+    <t>srba19</t>
+  </si>
+  <si>
+    <t>srba20</t>
+  </si>
+  <si>
+    <t>srba21</t>
+  </si>
+  <si>
+    <t>srba22</t>
+  </si>
+  <si>
+    <t>srba23</t>
+  </si>
+  <si>
+    <t>srba24</t>
+  </si>
+  <si>
+    <t>F型6本</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F型8本</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数:6本 /n推力:26.66N /n燃焼時間:3秒 /nトータルインパルス:480N・s/nType:F /nModel:SRBs</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SRBs</t>
+  </si>
+  <si>
+    <t>本数:8本 /n推力:26.66N /n燃焼時間:3秒 /nトータルインパルス:640N・s/nType:F /nModel:SRBs</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G型6本</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G型8本</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数:6本 /n推力:40N /n燃焼時間:4秒 /nトータルインパルス:960N・s/nType:G /nModel:Long March 2F</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数:8本 /n推力:40N /n燃焼時間:4秒 /nトータルインパルス:1280N・s/nType:G /nModel:Long March 2F</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H型6本</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H型8本</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数:6本 /n推力:64N /n燃焼時間:5秒 /nトータルインパルス:1920N・s/nType:H /nModel:Atlas V</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数:8本 /n推力:64N /n燃焼時間:5秒 /nトータルインパルス:2560N・s/nType:H /nModel:Atlas V</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>srba25</t>
+  </si>
+  <si>
+    <t>srba26</t>
+  </si>
+  <si>
+    <t>I型6本</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I型8本</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数:6本 /n推力:64N /n燃焼時間:10秒 /nトータルインパルス:3840N・s/nType:I /nModel:Delta IV</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数:8本 /n推力:64N /n燃焼時間:10秒 /nトータルインパルス:5120N・s/nType:I /nModel:Delta IV</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Saturn V</t>
+  </si>
+  <si>
+    <t>Falcon9.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J型6本</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J型8本</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数:6本 /n推力:128N /n燃焼時間:10秒 /nトータルインパルス:7680N・s/nType:J /nModel:Falcon9.1</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数:8本 /n推力:128N /n燃焼時間:10秒 /nトータルインパルス:10240N・s/nType:J /nModel:Falcon9.1</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K型6本</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数:6本 /n推力:160N /n燃焼時間:16秒 /nトータルインパルス:15360N・s/nType:K /nModel:Saturn V</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K型8本</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数:8本 /n推力:160N /n燃焼時間:16秒 /nトータルインパルス:20480N・s/nType:K /nModel:Saturn V</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小型ロケットブースター6本使い。/n固体補助ロケット分離は自動で行われるよ。</t>
+    <rPh sb="0" eb="2">
+      <t>コガタ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヅカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホジョ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ブンリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一番小型の固体ロケットブースタ2本使用。/nスペックはモデルロケットの固体ロケットエンジンに準拠。/nまずはコレで試してみよう。</t>
+    <rPh sb="0" eb="4">
+      <t>イチバンコガタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コタイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>コタイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジュンキョ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小型ロケットブースター4本使い。/n本数が増えればそれだけ高く上がるよ。/nコントロールパネルのスイッチを入れないと使えないよ。</t>
+    <rPh sb="0" eb="2">
+      <t>コガタ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヅカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ツカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1358,8 +2220,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145348E-2"/>
-          <c:w val="0.69775377355808976"/>
+          <c:y val="4.2141294838145368E-2"/>
+          <c:w val="0.69775377355808998"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -1863,8 +2725,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="237732992"/>
-        <c:axId val="237734528"/>
+        <c:axId val="234419328"/>
+        <c:axId val="234420864"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -2117,22 +2979,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="237750144"/>
-        <c:axId val="237748608"/>
+        <c:axId val="234436480"/>
+        <c:axId val="234434944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237732992"/>
+        <c:axId val="234419328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237734528"/>
+        <c:crossAx val="234420864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237734528"/>
+        <c:axId val="234420864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2140,31 +3002,31 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237732992"/>
+        <c:crossAx val="234419328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237748608"/>
+        <c:axId val="234434944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237750144"/>
+        <c:crossAx val="234436480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237750144"/>
+        <c:axId val="234436480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="237748608"/>
+        <c:crossAx val="234434944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2177,7 +3039,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2505,9 +3367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2698,9 +3558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2976,9 +3834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3184,9 +4040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3378,10 +4232,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z19"/>
+  <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3391,10 +4246,18 @@
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
     <col min="4" max="7" width="16.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="18.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.75" style="1" customWidth="1"/>
+    <col min="16" max="28" width="20.625" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3402,7 +4265,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:28">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3448,68 +4311,224 @@
       <c r="O4" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="P4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:28">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D6" s="1">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="E6" s="1">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="F6" s="1">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="G6" s="1">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="H6" s="1">
-        <v>350</v>
+        <v>4000</v>
       </c>
       <c r="I6" s="1">
-        <v>400</v>
+        <v>5000</v>
       </c>
       <c r="J6" s="1">
-        <v>450</v>
+        <v>6000</v>
       </c>
       <c r="K6" s="1">
-        <v>500</v>
+        <v>7000</v>
       </c>
       <c r="L6" s="1">
-        <v>550</v>
+        <v>8000</v>
       </c>
       <c r="M6" s="1">
-        <v>600</v>
+        <v>9000</v>
       </c>
       <c r="N6" s="1">
-        <v>650</v>
+        <v>10000</v>
       </c>
       <c r="O6" s="1">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="38.25" customHeight="1">
+        <v>11000</v>
+      </c>
+      <c r="P6" s="1">
+        <v>12000</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>15000</v>
+      </c>
+      <c r="R6" s="1">
+        <v>18000</v>
+      </c>
+      <c r="S6" s="1">
+        <v>20000</v>
+      </c>
+      <c r="T6" s="1">
+        <v>22500</v>
+      </c>
+      <c r="U6" s="1">
+        <v>25000</v>
+      </c>
+      <c r="V6" s="1">
+        <v>30000</v>
+      </c>
+      <c r="W6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="X6" s="1">
+        <v>50000</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>80000</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>120000</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="38.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="108">
+      <c r="C7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="108">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -3517,18 +4536,102 @@
         <v>127</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+        <v>195</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="108">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" thickBot="1">
+        <v>208</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="14.25" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -3536,51 +4639,51 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" thickBot="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="14.25" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:28">
       <c r="A12" s="2" t="s">
         <v>121</v>
       </c>
@@ -3597,37 +4700,37 @@
         <v>6</v>
       </c>
       <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1">
         <v>8</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2</v>
-      </c>
-      <c r="H12" s="1">
-        <v>4</v>
       </c>
       <c r="I12" s="1">
         <v>6</v>
       </c>
       <c r="J12" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K12" s="1">
         <v>2</v>
       </c>
       <c r="L12" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M12" s="1">
+        <v>8</v>
+      </c>
+      <c r="N12" s="1">
         <v>6</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
+        <v>6</v>
+      </c>
+      <c r="P12" s="1">
         <v>8</v>
-      </c>
-      <c r="O12" s="1">
-        <v>2</v>
-      </c>
-      <c r="P12" s="1">
-        <v>4</v>
       </c>
       <c r="Q12" s="1">
         <v>6</v>
@@ -3636,10 +4739,10 @@
         <v>8</v>
       </c>
       <c r="S12" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T12" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U12" s="1">
         <v>6</v>
@@ -3648,10 +4751,10 @@
         <v>8</v>
       </c>
       <c r="W12" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X12" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y12" s="1">
         <v>6</v>
@@ -3659,8 +4762,14 @@
       <c r="Z12" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="1" t="s">
         <v>122</v>
       </c>
@@ -3671,22 +4780,82 @@
         <v>3.125</v>
       </c>
       <c r="D13" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>3.125</v>
       </c>
       <c r="E13" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>3.125</v>
       </c>
       <c r="F13" s="1">
-        <v>1E-3</v>
+        <v>5</v>
       </c>
       <c r="G13" s="1">
-        <v>2E-3</v>
+        <v>4.16</v>
       </c>
       <c r="H13" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+        <v>4.16</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="K13" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="M13" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="N13" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>20</v>
+      </c>
+      <c r="P13" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>26.66</v>
+      </c>
+      <c r="R13" s="1">
+        <v>26.66</v>
+      </c>
+      <c r="S13" s="1">
+        <v>40</v>
+      </c>
+      <c r="T13" s="1">
+        <v>40</v>
+      </c>
+      <c r="U13" s="1">
+        <v>64</v>
+      </c>
+      <c r="V13" s="1">
+        <v>64</v>
+      </c>
+      <c r="W13" s="1">
+        <v>64</v>
+      </c>
+      <c r="X13" s="1">
+        <v>64</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>128</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>128</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>160</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="1" t="s">
         <v>123</v>
       </c>
@@ -3697,62 +4866,173 @@
         <v>0.2</v>
       </c>
       <c r="D14" s="1">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="E14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="1">
         <v>0.5</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.4</v>
       </c>
       <c r="G14" s="1">
         <v>0.3</v>
       </c>
       <c r="H14" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2</v>
+      </c>
+      <c r="P14" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>3</v>
+      </c>
+      <c r="R14" s="1">
+        <v>3</v>
+      </c>
+      <c r="S14" s="1">
+        <v>4</v>
+      </c>
+      <c r="T14" s="1">
+        <v>4</v>
+      </c>
+      <c r="U14" s="1">
+        <v>5</v>
+      </c>
+      <c r="V14" s="1">
+        <v>5</v>
+      </c>
+      <c r="W14" s="1">
+        <v>10</v>
+      </c>
+      <c r="X14" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>16</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28">
       <c r="C19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D19" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" t="s">
         <v>186</v>
       </c>
-      <c r="F19" t="s">
-        <v>191</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I19" t="s">
         <v>185</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L19" t="s">
         <v>184</v>
       </c>
-      <c r="I19" t="s">
-        <v>183</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="M19" t="s">
+        <v>184</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O19" t="s">
         <v>182</v>
       </c>
-      <c r="K19" t="s">
-        <v>181</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="P19" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="S19" t="s">
         <v>180</v>
       </c>
-      <c r="M19" t="s">
+      <c r="T19" t="s">
+        <v>180</v>
+      </c>
+      <c r="U19" t="s">
         <v>179</v>
       </c>
-      <c r="N19" t="s">
+      <c r="V19" t="s">
+        <v>179</v>
+      </c>
+      <c r="W19" t="s">
         <v>178</v>
       </c>
-      <c r="O19" t="s">
+      <c r="X19" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y19" t="s">
         <v>177</v>
       </c>
-      <c r="P19"/>
+      <c r="Z19" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="3:28">
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3765,9 +5045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3780,41 +5058,41 @@
   <sheetData>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>130</v>
-      </c>
       <c r="E3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" t="s">
         <v>155</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>156</v>
       </c>
-      <c r="G3" t="s">
-        <v>157</v>
-      </c>
       <c r="H3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="I4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" t="s">
         <v>188</v>
       </c>
-      <c r="K4" t="s">
-        <v>189</v>
-      </c>
       <c r="L4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
@@ -3823,7 +5101,7 @@
         <v>0.625</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E6" si="0">F5*G5</f>
@@ -3852,12 +5130,12 @@
         <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="9">
         <v>0.625</v>
@@ -3866,7 +5144,7 @@
         <v>1.25</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -3890,17 +5168,17 @@
         <f t="shared" ref="K6:K17" si="4">E6*6</f>
         <v>7.4879999999999995</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="5">
         <f t="shared" si="1"/>
         <v>9.984</v>
       </c>
       <c r="M6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" s="9">
         <v>1.26</v>
@@ -3909,7 +5187,7 @@
         <v>2.5</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E7">
         <f>F7*G7</f>
@@ -3925,7 +5203,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="13">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -3933,17 +5211,17 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="13">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="9">
         <v>2.5099999999999998</v>
@@ -3952,7 +5230,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E19" si="5">F8*G8</f>
@@ -3968,7 +5246,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="5">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -3981,12 +5259,12 @@
         <v>40</v>
       </c>
       <c r="M8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="9">
         <v>5.01</v>
@@ -3995,7 +5273,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E9">
         <f t="shared" si="5"/>
@@ -4019,17 +5297,17 @@
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="5">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="M9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="9">
         <v>10.01</v>
@@ -4038,7 +5316,7 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E10">
         <f t="shared" si="5"/>
@@ -4054,7 +5332,7 @@
         <f t="shared" si="2"/>
         <v>39.96</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="13">
         <f t="shared" si="3"/>
         <v>79.92</v>
       </c>
@@ -4062,17 +5340,17 @@
         <f t="shared" si="4"/>
         <v>119.88</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="13">
         <f t="shared" si="1"/>
         <v>159.84</v>
       </c>
       <c r="M10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" s="9">
         <v>20.010000000000002</v>
@@ -4081,7 +5359,7 @@
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E11">
         <f t="shared" si="5"/>
@@ -4105,17 +5383,17 @@
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="5">
         <f t="shared" si="1"/>
         <v>320</v>
       </c>
       <c r="M11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" s="9">
         <v>40.01</v>
@@ -4124,7 +5402,7 @@
         <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E12">
         <f t="shared" si="5"/>
@@ -4149,17 +5427,17 @@
         <f t="shared" si="4"/>
         <v>480</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="5">
         <f t="shared" si="1"/>
         <v>640</v>
       </c>
       <c r="M12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" s="9">
         <v>80.010000000000005</v>
@@ -4168,7 +5446,7 @@
         <v>160</v>
       </c>
       <c r="D13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E13">
         <f t="shared" si="5"/>
@@ -4181,11 +5459,11 @@
       <c r="G13">
         <v>4</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="13">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="13">
         <f t="shared" si="3"/>
         <v>640</v>
       </c>
@@ -4198,12 +5476,12 @@
         <v>1280</v>
       </c>
       <c r="M13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" s="9">
         <v>160.01</v>
@@ -4212,7 +5490,7 @@
         <v>320</v>
       </c>
       <c r="D14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E14">
         <f t="shared" si="5"/>
@@ -4242,12 +5520,12 @@
         <v>2560</v>
       </c>
       <c r="M14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" s="9">
         <v>320.01</v>
@@ -4256,7 +5534,7 @@
         <v>640</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E15">
         <f t="shared" si="5"/>
@@ -4281,17 +5559,17 @@
         <f t="shared" si="4"/>
         <v>3840</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="5">
         <f t="shared" si="1"/>
         <v>5120</v>
       </c>
       <c r="M15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" s="9">
         <v>640.01</v>
@@ -4300,7 +5578,7 @@
         <v>1280</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E16">
         <f t="shared" si="5"/>
@@ -4325,17 +5603,17 @@
         <f t="shared" si="4"/>
         <v>7680</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="5">
         <f t="shared" si="1"/>
         <v>10240</v>
       </c>
       <c r="M16" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B17" s="9">
         <v>1280.01</v>
@@ -4344,7 +5622,7 @@
         <v>2560</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E17">
         <f t="shared" si="5"/>
@@ -4357,11 +5635,11 @@
       <c r="G17">
         <v>16</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="13">
         <f t="shared" si="2"/>
         <v>5120</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="13">
         <f t="shared" si="3"/>
         <v>10240</v>
       </c>
@@ -4374,15 +5652,15 @@
         <v>20480</v>
       </c>
       <c r="M17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N17" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B18" s="9">
         <v>2560.0100000000002</v>
@@ -4391,7 +5669,7 @@
         <v>5120</v>
       </c>
       <c r="D18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E18">
         <f t="shared" si="5"/>
@@ -4426,7 +5704,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="6"/>
@@ -4484,7 +5762,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B23" s="9">
         <v>5120.01</v>
@@ -4493,7 +5771,7 @@
         <v>10240</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E23">
         <f>F23*G23</f>
@@ -4517,7 +5795,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="B25" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C25" s="4">
         <v>10240</v>
@@ -4540,7 +5818,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="B26" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C26" s="4"/>
       <c r="H26">
@@ -4550,16 +5828,16 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C27" s="4">
         <v>10240</v>
       </c>
       <c r="D27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E27">
         <f>F27*G27</f>
@@ -4579,16 +5857,16 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C28" s="4">
         <v>20480</v>
       </c>
       <c r="D28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E28">
         <f>F28*G28</f>
@@ -4612,7 +5890,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" s="9">
         <v>20480.009999999998</v>
@@ -4621,7 +5899,7 @@
         <v>40960</v>
       </c>
       <c r="D30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E30">
         <f t="shared" ref="E30:E48" si="11">F30*G30</f>
@@ -4638,7 +5916,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B31" s="9">
         <v>40960.01</v>
@@ -4647,7 +5925,7 @@
         <v>81920</v>
       </c>
       <c r="D31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E31">
         <f t="shared" si="11"/>
@@ -4664,7 +5942,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B32" s="9">
         <v>81920.009999999995</v>
@@ -4673,7 +5951,7 @@
         <v>163840</v>
       </c>
       <c r="D32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E32">
         <f t="shared" si="11"/>
@@ -4690,7 +5968,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B33" s="9">
         <v>163840.01</v>
@@ -4699,7 +5977,7 @@
         <v>327680</v>
       </c>
       <c r="D33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E33">
         <f t="shared" si="11"/>
@@ -4715,7 +5993,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B34" s="9">
         <v>327680.01</v>
@@ -4724,7 +6002,7 @@
         <v>655360</v>
       </c>
       <c r="D34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E34">
         <f t="shared" si="11"/>
@@ -4738,12 +6016,12 @@
         <v>120</v>
       </c>
       <c r="L34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B35" s="9">
         <v>655360.01</v>
@@ -4752,7 +6030,7 @@
         <v>1310720</v>
       </c>
       <c r="D35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E35">
         <f t="shared" si="11"/>
@@ -4768,7 +6046,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B36" s="9">
         <v>1310720.01</v>
@@ -4777,7 +6055,7 @@
         <v>2621440</v>
       </c>
       <c r="D36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E36">
         <f t="shared" si="11"/>
@@ -4793,7 +6071,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B37" s="9">
         <v>2621440.0099999998</v>
@@ -4802,7 +6080,7 @@
         <v>5242880</v>
       </c>
       <c r="D37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E37">
         <f t="shared" si="11"/>
@@ -4818,7 +6096,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B38" s="9">
         <v>5242880.01</v>
@@ -4827,7 +6105,7 @@
         <v>10485760</v>
       </c>
       <c r="D38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E38">
         <f t="shared" si="11"/>
@@ -4843,7 +6121,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B39" s="9">
         <v>10485760.01</v>
@@ -4852,7 +6130,7 @@
         <v>20971520</v>
       </c>
       <c r="D39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E39">
         <f t="shared" si="11"/>
@@ -4868,7 +6146,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B40" s="9">
         <v>21000000</v>
@@ -4877,7 +6155,7 @@
         <v>41900000</v>
       </c>
       <c r="D40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E40">
         <f t="shared" si="11"/>
@@ -4893,7 +6171,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B41" s="9">
         <v>41900000</v>
@@ -4902,7 +6180,7 @@
         <v>83900000</v>
       </c>
       <c r="D41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E41">
         <f t="shared" si="11"/>
@@ -4918,7 +6196,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B42" s="9">
         <v>83900000</v>
@@ -4927,7 +6205,7 @@
         <v>168000000</v>
       </c>
       <c r="D42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E42">
         <f t="shared" si="11"/>
@@ -4943,7 +6221,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B43" s="9">
         <v>168000000</v>
@@ -4952,7 +6230,7 @@
         <v>336000000</v>
       </c>
       <c r="D43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E43">
         <f t="shared" si="11"/>
@@ -4968,7 +6246,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B44" s="9">
         <v>336000000</v>
@@ -4977,7 +6255,7 @@
         <v>671000000</v>
       </c>
       <c r="D44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E44">
         <f t="shared" si="11"/>
@@ -4993,7 +6271,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B45" s="9">
         <v>671000000</v>
@@ -5002,7 +6280,7 @@
         <v>1340000000</v>
       </c>
       <c r="D45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E45">
         <f t="shared" si="11"/>
@@ -5018,7 +6296,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B46" s="9">
         <v>1340000000</v>
@@ -5027,7 +6305,7 @@
         <v>2680000000</v>
       </c>
       <c r="D46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E46">
         <f t="shared" si="11"/>
@@ -5043,7 +6321,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B47" s="9">
         <v>2680000000</v>
@@ -5052,7 +6330,7 @@
         <v>5370000000</v>
       </c>
       <c r="D47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E47">
         <f t="shared" si="11"/>
@@ -5068,7 +6346,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B48" s="9">
         <v>5370000000</v>
@@ -5077,7 +6355,7 @@
         <v>10700000000</v>
       </c>
       <c r="D48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E48">
         <f t="shared" si="11"/>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="298">
   <si>
     <t>フォルダー名</t>
     <rPh sb="5" eb="6">
@@ -1969,86 +1969,612 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>小型ロケットブースター6本使い。/n固体補助ロケット分離は自動で行われるよ。</t>
-    <rPh sb="0" eb="2">
-      <t>コガタ</t>
+    <t>B型エンジン4本使い。/nアリアンVはヨーロッパで作って南米で打ち上げられる。</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ナンベイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D型エンジン2本で燃焼時間も長い。/nH3は日本の次期基幹ロケットだよ。</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C型エンジン6本の強力ブースター。/nかなりの高さまで打ち上がる。</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C型エンジン8本で強力。/nH-IIAの読み方は「えいち・つー・えー」</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E型エンジン6本のブースター/nプロトンロケットはICBMの在庫処分として打ち上げに使われてる。</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショブン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A型エンジン6本で、かなり強力に上がっていくよ。/nソユーズって1966年から使ってる</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/2A型エンジンでも8本使えばこの上昇力。/n燃焼時間はまだ短いけどね。</t>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
     </rPh>
     <rPh sb="12" eb="13">
       <t>ホン</t>
     </rPh>
     <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ジョウショウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>ネンショウジカン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ミジカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/2A型エンジン 6本で上昇力アップ！/nイプシロンは安くて早いロケットだよ。</t>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ジョウショウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A型エンジンのロケットブースター/n2本でもかなり上がり方が違ってくる。</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/4A型エンジンロケットブースター6本使い。/n固体補助ロケット分離は自動で行われるよ。/nペンシルロケットの初飛行は1955年。</t>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
       <t>ヅカ</t>
     </rPh>
-    <rPh sb="18" eb="20">
+    <rPh sb="25" eb="27">
       <t>コタイ</t>
     </rPh>
-    <rPh sb="20" eb="22">
+    <rPh sb="27" eb="29">
       <t>ホジョ</t>
     </rPh>
-    <rPh sb="26" eb="28">
+    <rPh sb="33" eb="35">
       <t>ブンリ</t>
     </rPh>
-    <rPh sb="29" eb="31">
+    <rPh sb="36" eb="38">
       <t>ジドウ</t>
     </rPh>
-    <rPh sb="32" eb="33">
+    <rPh sb="39" eb="40">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一番小型の固体ロケットブースタ2本使用。/nスペックはモデルロケットの固体ロケットエンジンに準拠。/nまずはコレで試してみよう。</t>
+    <rPh sb="56" eb="59">
+      <t>ハツヒコウ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/4A型エンジンロケットブースター4本使い。/n本数が増えればそれだけ高く上がるよ。/nコントロールパネルのスイッチを入れないと使えないよ。</t>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヅカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一番小型の固体ロケットブースター　1/4A型エンジン2本使用。/nスペックはモデルロケットの固体ロケットエンジンに準拠。/nまずはコレで試してみよう。</t>
     <rPh sb="0" eb="4">
       <t>イチバンコガタ</t>
     </rPh>
     <rPh sb="5" eb="7">
       <t>コタイ</t>
     </rPh>
-    <rPh sb="16" eb="17">
+    <rPh sb="21" eb="22">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コタイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ジュンキョ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D型エンジン6本 かなりの推力だよ。/nH-IIAは信頼度が高いけど価格も高い。</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E型エンジン8本。/nプロトンロケットの打ち上げはインターナショナル・ローンチ・サービス(ILS)社が行っている。</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F型エンジン6本/nスペースシャトル用の固体補助ロケット/n固体燃料ロケットとしては史上最大.</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コタイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F型エンジン8本で3秒も燃える/nSRBは回収して何度も使った。</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ナンド</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G型エンジン6本のブースター/n燃焼時間も4秒と長くなっている。/nLong March（長征）は中国のロケット。</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ネンショウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>チュウゴク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G型エンジン8本/nLong March2Fは中国の有人機神舟5号を打ち上げた機体だ。</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>チュウゴク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ユウジン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>フネ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ゴウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Atlas V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H型エンジン6本のブースター。/nアトラスVはアメリカの機体だが、一段目のエンジンがロシア製。</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>イチダンメ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H型エンジン8本/nアトラスVはユナイテッド・ローンチ・アライアンス (ULA) によって打ち上げられている。</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I型エンジン6本のブースター/n、デルタIVはユナイテッド・ローンチ・アライアンス (ULA)により打ち上げられる。</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I型エンジン8本のブースター/nDeltaIVヘビーはそのカラーリングから”焼きちくわ”と呼ばれているとか。</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J型エンジン6本/nファルコン9は米国の民間企業スペースX社により開発、打上られているロケット。</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
       <t>ホン</t>
     </rPh>
     <rPh sb="17" eb="19">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>コタイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ジュンキョ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>タメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小型ロケットブースター4本使い。/n本数が増えればそれだけ高く上がるよ。/nコントロールパネルのスイッチを入れないと使えないよ。</t>
-    <rPh sb="0" eb="2">
-      <t>コガタ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヅカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ホンスウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="53" eb="54">
+      <t>ベイコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J型エンジン8本でかなりの推進力。/n打上の金額が安く、一段目の再使用が注目されている。</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>スイシンリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ウチアゲ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>イチダンメ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>サイシヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>チュウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Saturn V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K型エンジン6本使う、超推進力。/nSaturn Vは人類を月に送ったアメリカの超巨大ロケット。</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>チョウスイシンリョク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジンルイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>チョウキョダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K型エンジン8本を使った最終システム。/nこれであなたのロケットはあそこまで行ける！</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
       <t>イ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2220,8 +2746,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145368E-2"/>
-          <c:w val="0.69775377355808998"/>
+          <c:y val="4.2141294838145431E-2"/>
+          <c:w val="0.69775377355809076"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -2725,8 +3251,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="234419328"/>
-        <c:axId val="234420864"/>
+        <c:axId val="226210560"/>
+        <c:axId val="226212096"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -2979,22 +3505,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="234436480"/>
-        <c:axId val="234434944"/>
+        <c:axId val="226231808"/>
+        <c:axId val="226230272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="234419328"/>
+        <c:axId val="226210560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234420864"/>
+        <c:crossAx val="226212096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="234420864"/>
+        <c:axId val="226212096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3002,44 +3528,43 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234419328"/>
+        <c:crossAx val="226210560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="234434944"/>
+        <c:axId val="226230272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234436480"/>
+        <c:crossAx val="226231808"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="234436480"/>
+        <c:axId val="226231808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="234434944"/>
+        <c:crossAx val="226230272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4235,8 +4760,8 @@
   <dimension ref="A1:AB20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F9" sqref="F9"/>
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4614,7 +5139,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="108">
+    <row r="9" spans="1:28" ht="121.5">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -4622,13 +5147,82 @@
         <v>208</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>270</v>
+      <c r="M9" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="14.25" thickBot="1">
@@ -4997,7 +5591,7 @@
         <v>180</v>
       </c>
       <c r="U19" t="s">
-        <v>179</v>
+        <v>288</v>
       </c>
       <c r="V19" t="s">
         <v>179</v>
@@ -5015,7 +5609,7 @@
         <v>177</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="AB19" s="1" t="s">
         <v>260</v>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="305">
   <si>
     <t>フォルダー名</t>
     <rPh sb="5" eb="6">
@@ -823,12 +823,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SRBAThrustForce</t>
-  </si>
-  <si>
-    <t>SRBABurningTime</t>
-  </si>
-  <si>
     <t>ParameterName</t>
   </si>
   <si>
@@ -1122,9 +1116,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SRBAs_7</t>
-  </si>
-  <si>
     <t>MAX400km ISSまで</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1381,10 +1372,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SRBAs_6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>C型6本</t>
     <rPh sb="1" eb="2">
       <t>ガタ</t>
@@ -2576,6 +2563,46 @@
     <rPh sb="38" eb="39">
       <t>イ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SRBAs_6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SRBAs_8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SRBAs_7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SRBAs_9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SRBAs_10</t>
+  </si>
+  <si>
+    <t>SRBAs_11</t>
+  </si>
+  <si>
+    <t>SRBAs_12</t>
+  </si>
+  <si>
+    <t>SRBAs_13</t>
+  </si>
+  <si>
+    <t>SRBAThrustForce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SRBABurningTime</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2746,8 +2773,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145431E-2"/>
-          <c:w val="0.69775377355809076"/>
+          <c:y val="4.2141294838145445E-2"/>
+          <c:w val="0.69775377355809098"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -3251,8 +3278,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="226210560"/>
-        <c:axId val="226212096"/>
+        <c:axId val="93631232"/>
+        <c:axId val="93632768"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -3505,22 +3532,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="226231808"/>
-        <c:axId val="226230272"/>
+        <c:axId val="93652480"/>
+        <c:axId val="93650944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226210560"/>
+        <c:axId val="93631232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226212096"/>
+        <c:crossAx val="93632768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226212096"/>
+        <c:axId val="93632768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3528,31 +3555,31 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226210560"/>
+        <c:crossAx val="93631232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226230272"/>
+        <c:axId val="93650944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226231808"/>
+        <c:crossAx val="93652480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226231808"/>
+        <c:axId val="93652480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="226230272"/>
+        <c:crossAx val="93650944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3564,7 +3591,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4697,7 +4724,7 @@
     </row>
     <row r="11" spans="1:7" ht="14.25" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4759,9 +4786,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB9" sqref="AB9"/>
+      <selection pane="topRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4837,43 +4864,43 @@
         <v>120</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="S4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W4" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="AA4" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -4972,85 +4999,85 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="H7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="R7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="W7" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Y7" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA7" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="Z7" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="AB7" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="108">
@@ -5058,85 +5085,85 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="Q8" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="R8" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="W8" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Z8" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB8" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="121.5">
@@ -5144,85 +5171,85 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="P9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="R9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="X9" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y9" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="Z9" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="W9" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="X9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="AB9" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="14.25" thickBot="1">
@@ -5230,51 +5257,90 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>193</v>
+        <v>295</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -5365,7 +5431,7 @@
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="1" t="s">
-        <v>122</v>
+        <v>303</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -5451,7 +5517,7 @@
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="1" t="s">
-        <v>123</v>
+        <v>304</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -5535,87 +5601,170 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="3:28">
+    <row r="18" spans="2:28">
+      <c r="B18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28">
       <c r="C19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="S19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="T19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="U19" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="V19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="W19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="X19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Y19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Z19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="20" spans="3:28">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28">
       <c r="D20"/>
       <c r="E20"/>
       <c r="L20"/>
@@ -5652,41 +5801,41 @@
   <sheetData>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" t="s">
         <v>154</v>
       </c>
-      <c r="F3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" t="s">
-        <v>156</v>
-      </c>
       <c r="H3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="I4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
@@ -5695,7 +5844,7 @@
         <v>0.625</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E6" si="0">F5*G5</f>
@@ -5724,12 +5873,12 @@
         <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B6" s="9">
         <v>0.625</v>
@@ -5738,7 +5887,7 @@
         <v>1.25</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -5767,12 +5916,12 @@
         <v>9.984</v>
       </c>
       <c r="M6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B7" s="9">
         <v>1.26</v>
@@ -5781,7 +5930,7 @@
         <v>2.5</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E7">
         <f>F7*G7</f>
@@ -5810,12 +5959,12 @@
         <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B8" s="9">
         <v>2.5099999999999998</v>
@@ -5824,7 +5973,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E19" si="5">F8*G8</f>
@@ -5853,12 +6002,12 @@
         <v>40</v>
       </c>
       <c r="M8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B9" s="9">
         <v>5.01</v>
@@ -5867,7 +6016,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E9">
         <f t="shared" si="5"/>
@@ -5896,12 +6045,12 @@
         <v>80</v>
       </c>
       <c r="M9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B10" s="9">
         <v>10.01</v>
@@ -5910,7 +6059,7 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E10">
         <f t="shared" si="5"/>
@@ -5939,12 +6088,12 @@
         <v>159.84</v>
       </c>
       <c r="M10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B11" s="9">
         <v>20.010000000000002</v>
@@ -5953,7 +6102,7 @@
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E11">
         <f t="shared" si="5"/>
@@ -5982,12 +6131,12 @@
         <v>320</v>
       </c>
       <c r="M11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B12" s="9">
         <v>40.01</v>
@@ -5996,7 +6145,7 @@
         <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E12">
         <f t="shared" si="5"/>
@@ -6026,12 +6175,12 @@
         <v>640</v>
       </c>
       <c r="M12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B13" s="9">
         <v>80.010000000000005</v>
@@ -6040,7 +6189,7 @@
         <v>160</v>
       </c>
       <c r="D13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E13">
         <f t="shared" si="5"/>
@@ -6070,12 +6219,12 @@
         <v>1280</v>
       </c>
       <c r="M13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B14" s="9">
         <v>160.01</v>
@@ -6084,7 +6233,7 @@
         <v>320</v>
       </c>
       <c r="D14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E14">
         <f t="shared" si="5"/>
@@ -6114,12 +6263,12 @@
         <v>2560</v>
       </c>
       <c r="M14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B15" s="9">
         <v>320.01</v>
@@ -6128,7 +6277,7 @@
         <v>640</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E15">
         <f t="shared" si="5"/>
@@ -6158,12 +6307,12 @@
         <v>5120</v>
       </c>
       <c r="M15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B16" s="9">
         <v>640.01</v>
@@ -6172,7 +6321,7 @@
         <v>1280</v>
       </c>
       <c r="D16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E16">
         <f t="shared" si="5"/>
@@ -6202,12 +6351,12 @@
         <v>10240</v>
       </c>
       <c r="M16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B17" s="9">
         <v>1280.01</v>
@@ -6216,7 +6365,7 @@
         <v>2560</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E17">
         <f t="shared" si="5"/>
@@ -6246,15 +6395,15 @@
         <v>20480</v>
       </c>
       <c r="M17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B18" s="9">
         <v>2560.0100000000002</v>
@@ -6263,7 +6412,7 @@
         <v>5120</v>
       </c>
       <c r="D18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E18">
         <f t="shared" si="5"/>
@@ -6298,7 +6447,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="6"/>
@@ -6356,7 +6505,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B23" s="9">
         <v>5120.01</v>
@@ -6365,7 +6514,7 @@
         <v>10240</v>
       </c>
       <c r="D23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E23">
         <f>F23*G23</f>
@@ -6389,7 +6538,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="B25" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C25" s="4">
         <v>10240</v>
@@ -6412,7 +6561,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="B26" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C26" s="4"/>
       <c r="H26">
@@ -6422,16 +6571,16 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C27" s="4">
         <v>10240</v>
       </c>
       <c r="D27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E27">
         <f>F27*G27</f>
@@ -6451,16 +6600,16 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C28" s="4">
         <v>20480</v>
       </c>
       <c r="D28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E28">
         <f>F28*G28</f>
@@ -6484,7 +6633,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B30" s="9">
         <v>20480.009999999998</v>
@@ -6493,7 +6642,7 @@
         <v>40960</v>
       </c>
       <c r="D30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E30">
         <f t="shared" ref="E30:E48" si="11">F30*G30</f>
@@ -6510,7 +6659,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B31" s="9">
         <v>40960.01</v>
@@ -6519,7 +6668,7 @@
         <v>81920</v>
       </c>
       <c r="D31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E31">
         <f t="shared" si="11"/>
@@ -6536,7 +6685,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B32" s="9">
         <v>81920.009999999995</v>
@@ -6545,7 +6694,7 @@
         <v>163840</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E32">
         <f t="shared" si="11"/>
@@ -6562,7 +6711,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B33" s="9">
         <v>163840.01</v>
@@ -6571,7 +6720,7 @@
         <v>327680</v>
       </c>
       <c r="D33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E33">
         <f t="shared" si="11"/>
@@ -6587,7 +6736,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B34" s="9">
         <v>327680.01</v>
@@ -6596,7 +6745,7 @@
         <v>655360</v>
       </c>
       <c r="D34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E34">
         <f t="shared" si="11"/>
@@ -6610,12 +6759,12 @@
         <v>120</v>
       </c>
       <c r="L34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B35" s="9">
         <v>655360.01</v>
@@ -6624,7 +6773,7 @@
         <v>1310720</v>
       </c>
       <c r="D35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E35">
         <f t="shared" si="11"/>
@@ -6640,7 +6789,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B36" s="9">
         <v>1310720.01</v>
@@ -6649,7 +6798,7 @@
         <v>2621440</v>
       </c>
       <c r="D36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E36">
         <f t="shared" si="11"/>
@@ -6665,7 +6814,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B37" s="9">
         <v>2621440.0099999998</v>
@@ -6674,7 +6823,7 @@
         <v>5242880</v>
       </c>
       <c r="D37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E37">
         <f t="shared" si="11"/>
@@ -6690,7 +6839,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B38" s="9">
         <v>5242880.01</v>
@@ -6699,7 +6848,7 @@
         <v>10485760</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E38">
         <f t="shared" si="11"/>
@@ -6715,7 +6864,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B39" s="9">
         <v>10485760.01</v>
@@ -6724,7 +6873,7 @@
         <v>20971520</v>
       </c>
       <c r="D39" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E39">
         <f t="shared" si="11"/>
@@ -6740,7 +6889,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B40" s="9">
         <v>21000000</v>
@@ -6749,7 +6898,7 @@
         <v>41900000</v>
       </c>
       <c r="D40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E40">
         <f t="shared" si="11"/>
@@ -6765,7 +6914,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B41" s="9">
         <v>41900000</v>
@@ -6774,7 +6923,7 @@
         <v>83900000</v>
       </c>
       <c r="D41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E41">
         <f t="shared" si="11"/>
@@ -6790,7 +6939,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B42" s="9">
         <v>83900000</v>
@@ -6799,7 +6948,7 @@
         <v>168000000</v>
       </c>
       <c r="D42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E42">
         <f t="shared" si="11"/>
@@ -6815,7 +6964,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B43" s="9">
         <v>168000000</v>
@@ -6824,7 +6973,7 @@
         <v>336000000</v>
       </c>
       <c r="D43" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E43">
         <f t="shared" si="11"/>
@@ -6840,7 +6989,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B44" s="9">
         <v>336000000</v>
@@ -6849,7 +6998,7 @@
         <v>671000000</v>
       </c>
       <c r="D44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E44">
         <f t="shared" si="11"/>
@@ -6865,7 +7014,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B45" s="9">
         <v>671000000</v>
@@ -6874,7 +7023,7 @@
         <v>1340000000</v>
       </c>
       <c r="D45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E45">
         <f t="shared" si="11"/>
@@ -6890,7 +7039,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B46" s="9">
         <v>1340000000</v>
@@ -6899,7 +7048,7 @@
         <v>2680000000</v>
       </c>
       <c r="D46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E46">
         <f t="shared" si="11"/>
@@ -6915,7 +7064,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B47" s="9">
         <v>2680000000</v>
@@ -6924,7 +7073,7 @@
         <v>5370000000</v>
       </c>
       <c r="D47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E47">
         <f t="shared" si="11"/>
@@ -6940,7 +7089,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B48" s="9">
         <v>5370000000</v>
@@ -6949,7 +7098,7 @@
         <v>10700000000</v>
       </c>
       <c r="D48" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E48">
         <f t="shared" si="11"/>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20850" windowHeight="13515" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20850" windowHeight="13515" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NoseCorn" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="316">
   <si>
     <t>フォルダー名</t>
     <rPh sb="5" eb="6">
@@ -285,22 +285,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cd:0.01 /n質量:2g/n安定性★★★★</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cd:0.05 /n質量:10g/n安定性★★★</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cd:0.1  /n質量:20g/n安定性★★</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cd:0.2 /n質量:30g/n安定性★</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>バルサ材のフィン</t>
     <rPh sb="3" eb="4">
       <t>ザイ</t>
@@ -2603,6 +2587,137 @@
   </si>
   <si>
     <t>SRBABurningTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pump5</t>
+  </si>
+  <si>
+    <t>かなり圧力が高い。/n強化ボディを選ばないと、破裂が続出する。</t>
+    <rPh sb="3" eb="5">
+      <t>アツリョク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハレツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ゾクシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強化型自転車用ポンプ</t>
+    <rPh sb="0" eb="3">
+      <t>キョウカガタ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジテンシャ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PumpAnimation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターボコンプレッサー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スーパースクリューコンプレッサー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシプロコンプレッサー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大圧:200kPa</t>
+    <rPh sb="0" eb="3">
+      <t>サイダイアツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大圧:300kPa</t>
+    <rPh sb="0" eb="3">
+      <t>サイダイアツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大圧:500kPa</t>
+    <rPh sb="0" eb="3">
+      <t>サイダイアツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大圧:1000kPa</t>
+    <rPh sb="0" eb="3">
+      <t>サイダイアツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大圧:5000kPa</t>
+    <rPh sb="0" eb="3">
+      <t>サイダイアツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最高圧力が書けられるポンプ/nこいつを使いこなすには最高のボディが必要。</t>
+    <rPh sb="0" eb="4">
+      <t>サイコウアツリョク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サイコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通はこんなに圧力かけない。/n破裂する前にやめられる？</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>アツリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハレツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大圧:2500kPa</t>
+    <rPh sb="0" eb="3">
+      <t>サイダイアツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2773,8 +2888,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145445E-2"/>
-          <c:w val="0.69775377355809098"/>
+          <c:y val="4.2141294838145472E-2"/>
+          <c:w val="0.69775377355809121"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -3278,8 +3393,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="93631232"/>
-        <c:axId val="93632768"/>
+        <c:axId val="235713280"/>
+        <c:axId val="235714816"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -3532,22 +3647,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="93652480"/>
-        <c:axId val="93650944"/>
+        <c:axId val="235734528"/>
+        <c:axId val="235732992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93631232"/>
+        <c:axId val="235713280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93632768"/>
+        <c:crossAx val="235714816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93632768"/>
+        <c:axId val="235714816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3555,31 +3670,31 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93631232"/>
+        <c:crossAx val="235713280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93650944"/>
+        <c:axId val="235732992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93652480"/>
+        <c:crossAx val="235734528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93652480"/>
+        <c:axId val="235734528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="93650944"/>
+        <c:crossAx val="235732992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3591,7 +3706,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4211,25 +4326,25 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="27">
@@ -4237,25 +4352,25 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="94.5">
@@ -4263,25 +4378,25 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" thickBot="1">
@@ -4471,16 +4586,16 @@
         <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="40.5">
@@ -4488,19 +4603,19 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="63" customHeight="1">
@@ -4511,16 +4626,16 @@
         <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" thickBot="1">
@@ -4538,7 +4653,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B12" s="1">
         <v>0.2</v>
@@ -4558,7 +4673,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -4592,13 +4707,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
     <col min="2" max="6" width="16.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4606,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4614,19 +4732,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>85</v>
+      <c r="G4" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4648,6 +4769,9 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
@@ -4666,6 +4790,9 @@
         <v>5000</v>
       </c>
       <c r="F6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G6" s="1">
         <v>20000</v>
       </c>
     </row>
@@ -4674,62 +4801,83 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="40.5">
+        <v>101</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>308</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>309</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>310</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>53</v>
+        <v>311</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="63" customHeight="1">
+        <v>315</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="77.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B12" s="1">
         <v>200</v>
@@ -4744,7 +4892,7 @@
         <v>1000</v>
       </c>
       <c r="F12" s="1">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="G12" s="1">
         <v>5000</v>
@@ -4752,7 +4900,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -4769,10 +4917,13 @@
       <c r="F13" s="1">
         <v>30</v>
       </c>
+      <c r="G13" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>3</v>
+      <c r="A14" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -4786,7 +4937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K14" sqref="K14"/>
     </sheetView>
@@ -4814,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -4822,85 +4973,85 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="P4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="S4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="W4" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="AA4" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -4999,85 +5150,85 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="N7" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="R7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="W7" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Y7" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA7" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="Z7" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="AB7" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="108">
@@ -5085,85 +5236,85 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="Q8" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="R8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="W8" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Z8" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB8" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="121.5">
@@ -5171,85 +5322,85 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="P9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="R9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="X9" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y9" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="Z9" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="W9" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="X9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="AB9" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="14.25" thickBot="1">
@@ -5257,95 +5408,95 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K10" s="1" t="s">
+      <c r="T10" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="W10" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="N10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="Z10" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="AA10" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="AB10" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -5431,7 +5582,7 @@
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -5517,7 +5668,7 @@
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -5603,165 +5754,165 @@
     </row>
     <row r="18" spans="2:28">
       <c r="B18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="P18" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="S18" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="U18" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="X18" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="Y18" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="Z18" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="W18" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="AA18" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="2:28">
       <c r="C19" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D19" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E19" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G19" t="s">
+        <v>180</v>
+      </c>
+      <c r="H19" t="s">
+        <v>180</v>
+      </c>
+      <c r="I19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" t="s">
         <v>184</v>
       </c>
-      <c r="H19" t="s">
-        <v>184</v>
-      </c>
-      <c r="I19" t="s">
-        <v>183</v>
-      </c>
-      <c r="J19" t="s">
-        <v>188</v>
-      </c>
       <c r="K19" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M19" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="S19" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="T19" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="U19" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="V19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="X19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Y19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Z19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="2:28">
@@ -5801,41 +5952,41 @@
   <sheetData>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="I4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
@@ -5844,7 +5995,7 @@
         <v>0.625</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E6" si="0">F5*G5</f>
@@ -5873,12 +6024,12 @@
         <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B6" s="9">
         <v>0.625</v>
@@ -5887,7 +6038,7 @@
         <v>1.25</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -5916,12 +6067,12 @@
         <v>9.984</v>
       </c>
       <c r="M6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B7" s="9">
         <v>1.26</v>
@@ -5930,7 +6081,7 @@
         <v>2.5</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E7">
         <f>F7*G7</f>
@@ -5959,12 +6110,12 @@
         <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B8" s="9">
         <v>2.5099999999999998</v>
@@ -5973,7 +6124,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E19" si="5">F8*G8</f>
@@ -6002,12 +6153,12 @@
         <v>40</v>
       </c>
       <c r="M8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B9" s="9">
         <v>5.01</v>
@@ -6016,7 +6167,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E9">
         <f t="shared" si="5"/>
@@ -6045,12 +6196,12 @@
         <v>80</v>
       </c>
       <c r="M9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B10" s="9">
         <v>10.01</v>
@@ -6059,7 +6210,7 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E10">
         <f t="shared" si="5"/>
@@ -6088,12 +6239,12 @@
         <v>159.84</v>
       </c>
       <c r="M10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B11" s="9">
         <v>20.010000000000002</v>
@@ -6102,7 +6253,7 @@
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E11">
         <f t="shared" si="5"/>
@@ -6131,12 +6282,12 @@
         <v>320</v>
       </c>
       <c r="M11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B12" s="9">
         <v>40.01</v>
@@ -6145,7 +6296,7 @@
         <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E12">
         <f t="shared" si="5"/>
@@ -6175,12 +6326,12 @@
         <v>640</v>
       </c>
       <c r="M12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B13" s="9">
         <v>80.010000000000005</v>
@@ -6189,7 +6340,7 @@
         <v>160</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E13">
         <f t="shared" si="5"/>
@@ -6219,12 +6370,12 @@
         <v>1280</v>
       </c>
       <c r="M13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B14" s="9">
         <v>160.01</v>
@@ -6233,7 +6384,7 @@
         <v>320</v>
       </c>
       <c r="D14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E14">
         <f t="shared" si="5"/>
@@ -6263,12 +6414,12 @@
         <v>2560</v>
       </c>
       <c r="M14" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B15" s="9">
         <v>320.01</v>
@@ -6277,7 +6428,7 @@
         <v>640</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E15">
         <f t="shared" si="5"/>
@@ -6307,12 +6458,12 @@
         <v>5120</v>
       </c>
       <c r="M15" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B16" s="9">
         <v>640.01</v>
@@ -6321,7 +6472,7 @@
         <v>1280</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E16">
         <f t="shared" si="5"/>
@@ -6351,12 +6502,12 @@
         <v>10240</v>
       </c>
       <c r="M16" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B17" s="9">
         <v>1280.01</v>
@@ -6365,7 +6516,7 @@
         <v>2560</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E17">
         <f t="shared" si="5"/>
@@ -6395,15 +6546,15 @@
         <v>20480</v>
       </c>
       <c r="M17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="N17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B18" s="9">
         <v>2560.0100000000002</v>
@@ -6412,7 +6563,7 @@
         <v>5120</v>
       </c>
       <c r="D18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E18">
         <f t="shared" si="5"/>
@@ -6447,7 +6598,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="6"/>
@@ -6505,7 +6656,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B23" s="9">
         <v>5120.01</v>
@@ -6514,7 +6665,7 @@
         <v>10240</v>
       </c>
       <c r="D23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E23">
         <f>F23*G23</f>
@@ -6538,7 +6689,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="B25" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C25" s="4">
         <v>10240</v>
@@ -6561,7 +6712,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="B26" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C26" s="4"/>
       <c r="H26">
@@ -6571,16 +6722,16 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C27" s="4">
         <v>10240</v>
       </c>
       <c r="D27" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E27">
         <f>F27*G27</f>
@@ -6600,16 +6751,16 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C28" s="4">
         <v>20480</v>
       </c>
       <c r="D28" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E28">
         <f>F28*G28</f>
@@ -6633,7 +6784,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B30" s="9">
         <v>20480.009999999998</v>
@@ -6642,7 +6793,7 @@
         <v>40960</v>
       </c>
       <c r="D30" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E30">
         <f t="shared" ref="E30:E48" si="11">F30*G30</f>
@@ -6659,7 +6810,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B31" s="9">
         <v>40960.01</v>
@@ -6668,7 +6819,7 @@
         <v>81920</v>
       </c>
       <c r="D31" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E31">
         <f t="shared" si="11"/>
@@ -6685,7 +6836,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B32" s="9">
         <v>81920.009999999995</v>
@@ -6694,7 +6845,7 @@
         <v>163840</v>
       </c>
       <c r="D32" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E32">
         <f t="shared" si="11"/>
@@ -6711,7 +6862,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B33" s="9">
         <v>163840.01</v>
@@ -6720,7 +6871,7 @@
         <v>327680</v>
       </c>
       <c r="D33" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E33">
         <f t="shared" si="11"/>
@@ -6736,7 +6887,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B34" s="9">
         <v>327680.01</v>
@@ -6745,7 +6896,7 @@
         <v>655360</v>
       </c>
       <c r="D34" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E34">
         <f t="shared" si="11"/>
@@ -6759,12 +6910,12 @@
         <v>120</v>
       </c>
       <c r="L34" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B35" s="9">
         <v>655360.01</v>
@@ -6773,7 +6924,7 @@
         <v>1310720</v>
       </c>
       <c r="D35" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E35">
         <f t="shared" si="11"/>
@@ -6789,7 +6940,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B36" s="9">
         <v>1310720.01</v>
@@ -6798,7 +6949,7 @@
         <v>2621440</v>
       </c>
       <c r="D36" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E36">
         <f t="shared" si="11"/>
@@ -6814,7 +6965,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B37" s="9">
         <v>2621440.0099999998</v>
@@ -6823,7 +6974,7 @@
         <v>5242880</v>
       </c>
       <c r="D37" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E37">
         <f t="shared" si="11"/>
@@ -6839,7 +6990,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B38" s="9">
         <v>5242880.01</v>
@@ -6848,7 +6999,7 @@
         <v>10485760</v>
       </c>
       <c r="D38" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E38">
         <f t="shared" si="11"/>
@@ -6864,7 +7015,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B39" s="9">
         <v>10485760.01</v>
@@ -6873,7 +7024,7 @@
         <v>20971520</v>
       </c>
       <c r="D39" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E39">
         <f t="shared" si="11"/>
@@ -6889,7 +7040,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B40" s="9">
         <v>21000000</v>
@@ -6898,7 +7049,7 @@
         <v>41900000</v>
       </c>
       <c r="D40" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E40">
         <f t="shared" si="11"/>
@@ -6914,7 +7065,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B41" s="9">
         <v>41900000</v>
@@ -6923,7 +7074,7 @@
         <v>83900000</v>
       </c>
       <c r="D41" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E41">
         <f t="shared" si="11"/>
@@ -6939,7 +7090,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B42" s="9">
         <v>83900000</v>
@@ -6948,7 +7099,7 @@
         <v>168000000</v>
       </c>
       <c r="D42" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E42">
         <f t="shared" si="11"/>
@@ -6964,7 +7115,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B43" s="9">
         <v>168000000</v>
@@ -6973,7 +7124,7 @@
         <v>336000000</v>
       </c>
       <c r="D43" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E43">
         <f t="shared" si="11"/>
@@ -6989,7 +7140,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B44" s="9">
         <v>336000000</v>
@@ -6998,7 +7149,7 @@
         <v>671000000</v>
       </c>
       <c r="D44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E44">
         <f t="shared" si="11"/>
@@ -7014,7 +7165,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B45" s="9">
         <v>671000000</v>
@@ -7023,7 +7174,7 @@
         <v>1340000000</v>
       </c>
       <c r="D45" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E45">
         <f t="shared" si="11"/>
@@ -7039,7 +7190,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B46" s="9">
         <v>1340000000</v>
@@ -7048,7 +7199,7 @@
         <v>2680000000</v>
       </c>
       <c r="D46" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E46">
         <f t="shared" si="11"/>
@@ -7064,7 +7215,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B47" s="9">
         <v>2680000000</v>
@@ -7073,7 +7224,7 @@
         <v>5370000000</v>
       </c>
       <c r="D47" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E47">
         <f t="shared" si="11"/>
@@ -7089,7 +7240,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B48" s="9">
         <v>5370000000</v>
@@ -7098,7 +7249,7 @@
         <v>10700000000</v>
       </c>
       <c r="D48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E48">
         <f t="shared" si="11"/>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="322">
   <si>
     <t>フォルダー名</t>
     <rPh sb="5" eb="6">
@@ -2632,10 +2632,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ターボコンプレッサー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スーパースクリューコンプレッサー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2718,6 +2714,34 @@
     <rPh sb="0" eb="3">
       <t>サイダイアツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pump1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PumpHi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FootPump</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TurboPump</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReciproPump</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScrewPump</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターボコンプレッサー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2888,8 +2912,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145472E-2"/>
-          <c:w val="0.69775377355809121"/>
+          <c:y val="4.2141294838145507E-2"/>
+          <c:w val="0.69775377355809165"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -3393,8 +3417,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="235713280"/>
-        <c:axId val="235714816"/>
+        <c:axId val="247144832"/>
+        <c:axId val="247146368"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -3647,22 +3671,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="235734528"/>
-        <c:axId val="235732992"/>
+        <c:axId val="247157888"/>
+        <c:axId val="247147904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235713280"/>
+        <c:axId val="247144832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235714816"/>
+        <c:crossAx val="247146368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235714816"/>
+        <c:axId val="247146368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3670,31 +3694,31 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235713280"/>
+        <c:crossAx val="247144832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235732992"/>
+        <c:axId val="247147904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235734528"/>
+        <c:crossAx val="247157888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235734528"/>
+        <c:axId val="247157888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="235732992"/>
+        <c:crossAx val="247147904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3706,7 +3730,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4708,7 +4732,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4778,16 +4802,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
         <v>50</v>
       </c>
-      <c r="C6" s="1">
-        <v>200</v>
-      </c>
       <c r="D6" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E6" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="F6" s="1">
         <v>10000</v>
@@ -4810,13 +4834,13 @@
         <v>303</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4824,22 +4848,22 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="77.25" customHeight="1">
@@ -4859,10 +4883,10 @@
         <v>302</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" thickBot="1">
@@ -4924,6 +4948,24 @@
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>304</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -2912,8 +2912,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145507E-2"/>
-          <c:w val="0.69775377355809165"/>
+          <c:y val="4.2141294838145521E-2"/>
+          <c:w val="0.69775377355809176"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -3417,8 +3417,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="247144832"/>
-        <c:axId val="247146368"/>
+        <c:axId val="232112512"/>
+        <c:axId val="232114048"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -3671,22 +3671,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="247157888"/>
-        <c:axId val="247147904"/>
+        <c:axId val="232121472"/>
+        <c:axId val="232115584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247144832"/>
+        <c:axId val="232112512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247146368"/>
+        <c:crossAx val="232114048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247146368"/>
+        <c:axId val="232114048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3694,31 +3694,31 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247144832"/>
+        <c:crossAx val="232112512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247147904"/>
+        <c:axId val="232115584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247157888"/>
+        <c:crossAx val="232121472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247157888"/>
+        <c:axId val="232121472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="247147904"/>
+        <c:crossAx val="232115584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3730,7 +3730,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4732,7 +4732,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -2912,8 +2912,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145521E-2"/>
-          <c:w val="0.69775377355809176"/>
+          <c:y val="4.2141294838145528E-2"/>
+          <c:w val="0.69775377355809198"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -3417,8 +3417,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="232112512"/>
-        <c:axId val="232114048"/>
+        <c:axId val="237355392"/>
+        <c:axId val="237356928"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -3671,22 +3671,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="232121472"/>
-        <c:axId val="232115584"/>
+        <c:axId val="237364352"/>
+        <c:axId val="237358464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="232112512"/>
+        <c:axId val="237355392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232114048"/>
+        <c:crossAx val="237356928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="232114048"/>
+        <c:axId val="237356928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3694,31 +3694,31 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232112512"/>
+        <c:crossAx val="237355392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="232115584"/>
+        <c:axId val="237358464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232121472"/>
+        <c:crossAx val="237364352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="232121472"/>
+        <c:axId val="237364352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="232115584"/>
+        <c:crossAx val="237358464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3730,7 +3730,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4732,7 +4732,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -2632,10 +2632,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スーパースクリューコンプレッサー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レシプロコンプレッサー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2737,11 +2733,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ScrewPump</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ターボコンプレッサー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スーパースクロールコンプレッサー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScrollPump</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2912,8 +2912,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145528E-2"/>
-          <c:w val="0.69775377355809198"/>
+          <c:y val="4.2141294838145542E-2"/>
+          <c:w val="0.69775377355809221"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -3417,8 +3417,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="237355392"/>
-        <c:axId val="237356928"/>
+        <c:axId val="232763776"/>
+        <c:axId val="232765312"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -3671,22 +3671,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="237364352"/>
-        <c:axId val="237358464"/>
+        <c:axId val="232772736"/>
+        <c:axId val="232766848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237355392"/>
+        <c:axId val="232763776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237356928"/>
+        <c:crossAx val="232765312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237356928"/>
+        <c:axId val="232765312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3694,31 +3694,31 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237355392"/>
+        <c:crossAx val="232763776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237358464"/>
+        <c:axId val="232766848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237364352"/>
+        <c:crossAx val="232772736"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237364352"/>
+        <c:axId val="232772736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="237358464"/>
+        <c:crossAx val="232766848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3730,7 +3730,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4732,7 +4732,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4834,13 +4834,13 @@
         <v>303</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4848,22 +4848,22 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="77.25" customHeight="1">
@@ -4883,10 +4883,10 @@
         <v>302</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" thickBot="1">
@@ -4950,22 +4950,22 @@
         <v>304</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20850" windowHeight="13515" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20850" windowHeight="13515" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NoseCorn" sheetId="4" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="Fin" sheetId="5" r:id="rId3"/>
     <sheet name="Pump" sheetId="6" r:id="rId4"/>
     <sheet name="SRBA" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId6"/>
+    <sheet name="CanSat" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="344">
   <si>
     <t>フォルダー名</t>
     <rPh sb="5" eb="6">
@@ -2742,6 +2743,116 @@
   </si>
   <si>
     <t>ScrollPump</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CanSatFolder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CanSat0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CanSat1</t>
+  </si>
+  <si>
+    <t>CanSat2</t>
+  </si>
+  <si>
+    <t>CanSat3</t>
+  </si>
+  <si>
+    <t>CanSat4</t>
+  </si>
+  <si>
+    <t>CanSat5</t>
+  </si>
+  <si>
+    <t>CanSat6</t>
+  </si>
+  <si>
+    <t>CanSat7</t>
+  </si>
+  <si>
+    <t>CanSat8</t>
+  </si>
+  <si>
+    <t>ペイロード無し</t>
+    <rPh sb="5" eb="6">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロケット本体内に何も乗っていない状態</t>
+    <rPh sb="4" eb="7">
+      <t>ホンタイナイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PayLoadName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PayLoadWeight</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CanSat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガチャサット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>缶サット</t>
+    <rPh sb="0" eb="1">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>缶サットローバー</t>
+    <rPh sb="0" eb="1">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高性能センサ付き缶サット</t>
+    <rPh sb="0" eb="3">
+      <t>コウセイノウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キューブサット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひまわり</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2912,8 +3023,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145542E-2"/>
-          <c:w val="0.69775377355809221"/>
+          <c:y val="4.2141294838145556E-2"/>
+          <c:w val="0.69775377355809243"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -3417,8 +3528,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="232763776"/>
-        <c:axId val="232765312"/>
+        <c:axId val="229282176"/>
+        <c:axId val="229283712"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -3671,22 +3782,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="232772736"/>
-        <c:axId val="232766848"/>
+        <c:axId val="229287040"/>
+        <c:axId val="229285248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="232763776"/>
+        <c:axId val="229282176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232765312"/>
+        <c:crossAx val="229283712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="232765312"/>
+        <c:axId val="229283712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3694,43 +3805,44 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232763776"/>
+        <c:crossAx val="229282176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="232766848"/>
+        <c:axId val="229285248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232772736"/>
+        <c:crossAx val="229287040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="232772736"/>
+        <c:axId val="229287040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="232766848"/>
+        <c:crossAx val="229285248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4525,7 +4637,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4731,7 +4845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -4979,7 +5093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K14" sqref="K14"/>
     </sheetView>
@@ -5979,6 +6093,238 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="7" width="16.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>500</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="81">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="67.5">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A11" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="360">
   <si>
     <t>フォルダー名</t>
     <rPh sb="5" eb="6">
@@ -2805,10 +2805,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PayLoadWeight</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CanSat</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2853,6 +2849,197 @@
   </si>
   <si>
     <t>ひまわり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GachaSat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CanSatS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rover</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CubeSat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Himawari</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガチャガチャのケースを利用した超小型ペイロード</t>
+    <rPh sb="11" eb="13">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>チョウコガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直径:65mm /n質量:300g /nスラスタ無し</t>
+    <rPh sb="0" eb="2">
+      <t>チョッケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シツリョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直径65mm /n高さ:122.2mm /n質量:120ｇ /nスラスタ推力:0.5N /n噴射時間:3秒</t>
+    <rPh sb="0" eb="2">
+      <t>チョッケイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シツリョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="46" eb="50">
+      <t>フンシャジカン</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SideThrustForce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SideThrustTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直径65mm /n高さ:122.2mm /n質量:200ｇ /nスラスタ推力:1N /n噴射時間:5秒</t>
+    <rPh sb="0" eb="2">
+      <t>チョッケイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シツリョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="44" eb="48">
+      <t>フンシャジカン</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直径65mm /n高さ:122.2mm /n質量:300ｇ /nスラスタ推力:2N /n噴射時間:10秒</t>
+    <rPh sb="0" eb="2">
+      <t>チョッケイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シツリョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="44" eb="48">
+      <t>フンシャジカン</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直径65mm /n高さ:160mm /n質量:800ｇ /nスラスタ推力:4N /n噴射時間:15秒</t>
+    <rPh sb="0" eb="2">
+      <t>チョッケイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シツリョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="42" eb="46">
+      <t>フンシャジカン</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直径65mm /n高さ:65mm /n質量:1200ｇ /nスラスタ推力:5N /n噴射時間:15秒</t>
+    <rPh sb="0" eb="2">
+      <t>チョッケイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シツリョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="42" eb="46">
+      <t>フンシャジカン</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直径120mm /n高さ:120mm /n質量:1600ｇ /nスラスタ推力:10N /n噴射時間:20秒</t>
+    <rPh sb="0" eb="2">
+      <t>チョッケイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シツリョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="45" eb="49">
+      <t>フンシャジカン</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3023,8 +3210,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145556E-2"/>
-          <c:w val="0.69775377355809243"/>
+          <c:y val="4.2141294838145577E-2"/>
+          <c:w val="0.69775377355809265"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -3528,8 +3715,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="229282176"/>
-        <c:axId val="229283712"/>
+        <c:axId val="223326976"/>
+        <c:axId val="223328512"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -3782,22 +3969,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="229287040"/>
-        <c:axId val="229285248"/>
+        <c:axId val="223344128"/>
+        <c:axId val="223342592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="229282176"/>
+        <c:axId val="223326976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229283712"/>
+        <c:crossAx val="223328512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229283712"/>
+        <c:axId val="223328512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3805,44 +3992,43 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229282176"/>
+        <c:crossAx val="223326976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229285248"/>
+        <c:axId val="223342592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229287040"/>
+        <c:crossAx val="223344128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229287040"/>
+        <c:axId val="223344128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="229285248"/>
+        <c:crossAx val="223342592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6097,7 +6283,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L13" sqref="L13"/>
+      <selection pane="topRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6156,6 +6342,30 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
@@ -6165,28 +6375,28 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E6" s="1">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="F6" s="1">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G6" s="1">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="H6" s="1">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="I6" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="J6" s="1">
-        <v>6000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="38.25" customHeight="1">
@@ -6197,25 +6407,25 @@
         <v>332</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>205</v>
@@ -6228,6 +6438,27 @@
       <c r="B8" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>358</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>215</v>
       </c>
@@ -6239,6 +6470,9 @@
       <c r="B9" s="1" t="s">
         <v>333</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>262</v>
       </c>
@@ -6284,22 +6518,87 @@
       <c r="A12" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
+      <c r="B12" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
       </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
       <c r="D13" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="3:10">

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -3210,8 +3210,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145577E-2"/>
-          <c:w val="0.69775377355809265"/>
+          <c:y val="4.214129483814559E-2"/>
+          <c:w val="0.69775377355809276"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -3715,8 +3715,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="223326976"/>
-        <c:axId val="223328512"/>
+        <c:axId val="227136256"/>
+        <c:axId val="227137792"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -3969,22 +3969,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="223344128"/>
-        <c:axId val="223342592"/>
+        <c:axId val="227149312"/>
+        <c:axId val="227147776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="223326976"/>
+        <c:axId val="227136256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223328512"/>
+        <c:crossAx val="227137792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="223328512"/>
+        <c:axId val="227137792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3992,31 +3992,31 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223326976"/>
+        <c:crossAx val="227136256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="223342592"/>
+        <c:axId val="227147776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223344128"/>
+        <c:crossAx val="227149312"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="223344128"/>
+        <c:axId val="227149312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="223342592"/>
+        <c:crossAx val="227147776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4028,7 +4028,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="360">
   <si>
     <t>フォルダー名</t>
     <rPh sb="5" eb="6">
@@ -2775,9 +2775,6 @@
     <t>CanSat7</t>
   </si>
   <si>
-    <t>CanSat8</t>
-  </si>
-  <si>
     <t>ペイロード無し</t>
     <rPh sb="5" eb="6">
       <t>ナ</t>
@@ -2824,42 +2821,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>缶サットローバー</t>
-    <rPh sb="0" eb="1">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>高性能センサ付き缶サット</t>
-    <rPh sb="0" eb="3">
-      <t>コウセイノウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>キューブサット</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ひまわり</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GachaSat</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HTV</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CanSatS</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2873,16 +2842,6 @@
   </si>
   <si>
     <t>Himawari</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ガチャガチャのケースを利用した超小型ペイロード</t>
-    <rPh sb="11" eb="13">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>チョウコガタ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2899,147 +2858,204 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>直径65mm /n高さ:122.2mm /n質量:120ｇ /nスラスタ推力:0.5N /n噴射時間:3秒</t>
+    <t>SideThrustForce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SideThrustTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>萌衛星</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>エイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ThrustForceが２以上でアポジモーター付き</t>
+    <rPh sb="13" eb="15">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回転防止制御付き</t>
+    <rPh sb="0" eb="4">
+      <t>カイテンボウシ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>セイギョツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高性能缶サット</t>
+    <rPh sb="0" eb="3">
+      <t>コウセイノウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直径:65mm /n高さ:122.2mm /n質量:120ｇ /nサイドスラスタ /nスラスタ推力:0.5N /n噴射時間:3秒</t>
     <rPh sb="0" eb="2">
       <t>チョッケイ</t>
     </rPh>
-    <rPh sb="9" eb="10">
+    <rPh sb="10" eb="11">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シツリョウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="57" eb="61">
+      <t>フンシャジカン</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直径:65mm /n高さ:122.2mm /n質量:200ｇ /nサイドスラスタ /nスラスタ推力:1N /n噴射時間:5秒</t>
+    <rPh sb="0" eb="2">
+      <t>チョッケイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シツリョウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="55" eb="59">
+      <t>フンシャジカン</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直径:65mm /n高さ:122.2mm /n質量:300ｇ /nサイドスラスタ /nアポジーキックモータ /nスラスタ推力:2N /n噴射時間:10秒</t>
+    <rPh sb="0" eb="2">
+      <t>チョッケイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シツリョウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="68" eb="72">
+      <t>フンシャジカン</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直径:65mm /n高さ:160mm /n質量:800ｇ /nサイドスラスタ /nアポジーキックモータ /nスラスタ推力:4N /n噴射時間:15秒</t>
+    <rPh sb="0" eb="2">
+      <t>チョッケイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シツリョウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="66" eb="70">
+      <t>フンシャジカン</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直径:65mm /n高さ:65mm /n質量:1200ｇ /nサイドスラスタ /nアポジーキックモータ /nスラスタ推力:5N /n噴射時間:15秒</t>
+    <rPh sb="0" eb="2">
+      <t>チョッケイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シツリョウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="66" eb="70">
+      <t>フンシャジカン</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直径:120mm /n高さ:120mm /n質量:1600ｇ /nサイドスラスタ /nアポジーキックモータ /nスラスタ推力:10N /n噴射時間:20秒</t>
+    <rPh sb="0" eb="2">
+      <t>チョッケイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
       <t>タカ</t>
     </rPh>
     <rPh sb="22" eb="24">
       <t>シツリョウ</t>
     </rPh>
-    <rPh sb="36" eb="38">
+    <rPh sb="60" eb="62">
       <t>スイリョク</t>
     </rPh>
-    <rPh sb="46" eb="50">
+    <rPh sb="69" eb="73">
       <t>フンシャジカン</t>
     </rPh>
-    <rPh sb="52" eb="53">
+    <rPh sb="76" eb="77">
       <t>ビョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SideThrustForce</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SideThrustTime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>直径65mm /n高さ:122.2mm /n質量:200ｇ /nスラスタ推力:1N /n噴射時間:5秒</t>
-    <rPh sb="0" eb="2">
-      <t>チョッケイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シツリョウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>スイリョク</t>
-    </rPh>
-    <rPh sb="44" eb="48">
-      <t>フンシャジカン</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>直径65mm /n高さ:122.2mm /n質量:300ｇ /nスラスタ推力:2N /n噴射時間:10秒</t>
-    <rPh sb="0" eb="2">
-      <t>チョッケイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シツリョウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>スイリョク</t>
-    </rPh>
-    <rPh sb="44" eb="48">
-      <t>フンシャジカン</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>直径65mm /n高さ:160mm /n質量:800ｇ /nスラスタ推力:4N /n噴射時間:15秒</t>
-    <rPh sb="0" eb="2">
-      <t>チョッケイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シツリョウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>スイリョク</t>
-    </rPh>
-    <rPh sb="42" eb="46">
-      <t>フンシャジカン</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>直径65mm /n高さ:65mm /n質量:1200ｇ /nスラスタ推力:5N /n噴射時間:15秒</t>
-    <rPh sb="0" eb="2">
-      <t>チョッケイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シツリョウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>スイリョク</t>
-    </rPh>
-    <rPh sb="42" eb="46">
-      <t>フンシャジカン</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>直径120mm /n高さ:120mm /n質量:1600ｇ /nスラスタ推力:10N /n噴射時間:20秒</t>
-    <rPh sb="0" eb="2">
-      <t>チョッケイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シツリョウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>スイリョク</t>
-    </rPh>
-    <rPh sb="45" eb="49">
-      <t>フンシャジカン</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
+    <t>ガチャガチャのケースを利用した超小型ペイロード。ただゆっくりと落ちるだけ。</t>
+    <rPh sb="11" eb="13">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>チョウコガタ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3210,8 +3226,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.214129483814559E-2"/>
-          <c:w val="0.69775377355809276"/>
+          <c:y val="4.2141294838145604E-2"/>
+          <c:w val="0.69775377355809298"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -3715,8 +3731,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="227136256"/>
-        <c:axId val="227137792"/>
+        <c:axId val="230224640"/>
+        <c:axId val="230226176"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -3969,22 +3985,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="227149312"/>
-        <c:axId val="227147776"/>
+        <c:axId val="230241792"/>
+        <c:axId val="230240256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="227136256"/>
+        <c:axId val="230224640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227137792"/>
+        <c:crossAx val="230226176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="227137792"/>
+        <c:axId val="230226176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3992,31 +4008,31 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227136256"/>
+        <c:crossAx val="230224640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="227147776"/>
+        <c:axId val="230240256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227149312"/>
+        <c:crossAx val="230241792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="227149312"/>
+        <c:axId val="230241792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="227147776"/>
+        <c:crossAx val="230240256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4028,7 +4044,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6279,11 +6295,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I14" sqref="I14"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6294,11 +6310,10 @@
     <col min="4" max="7" width="16.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6306,7 +6321,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -6334,11 +6349,8 @@
       <c r="I4" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -6367,7 +6379,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -6393,45 +6405,39 @@
         <v>40000</v>
       </c>
       <c r="I6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J6" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="38.25" customHeight="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="38.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="81">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="94.5">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -6439,10 +6445,10 @@
         <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>354</v>
@@ -6459,25 +6465,19 @@
       <c r="I8" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="67.5">
+    </row>
+    <row r="9" spans="1:9" ht="67.5">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.25" thickBot="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -6485,67 +6485,64 @@
         <v>121</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>186</v>
+        <v>339</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>186</v>
+        <v>334</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>186</v>
+        <v>340</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>200</v>
+        <v>337</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>195</v>
+        <v>341</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>195</v>
+        <v>342</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.25" thickBot="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -6572,9 +6569,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -6601,17 +6598,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="3:10">
+    <row r="18" spans="3:9" ht="40.5">
+      <c r="F18" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
-      <c r="F19"/>
+      <c r="F19" t="s">
+        <v>350</v>
+      </c>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
-      <c r="J19"/>
-    </row>
-    <row r="20" spans="3:10">
+    </row>
+    <row r="20" spans="3:9">
       <c r="D20"/>
       <c r="E20"/>
     </row>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="363">
   <si>
     <t>フォルダー名</t>
     <rPh sb="5" eb="6">
@@ -3055,6 +3055,63 @@
     </rPh>
     <rPh sb="31" eb="32">
       <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みんなだいすき缶サット。なぜかサイドスラスターが付いていて、噴射出来るぞ。</t>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>フンシャ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高性能版の缶サット。サイドスラスターも強力になっている。</t>
+    <rPh sb="0" eb="4">
+      <t>コウセイノウバン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キョウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JAXAが誇るISSへの補給機。アポジキックモーターと安定機構が付いていて、大空を自由自在に動ける。</t>
+    <rPh sb="5" eb="6">
+      <t>ホコ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ホキュウキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>アンテイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キコウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>オオゾラ</t>
+    </rPh>
+    <rPh sb="41" eb="45">
+      <t>ジユウジザイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ウゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3226,8 +3283,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145604E-2"/>
-          <c:w val="0.69775377355809298"/>
+          <c:y val="4.2141294838145618E-2"/>
+          <c:w val="0.6977537735580932"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -3731,8 +3788,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="230224640"/>
-        <c:axId val="230226176"/>
+        <c:axId val="224649984"/>
+        <c:axId val="224651520"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -3985,22 +4042,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="230241792"/>
-        <c:axId val="230240256"/>
+        <c:axId val="224667136"/>
+        <c:axId val="224665600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230224640"/>
+        <c:axId val="224649984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230226176"/>
+        <c:crossAx val="224651520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230226176"/>
+        <c:axId val="224651520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4008,31 +4065,31 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230224640"/>
+        <c:crossAx val="224649984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230240256"/>
+        <c:axId val="224665600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230241792"/>
+        <c:crossAx val="224667136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230241792"/>
+        <c:axId val="224667136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="230240256"/>
+        <c:crossAx val="224665600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4044,7 +4101,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6299,7 +6356,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6466,7 +6523,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="67.5">
+    <row r="9" spans="1:9" ht="81">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -6475,6 +6532,15 @@
       </c>
       <c r="C9" s="1" t="s">
         <v>359</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1">

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="365">
   <si>
     <t>フォルダー名</t>
     <rPh sb="5" eb="6">
@@ -2798,10 +2798,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PayLoadName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CanSat</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2862,14 +2858,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SideThrustTime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>萌衛星</t>
     <rPh sb="0" eb="1">
       <t>モ</t>
@@ -2880,16 +2868,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ThrustForceが２以上でアポジモーター付き</t>
-    <rPh sb="13" eb="15">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>回転防止制御付き</t>
     <rPh sb="0" eb="4">
       <t>カイテンボウシ</t>
@@ -3113,6 +3091,87 @@
     <rPh sb="46" eb="47">
       <t>ウゴ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロケットのペイロードといえばコレ。動き方が本当のローバーと違うけど、そんなこと気にしちゃいけないぞ。</t>
+    <rPh sb="17" eb="18">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立方体の中に必要な機能を詰め込んだ小型衛星。すべての性能が向上している。</t>
+    <rPh sb="0" eb="3">
+      <t>リッポウタイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>コガタエイセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セイノウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>萌え～。ひまわり8号9号のつもりです。</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SideThrustTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ThrustForceが1以上でアポジモーター付き</t>
+    <rPh sb="13" eb="15">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RoteteFix</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4096,6 +4155,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -6352,11 +6412,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F10" sqref="F10"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6473,25 +6533,25 @@
         <v>331</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="94.5">
@@ -6502,25 +6562,25 @@
         <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="81">
@@ -6531,16 +6591,25 @@
         <v>332</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1">
@@ -6551,25 +6620,25 @@
         <v>121</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1">
@@ -6578,37 +6647,37 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>343</v>
+      <c r="A12" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>6</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -6617,27 +6686,27 @@
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F13" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G13" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H13" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I13" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -6646,43 +6715,43 @@
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" ht="40.5">
-      <c r="F18" s="1" t="s">
-        <v>349</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="40.5">
+      <c r="E17" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18" t="s">
+        <v>346</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
     </row>
     <row r="19" spans="3:9">
-      <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
-      <c r="F19" t="s">
-        <v>350</v>
-      </c>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-    </row>
-    <row r="20" spans="3:9">
-      <c r="D20"/>
-      <c r="E20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -3144,19 +3144,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>萌え～。ひまわり8号9号のつもりです。</t>
-    <rPh sb="0" eb="1">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ゴウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SideThrustTime</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3172,6 +3159,13 @@
   </si>
   <si>
     <t>RoteteFix</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>萌えさてらいと。</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3342,8 +3336,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145618E-2"/>
-          <c:w val="0.6977537735580932"/>
+          <c:y val="4.2141294838145639E-2"/>
+          <c:w val="0.69775377355809343"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -3847,8 +3841,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="224649984"/>
-        <c:axId val="224651520"/>
+        <c:axId val="232026880"/>
+        <c:axId val="232028416"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -4101,22 +4095,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="224667136"/>
-        <c:axId val="224665600"/>
+        <c:axId val="232039936"/>
+        <c:axId val="232038400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="224649984"/>
+        <c:axId val="232026880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224651520"/>
+        <c:crossAx val="232028416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="224651520"/>
+        <c:axId val="232028416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4124,44 +4118,43 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224649984"/>
+        <c:crossAx val="232026880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="224665600"/>
+        <c:axId val="232038400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224667136"/>
+        <c:crossAx val="232039936"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="224667136"/>
+        <c:axId val="232039936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="224665600"/>
+        <c:crossAx val="232038400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6416,7 +6409,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6609,7 +6602,7 @@
         <v>360</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1">
@@ -6677,7 +6670,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -6706,7 +6699,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -6735,7 +6728,7 @@
     </row>
     <row r="17" spans="3:9" ht="40.5">
       <c r="E17" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="3:9">

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -3336,8 +3336,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145639E-2"/>
-          <c:w val="0.69775377355809343"/>
+          <c:y val="4.2141294838145653E-2"/>
+          <c:w val="0.69775377355809365"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -3841,8 +3841,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="232026880"/>
-        <c:axId val="232028416"/>
+        <c:axId val="89195264"/>
+        <c:axId val="89196800"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -4095,22 +4095,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="232039936"/>
-        <c:axId val="232038400"/>
+        <c:axId val="89212416"/>
+        <c:axId val="89210880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="232026880"/>
+        <c:axId val="89195264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232028416"/>
+        <c:crossAx val="89196800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="232028416"/>
+        <c:axId val="89196800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4118,31 +4118,31 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232026880"/>
+        <c:crossAx val="89195264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="232038400"/>
+        <c:axId val="89210880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232039936"/>
+        <c:crossAx val="89212416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="232039936"/>
+        <c:axId val="89212416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="232038400"/>
+        <c:crossAx val="89210880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4154,7 +4154,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="358">
   <si>
     <t>フォルダー名</t>
     <rPh sb="5" eb="6">
@@ -2754,27 +2754,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CanSat1</t>
-  </si>
-  <si>
-    <t>CanSat2</t>
-  </si>
-  <si>
-    <t>CanSat3</t>
-  </si>
-  <si>
-    <t>CanSat4</t>
-  </si>
-  <si>
-    <t>CanSat5</t>
-  </si>
-  <si>
-    <t>CanSat6</t>
-  </si>
-  <si>
-    <t>CanSat7</t>
-  </si>
-  <si>
     <t>ペイロード無し</t>
     <rPh sb="5" eb="6">
       <t>ナ</t>
@@ -2854,10 +2833,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SideThrustForce</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>萌衛星</t>
     <rPh sb="0" eb="1">
       <t>モ</t>
@@ -3158,14 +3133,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RoteteFix</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>萌えさてらいと。</t>
     <rPh sb="0" eb="1">
       <t>モ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SideThrustForce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RoteteFix</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3336,8 +3315,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145653E-2"/>
-          <c:w val="0.69775377355809365"/>
+          <c:y val="4.2141294838145674E-2"/>
+          <c:w val="0.69775377355809376"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -3841,8 +3820,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="89195264"/>
-        <c:axId val="89196800"/>
+        <c:axId val="254382848"/>
+        <c:axId val="254384384"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -4095,22 +4074,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="89212416"/>
-        <c:axId val="89210880"/>
+        <c:axId val="254400000"/>
+        <c:axId val="254398464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89195264"/>
+        <c:axId val="254382848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89196800"/>
+        <c:crossAx val="254384384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89196800"/>
+        <c:axId val="254384384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4118,31 +4097,31 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89195264"/>
+        <c:crossAx val="254382848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89210880"/>
+        <c:axId val="254398464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89212416"/>
+        <c:crossAx val="254400000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89212416"/>
+        <c:axId val="254400000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="89210880"/>
+        <c:crossAx val="254398464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4154,7 +4133,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6409,7 +6388,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I9" sqref="I9"/>
+      <selection pane="topRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6439,25 +6418,25 @@
         <v>323</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6523,28 +6502,28 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="94.5">
@@ -6555,25 +6534,25 @@
         <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="81">
@@ -6581,28 +6560,28 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1">
@@ -6613,25 +6592,25 @@
         <v>121</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1">
@@ -6641,7 +6620,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -6670,7 +6649,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -6699,7 +6678,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -6728,7 +6707,7 @@
     </row>
     <row r="17" spans="3:9" ht="40.5">
       <c r="E17" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="3:9">
@@ -6736,7 +6715,7 @@
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20850" windowHeight="13515" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20850" windowHeight="13515" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="NoseCorn" sheetId="4" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="Pump" sheetId="6" r:id="rId4"/>
     <sheet name="SRBA" sheetId="7" r:id="rId5"/>
     <sheet name="CanSat" sheetId="9" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
+    <sheet name="MultiStage" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="373">
   <si>
     <t>フォルダー名</t>
     <rPh sb="5" eb="6">
@@ -3145,6 +3146,139 @@
   </si>
   <si>
     <t>RoteteFix</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SRBAFoloder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MultiStageFolder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MultiStage2</t>
+  </si>
+  <si>
+    <t>MultiStage3</t>
+  </si>
+  <si>
+    <t>MultiStage1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2段</t>
+    <rPh sb="1" eb="2">
+      <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3段</t>
+    <rPh sb="1" eb="2">
+      <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1段</t>
+    <rPh sb="1" eb="2">
+      <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロケット段数:1段</t>
+    <rPh sb="4" eb="6">
+      <t>ダンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロケット段数:2段</t>
+    <rPh sb="4" eb="6">
+      <t>ダンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロケット段数:3段</t>
+    <rPh sb="4" eb="6">
+      <t>ダンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通の水ロケット</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脅威の3段噴射。/n普通のロケットの3倍飛ぶよ。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フンシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一回水が無くなってももう一回噴射できる。/n普通のロケットの2倍飛ぶ。</t>
+    <rPh sb="0" eb="2">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フンシャ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Multistage</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3315,8 +3449,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145674E-2"/>
-          <c:w val="0.69775377355809376"/>
+          <c:y val="4.2141294838145694E-2"/>
+          <c:w val="0.69775377355809398"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -3820,8 +3954,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="254382848"/>
-        <c:axId val="254384384"/>
+        <c:axId val="117619328"/>
+        <c:axId val="117625216"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -4074,22 +4208,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="254400000"/>
-        <c:axId val="254398464"/>
+        <c:axId val="117628288"/>
+        <c:axId val="117626752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="254382848"/>
+        <c:axId val="117619328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254384384"/>
+        <c:crossAx val="117625216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="254384384"/>
+        <c:axId val="117625216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4097,43 +4231,44 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254382848"/>
+        <c:crossAx val="117619328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="254398464"/>
+        <c:axId val="117626752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254400000"/>
+        <c:crossAx val="117628288"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="254400000"/>
+        <c:axId val="117628288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="254398464"/>
+        <c:crossAx val="117626752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5386,7 +5521,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K14" sqref="K14"/>
+      <selection pane="topRight" activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5414,6 +5549,9 @@
       <c r="B1" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="1" t="s">
@@ -6386,9 +6524,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H17" sqref="H17"/>
+      <selection pane="topRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6733,6 +6871,142 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="20.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="38.25" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="40.5">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A11" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:N49"/>
   <sheetViews>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20850" windowHeight="13515" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20850" windowHeight="13515" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="NoseCorn" sheetId="4" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="CanSat" sheetId="9" r:id="rId6"/>
     <sheet name="MultiStage" sheetId="10" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
+    <sheet name="googleplay" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="396">
   <si>
     <t>フォルダー名</t>
     <rPh sb="5" eb="6">
@@ -3280,6 +3281,112 @@
   <si>
     <t>Multistage</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>翔べ水ロケット</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>簡単な説明</t>
+  </si>
+  <si>
+    <t>80文字</t>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30文字</t>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4000文字</t>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳しい説明</t>
+    <rPh sb="0" eb="1">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンショット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7インチ用</t>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10インチ用</t>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高解像度アイコン </t>
+  </si>
+  <si>
+    <t>512 x 512</t>
+  </si>
+  <si>
+    <t>32 ビット PNG</t>
+  </si>
+  <si>
+    <t>テキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダー画像 </t>
+  </si>
+  <si>
+    <t>横 1,024 x 縦 500</t>
+  </si>
+  <si>
+    <t>JPG または 24 ビット PNG（アルファなし）</t>
+  </si>
+  <si>
+    <t>プロモーション画像</t>
+  </si>
+  <si>
+    <t>横 180 x 縦 120</t>
+  </si>
+  <si>
+    <t>JPG または 24 ビット PNG（アルファなし）</t>
+  </si>
+  <si>
+    <t>プロモーション動画</t>
+  </si>
+  <si>
+    <t>YouTube 動画</t>
+  </si>
+  <si>
+    <t>URL を入力してください</t>
   </si>
 </sst>
 </file>
@@ -3449,8 +3556,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145694E-2"/>
-          <c:w val="0.69775377355809398"/>
+          <c:y val="4.2141294838145708E-2"/>
+          <c:w val="0.6977537735580942"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -3954,8 +4061,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="117619328"/>
-        <c:axId val="117625216"/>
+        <c:axId val="240090112"/>
+        <c:axId val="240104192"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -4208,22 +4315,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="117628288"/>
-        <c:axId val="117626752"/>
+        <c:axId val="240107520"/>
+        <c:axId val="240105728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="117619328"/>
+        <c:axId val="240090112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117625216"/>
+        <c:crossAx val="240104192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="117625216"/>
+        <c:axId val="240104192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4231,31 +4338,31 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117619328"/>
+        <c:crossAx val="240090112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="117626752"/>
+        <c:axId val="240105728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117628288"/>
+        <c:crossAx val="240107520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="117628288"/>
+        <c:axId val="240107520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="117626752"/>
+        <c:crossAx val="240105728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4268,7 +4375,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6874,7 +6981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
@@ -8343,4 +8450,129 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="55.5" customHeight="1">
+      <c r="A3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B10" t="s">
+        <v>394</v>
+      </c>
+      <c r="C10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="398">
   <si>
     <t>フォルダー名</t>
     <rPh sb="5" eb="6">
@@ -3387,6 +3387,18 @@
   </si>
   <si>
     <t>URL を入力してください</t>
+  </si>
+  <si>
+    <t>&gt; http://www14.big.or.jp/~amiami/happy/へリンクをはり、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+なお、音声はこちらの声の素材を使用しました　あみたろの声素材工房　http://www14.big.or.jp/~amiami/happy/</t>
+    <rPh sb="7" eb="9">
+      <t>オンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -3399,7 +3411,7 @@
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3421,6 +3433,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="�ͣ� �Х����å�"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3487,7 +3506,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3536,6 +3555,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3556,8 +3581,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145708E-2"/>
-          <c:w val="0.6977537735580942"/>
+          <c:y val="4.2141294838145729E-2"/>
+          <c:w val="0.69775377355809443"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -4061,8 +4086,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="240090112"/>
-        <c:axId val="240104192"/>
+        <c:axId val="233145856"/>
+        <c:axId val="233147392"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -4315,22 +4340,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="240107520"/>
-        <c:axId val="240105728"/>
+        <c:axId val="233163008"/>
+        <c:axId val="233161472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240090112"/>
+        <c:axId val="233145856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="240104192"/>
+        <c:crossAx val="233147392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240104192"/>
+        <c:axId val="233147392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4338,44 +4363,43 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="240090112"/>
+        <c:crossAx val="233145856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240105728"/>
+        <c:axId val="233161472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="240107520"/>
+        <c:crossAx val="233163008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240107520"/>
+        <c:axId val="233163008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="240105728"/>
+        <c:crossAx val="233161472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8457,7 +8481,7 @@
   <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8515,7 +8539,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="117" customHeight="1">
       <c r="A6" t="s">
         <v>380</v>
       </c>
@@ -8524,6 +8548,9 @@
       </c>
       <c r="C6" t="s">
         <v>386</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8535,6 +8562,9 @@
       </c>
       <c r="C7" t="s">
         <v>385</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:4">

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20850" windowHeight="13515" activeTab="8"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20850" windowHeight="13515" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="NoseCorn" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="406">
   <si>
     <t>フォルダー名</t>
     <rPh sb="5" eb="6">
@@ -3397,6 +3397,93 @@
 なお、音声はこちらの声の素材を使用しました　あみたろの声素材工房　http://www14.big.or.jp/~amiami/happy/</t>
     <rPh sb="7" eb="9">
       <t>オンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4段</t>
+    <rPh sb="1" eb="2">
+      <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5段</t>
+    <rPh sb="1" eb="2">
+      <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MultiStage4</t>
+  </si>
+  <si>
+    <t>MultiStage5</t>
+  </si>
+  <si>
+    <t>ロケット段数:4段</t>
+    <rPh sb="4" eb="6">
+      <t>ダンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロケット段数:5段</t>
+    <rPh sb="4" eb="6">
+      <t>ダンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まさかの4段噴射。/n普通のロケットの4倍飛ぶ！</t>
+    <rPh sb="5" eb="6">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フンシャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奇跡の5段噴射。/n普通のロケットの5倍飛ぶ。/n水はどこから補充されるのか？</t>
+    <rPh sb="0" eb="2">
+      <t>キセキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フンシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ホジュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3581,8 +3668,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145729E-2"/>
-          <c:w val="0.69775377355809443"/>
+          <c:y val="4.2141294838145743E-2"/>
+          <c:w val="0.69775377355809465"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -4086,8 +4173,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="233145856"/>
-        <c:axId val="233147392"/>
+        <c:axId val="82093568"/>
+        <c:axId val="82095104"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -4340,22 +4427,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="233163008"/>
-        <c:axId val="233161472"/>
+        <c:axId val="82110720"/>
+        <c:axId val="82109184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="233145856"/>
+        <c:axId val="82093568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233147392"/>
+        <c:crossAx val="82095104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="233147392"/>
+        <c:axId val="82095104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4363,31 +4450,31 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233145856"/>
+        <c:crossAx val="82093568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="233161472"/>
+        <c:axId val="82109184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233163008"/>
+        <c:crossAx val="82110720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="233163008"/>
+        <c:axId val="82110720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="233161472"/>
+        <c:crossAx val="82109184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4399,7 +4486,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7003,11 +7090,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <selection pane="topRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7017,7 +7104,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7025,7 +7112,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -7038,13 +7125,19 @@
       <c r="D4" s="1" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -7052,13 +7145,19 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="38.25" customHeight="1">
+        <v>300</v>
+      </c>
+      <c r="E6" s="1">
+        <v>500</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="38.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -7071,8 +7170,14 @@
       <c r="D7" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -7085,8 +7190,14 @@
       <c r="D8" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="40.5">
+      <c r="E8" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="54">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -7099,18 +7210,24 @@
       <c r="D9" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.25" thickBot="1">
+      <c r="E9" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.25" thickBot="1">
+    <row r="11" spans="1:6" ht="14.25" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>372</v>
       </c>
@@ -7122,6 +7239,12 @@
       </c>
       <c r="D12" s="1">
         <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -8480,7 +8603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -7094,7 +7094,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F6" sqref="F6"/>
+      <selection pane="topRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -3164,10 +3164,6 @@
     <t>MultiStage3</t>
   </si>
   <si>
-    <t>MultiStage1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2段</t>
     <rPh sb="1" eb="2">
       <t>ダン</t>
@@ -3418,9 +3414,6 @@
     <t>MultiStage4</t>
   </si>
   <si>
-    <t>MultiStage5</t>
-  </si>
-  <si>
     <t>ロケット段数:4段</t>
     <rPh sb="4" eb="6">
       <t>ダンスウ</t>
@@ -3486,6 +3479,13 @@
       <t>ホジュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MultiStage0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MultiStage1</t>
   </si>
 </sst>
 </file>
@@ -3668,8 +3668,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145743E-2"/>
-          <c:w val="0.69775377355809465"/>
+          <c:y val="4.2141294838145764E-2"/>
+          <c:w val="0.69775377355809476"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -4173,8 +4173,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="82093568"/>
-        <c:axId val="82095104"/>
+        <c:axId val="236176896"/>
+        <c:axId val="236178432"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -4427,22 +4427,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="82110720"/>
-        <c:axId val="82109184"/>
+        <c:axId val="235997440"/>
+        <c:axId val="235995904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82093568"/>
+        <c:axId val="236176896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82095104"/>
+        <c:crossAx val="236178432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82095104"/>
+        <c:axId val="236178432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4450,31 +4450,31 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82093568"/>
+        <c:crossAx val="236176896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82109184"/>
+        <c:axId val="235995904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82110720"/>
+        <c:crossAx val="235997440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82110720"/>
+        <c:axId val="235997440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="82109184"/>
+        <c:crossAx val="235995904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4486,7 +4486,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7094,7 +7094,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F9" sqref="F9"/>
+      <selection pane="topRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7117,19 +7117,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7162,19 +7162,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="E7" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7182,19 +7182,19 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="54">
@@ -7202,19 +7202,19 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" thickBot="1">
@@ -7229,7 +7229,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -8617,110 +8617,110 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D2" t="s">
         <v>373</v>
-      </c>
-      <c r="B2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D2" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="55.5" customHeight="1">
       <c r="A3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" t="s">
         <v>375</v>
       </c>
-      <c r="B3" t="s">
-        <v>376</v>
-      </c>
       <c r="C3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B5" t="s">
         <v>380</v>
       </c>
-      <c r="B5" t="s">
-        <v>381</v>
-      </c>
       <c r="C5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="117" customHeight="1">
       <c r="A6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B7" t="s">
         <v>383</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>384</v>
       </c>
-      <c r="C7" t="s">
-        <v>385</v>
-      </c>
       <c r="D7" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B8" t="s">
         <v>387</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>388</v>
-      </c>
-      <c r="C8" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B9" t="s">
         <v>390</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>391</v>
-      </c>
-      <c r="C9" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B10" t="s">
         <v>393</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>394</v>
-      </c>
-      <c r="C10" t="s">
-        <v>395</v>
       </c>
     </row>
   </sheetData>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -3668,8 +3668,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145764E-2"/>
-          <c:w val="0.69775377355809476"/>
+          <c:y val="4.2141294838145778E-2"/>
+          <c:w val="0.69775377355809498"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -4173,8 +4173,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="236176896"/>
-        <c:axId val="236178432"/>
+        <c:axId val="78730752"/>
+        <c:axId val="78732288"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -4427,22 +4427,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="235997440"/>
-        <c:axId val="235995904"/>
+        <c:axId val="78743808"/>
+        <c:axId val="78742272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="236176896"/>
+        <c:axId val="78730752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236178432"/>
+        <c:crossAx val="78732288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="236178432"/>
+        <c:axId val="78732288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4450,43 +4450,44 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236176896"/>
+        <c:crossAx val="78730752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235995904"/>
+        <c:axId val="78742272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235997440"/>
+        <c:crossAx val="78743808"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235997440"/>
+        <c:axId val="78743808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="235995904"/>
+        <c:crossAx val="78742272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4814,7 +4815,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4879,16 +4882,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>300</v>
+      </c>
+      <c r="F6" s="1">
         <v>1000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F6" s="1">
-        <v>5000</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="38.25" customHeight="1">
@@ -5005,7 +5008,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -5083,22 +5088,22 @@
         <v>50</v>
       </c>
       <c r="C6" s="1">
+        <v>200</v>
+      </c>
+      <c r="D6" s="1">
         <v>500</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G6" s="1">
         <v>5000</v>
       </c>
-      <c r="E6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
         <v>20000</v>
-      </c>
-      <c r="G6" s="1">
-        <v>50000</v>
-      </c>
-      <c r="H6" s="1">
-        <v>100000</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="38.25" customHeight="1">
@@ -5282,7 +5287,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5351,13 +5356,13 @@
         <v>50</v>
       </c>
       <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
         <v>200</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>500</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1200</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="38.25" customHeight="1">
@@ -5490,7 +5495,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5566,16 +5571,16 @@
         <v>50</v>
       </c>
       <c r="D6" s="1">
+        <v>200</v>
+      </c>
+      <c r="E6" s="1">
         <v>500</v>
       </c>
-      <c r="E6" s="1">
-        <v>2000</v>
-      </c>
       <c r="F6" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G6" s="1">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="38.25" customHeight="1">
@@ -5738,8 +5743,8 @@
   <dimension ref="A1:AB20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V2" sqref="V2"/>
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5870,82 +5875,82 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D6" s="1">
+        <v>400</v>
+      </c>
+      <c r="E6" s="1">
+        <v>600</v>
+      </c>
+      <c r="F6" s="1">
+        <v>800</v>
+      </c>
+      <c r="G6" s="1">
         <v>1000</v>
       </c>
-      <c r="E6" s="1">
-        <v>1500</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
+        <v>1200</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1800</v>
+      </c>
+      <c r="J6" s="1">
         <v>2000</v>
       </c>
-      <c r="G6" s="1">
+      <c r="K6" s="1">
+        <v>2200</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2500</v>
+      </c>
+      <c r="M6" s="1">
         <v>3000</v>
       </c>
-      <c r="H6" s="1">
+      <c r="N6" s="1">
+        <v>3500</v>
+      </c>
+      <c r="O6" s="1">
         <v>4000</v>
       </c>
-      <c r="I6" s="1">
+      <c r="P6" s="1">
         <v>5000</v>
       </c>
-      <c r="J6" s="1">
+      <c r="Q6" s="1">
         <v>6000</v>
       </c>
-      <c r="K6" s="1">
-        <v>7000</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="R6" s="1">
         <v>8000</v>
       </c>
-      <c r="M6" s="1">
-        <v>9000</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="S6" s="1">
         <v>10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>11000</v>
-      </c>
-      <c r="P6" s="1">
+      <c r="T6" s="1">
         <v>12000</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="U6" s="1">
         <v>15000</v>
       </c>
-      <c r="R6" s="1">
-        <v>18000</v>
-      </c>
-      <c r="S6" s="1">
+      <c r="V6" s="1">
         <v>20000</v>
       </c>
-      <c r="T6" s="1">
-        <v>22500</v>
-      </c>
-      <c r="U6" s="1">
+      <c r="W6" s="1">
         <v>25000</v>
       </c>
-      <c r="V6" s="1">
+      <c r="X6" s="1">
         <v>30000</v>
       </c>
-      <c r="W6" s="1">
+      <c r="Y6" s="1">
         <v>40000</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Z6" s="1">
         <v>50000</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="AA6" s="1">
         <v>80000</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AB6" s="1">
         <v>100000</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>120000</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>150000</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="38.25" customHeight="1">
@@ -6743,8 +6748,8 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I4" sqref="I4"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6832,25 +6837,25 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D6" s="1">
+        <v>800</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1800</v>
+      </c>
+      <c r="H6" s="1">
         <v>2000</v>
       </c>
-      <c r="E6" s="1">
+      <c r="I6" s="1">
         <v>5000</v>
-      </c>
-      <c r="F6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G6" s="1">
-        <v>20000</v>
-      </c>
-      <c r="H6" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I6" s="1">
-        <v>100000</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="38.25" customHeight="1">

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20850" windowHeight="13515" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20850" windowHeight="13515" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NoseCorn" sheetId="4" r:id="rId1"/>
@@ -3668,8 +3668,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145778E-2"/>
-          <c:w val="0.69775377355809498"/>
+          <c:y val="4.2141294838145799E-2"/>
+          <c:w val="0.6977537735580952"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -4173,8 +4173,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="78730752"/>
-        <c:axId val="78732288"/>
+        <c:axId val="85988864"/>
+        <c:axId val="85990400"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -4427,22 +4427,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="78743808"/>
-        <c:axId val="78742272"/>
+        <c:axId val="86006016"/>
+        <c:axId val="86004480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78730752"/>
+        <c:axId val="85988864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78732288"/>
+        <c:crossAx val="85990400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78732288"/>
+        <c:axId val="85990400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4450,44 +4450,43 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78730752"/>
+        <c:crossAx val="85988864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78742272"/>
+        <c:axId val="86004480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78743808"/>
+        <c:crossAx val="86006016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78743808"/>
+        <c:axId val="86006016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="78742272"/>
+        <c:crossAx val="86004480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5494,8 +5493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5693,19 +5692,19 @@
         <v>2</v>
       </c>
       <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
         <v>5</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>10</v>
       </c>
-      <c r="E13" s="1">
-        <v>20</v>
-      </c>
       <c r="F13" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G13" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -7097,7 +7096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="G9" sqref="G9"/>
     </sheetView>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20850" windowHeight="13515" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20850" windowHeight="13515" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="NoseCorn" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="407">
   <si>
     <t>フォルダー名</t>
     <rPh sb="5" eb="6">
@@ -3385,18 +3385,6 @@
     <t>URL を入力してください</t>
   </si>
   <si>
-    <t>&gt; http://www14.big.or.jp/~amiami/happy/へリンクをはり、</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-なお、音声はこちらの声の素材を使用しました　あみたろの声素材工房　http://www14.big.or.jp/~amiami/happy/</t>
-    <rPh sb="7" eb="9">
-      <t>オンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>4段</t>
     <rPh sb="1" eb="2">
       <t>ダン</t>
@@ -3486,6 +3474,129 @@
   </si>
   <si>
     <t>MultiStage1</t>
+  </si>
+  <si>
+    <t>ペットボトルを使った水ロケットを、大空に飛ばそう！衛星放出もできるよ。</t>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>オオゾラ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>エイセイホウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『Pokémon GO』は、位置情報を活用することにより、現実世界そのものを舞台として、ポケモンを捕まえたり、バトルしたりできるゲームです。
+このゲームはモニターの中だけで完結せず、プレイヤーは実際に家の外に出てポケモンを探したり、他のプレイヤーと出会ったりしながら楽しむことができます。
+■ ポケモンを捕まえよう！
+『Pokémon GO』は地球上すべてが舞台！ プレイヤーは、ポケモントレーナーとして、現実世界のいろいろな場所を歩き、探索して、ポケモンを捕まえることができます。
+ポケモンは世界中のあらゆる場所で目にすることができます。現実世界で、ポケモン探しの旅に出よう！
+～基本的なポケモンの捕まえ方～
+『Pokémon GO』の起動中、ポケモンが自分の近くに現れると、スマートフォンが振動して知らせてくれます。
+マップ上に現れたポケモンをタップすると、ポケモンと遭遇。画面を通して、実際の風景の上に現れたポケモンに、画面上のモンスターボールをスワイプして投げると、捕まえることができます。慎重に、でも早く捕まえないと、逃げられてしまうかも？
+～ポケストップに立ち寄ろう～
+ポケモンを捕まえるために使うモンスターボールは、マップ上に現れる『ポケストップ』と呼ばれる、特定の場所で手に入れることができます。『ポケストップ』ではモンスターボールのほか、さまざまな道具が手に入ります。せっかくポケモンに遭遇できても、モンスターボールがなくて捕まえられない！ ということがないように、多くの『ポケストップ』に立ち寄って、モンスターボールをたくさん手に入れておこう。
+『ポケストップ』は世界中のあらゆる場所にあります。名所旧跡や有名なモニュメントなどはもちろん、普段気にしていなかった身近なあの場所も、実は『ポケストップ』かも？
+■ ポケモン図鑑の完成を目指せ！
+『Pokémon GO』の世界には、たくさんのポケモンが登場します。目指すは、ポケモン図鑑の完成です。
+～ポケモントレーナーとしてのレベルを上げよう～
+ポケモンをたくさん見つけて、捕まえることにより、ポケモントレーナーとしてのレベルが上がります。ポケモントレーナーとしてのレベルが上がると、強いポケモンに遭遇できるようになり、『ポケストップ』では、より良い道具が手に入ることもあります。
+～『ほしのすな』と『ポケモンのアメ』を集めて、ポケモンを育てよう～
+ポケモンの中には、進化するものもいます。ポケモンを捕まえると手に入る『ほしのすな』や『ポケモンのアメ』が一定量貯まると、ポケモンを進化させたり、強化したりすることができます。様々なポケモンを進化させて、ポケモン図鑑の完成を目指しましょう！
+～たくさん歩いてかえそう！ ポケモンのタマゴ～
+『ポケストップ』を訪れると、ときどき『ポケモンのタマゴ』が見つかることがあります。『ポケモンのタマゴ』は、『ポケットモンスター』シリーズのポケモントレーナーと同じように、あなた自身がたくさん歩くことで、かえすことができます。どんなポケモンに出会えるかは、タマゴをかえしてみてのお楽しみ！
+■ チームに参加！ ジムに所属してジムバトル！
+『Pokémon GO』の世界では、ポケモントレーナーたちは、3つのチームに分かれてバトルを繰り広げ、『ジム』を取り合っています。プレイヤーはどれか1つのチームに参加できます。
+チームに参加すると、『ジム』に所属することができるようになります。自分と同じチーム（『仲間チーム』）のプレイヤーと協力しながら、『仲間チーム』の『ジム』を守ります。 『ジム』は、『ポケストップ』と同じように、マップ上に現れます。
+～ジムにポケモンを配置しよう～
+『ジム』に、プレイヤー（自分）のポケモンを配置すると、その『ジム』に所属できます。『仲間チーム』の『ジム』か、どのチームのポケモンも配置されていない『ジム』（『無所属のジム』）に、ポケモンを配置することができます。『無所属のジム』に、ポケモンを配置すると、その『ジム』はプレイヤーが参加しているチームのものになります。『仲間チーム』の『ジム』をどんどん増やしていこう。
+■ プレイをより楽しくする要素を紹介！
+『Pokémon GO』のプレイをさらに楽しくするための機能を紹介します。
+～メダル～
+さまざまなチャレンジを達成すると、『メダル』を手に入れることができます。獲得したメダルは、トレーナープロフィール画面で見ることができます。たくさんチャレンジして、多くのメダルを手に入れよう。
+～ポケコイン～
+『Pokémon GO』は基本プレイ無料で楽しめます。さらに楽しみたいプレイヤーは、ゲーム内で有料で購入できる『ポケコイン』を使って、モンスターボールをはじめとした、ゲームを有利に進めることができる、さまざまな道具を購入できます。
+～カメラ機能～
+カメラ機能を使うと、野生のポケモンと遭遇した時に、ポケモンを撮影できます。撮影した画像はスマートフォンの本体に保存されます。ベストショットを狙って、友だちに自慢しよう！
+～ 『Pokémon GO』の楽曲～
+『Pokémon GO』の楽曲は、『ポケットモンスター』シリーズのディレクターとして知られ、ポケモンファンの心に残る数々の名曲を制作されてきた、増田順一（ますだじゅんいち）氏が手がけています。
+■Pokémon GO対応環境：
+対応OSバージョン：Android 4.4 - 6.0
+対応端末：Android 4.4以上 RAM2GB以上搭載の端末
+※Pokémon GO公式サイト記載の動作環境をご確認ください。
+※タブレット端末での動作は保証しておりません。
+※一部端末に関しては対応OSバージョン以上でも動作しない場合があります。
+※安定した通信環境でプレイしてください。
+※GPS非搭載の端末や、Wi-Fi回線のみで接続している端末の動作は保証しておりません。
+※今後のアップデートに際し、対応環境や対応端末が変更になる場合があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『翔べ水ロケット』は、かんたんにペットボトルロケットを打ち上げることができる、ロケット打ち上げシミューレーションゲームです。
+水ロケットのパーツを交換したり、追加したりしてより高く飛ばすのが目的です。
+■　ロケットを飛ばしてみよう！
+『翔べ水ロケット』は
+※各権限は広告配信で使用しています。
+なお、音声はこちらの声の素材を使用しました
+あみたろの声素材工房　http://www14.big.or.jp/~amiami/happy/</t>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>オンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -3498,7 +3609,7 @@
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3522,11 +3633,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="�ͣ� �Х����å�"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3593,7 +3720,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3642,10 +3769,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3668,8 +3801,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145799E-2"/>
-          <c:w val="0.6977537735580952"/>
+          <c:y val="4.2141294838145812E-2"/>
+          <c:w val="0.69775377355809542"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -4173,8 +4306,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="85988864"/>
-        <c:axId val="85990400"/>
+        <c:axId val="244196864"/>
+        <c:axId val="244198400"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -4427,22 +4560,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="86006016"/>
-        <c:axId val="86004480"/>
+        <c:axId val="244214016"/>
+        <c:axId val="244212480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85988864"/>
+        <c:axId val="244196864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85990400"/>
+        <c:crossAx val="244198400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85990400"/>
+        <c:axId val="244198400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4450,31 +4583,31 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85988864"/>
+        <c:crossAx val="244196864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86004480"/>
+        <c:axId val="244212480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86006016"/>
+        <c:crossAx val="244214016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86006016"/>
+        <c:axId val="244214016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="86004480"/>
+        <c:crossAx val="244212480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4486,7 +4619,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5493,7 +5626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -7121,10 +7254,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>360</v>
@@ -7133,7 +7266,7 @@
         <v>361</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7175,10 +7308,10 @@
         <v>363</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7195,10 +7328,10 @@
         <v>367</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="54">
@@ -7215,10 +7348,10 @@
         <v>369</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" thickBot="1">
@@ -8605,125 +8738,131 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D10"/>
+  <dimension ref="A2:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="1" max="1" width="20.125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16" style="17" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="17" customWidth="1"/>
+    <col min="4" max="4" width="41" style="16" customWidth="1"/>
+    <col min="5" max="5" width="48.375" style="17" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="16" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="55.5" customHeight="1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" ht="55.5" customHeight="1">
+      <c r="A3" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="17" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="D3" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="409.5">
+      <c r="A4" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="17" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="D4" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="17" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="117" customHeight="1">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="17" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="17" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="17" t="s">
         <v>394</v>
       </c>
     </row>

--- a/オプション諸元.xlsx
+++ b/オプション諸元.xlsx
@@ -3131,13 +3131,6 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>萌えさてらいと。</t>
-    <rPh sb="0" eb="1">
-      <t>モ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3541,10 +3534,52 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>萌えさてらいと。
+名前は募集中！</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ボシュウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>『翔べ水ロケット』は、かんたんにペットボトルロケットを打ち上げることができる、ロケット打ち上げシミューレーションゲームです。
 水ロケットのパーツを交換したり、追加したりしてより高く飛ばすのが目的です。
 ■　ロケットを飛ばしてみよう！
-『翔べ水ロケット』は
+『翔べ水ロケット』はガレージでパーツを組み合わせ射点で打ち上げを行います。
+物理エンジンを使って、空気の密度、重力等も計算しているので、リアルな打ち上げが楽しめます。
+＝射点での打ち上げ方法＝
+画面下部が操作番になっています。まずは中央のメインスイッチ(Main Switch)をONにします。
+次に左下のポンプ(Pump)ボタンで、ペットボトル内に空気を入れましょう。水は自動的に入るので気にしないで。
+空気を入れすぎると、本体が破裂してしまうので、液晶表示と圧力計をよく見て。
+右の大きな発射(LAUNCH)ボタンでロケット打ち上げ！空に向かって飛んで行くよ。
+2回目以降の噴射もこのボタンだよ。
+もし、衛星を積んでいたら、真ん中の衛星分離(EJECT)ボタンで発射するよ。
+衛星にはスラスターがついてるものもあるから、左右に動けるタイプもあるよ。
+空に散らばっている星は、点数が増える。レーダをよく見て、集めてね。
+ただし、青い星は点数が減ってしまうから取らないようにしよう。
+書類のアイコンを押せば、集計画面に進む。
+＝集計画面＝
+集計画面では、飛んだ高度が点数に変わるよ。取った星が多いと、ポイントが増える。
+新記録を出したり、衛星を放出したりすると、ボーナスポイント。
+たまに出て来るダイアログにしたがって、動画広告を見るとポイント大幅アップ。ぜひ利用しよう。
+＝ガレージ＝
+ガレージではロケットの部品を交換できる。ポイントを使って色々なパーツを買おう。
+買ってあとには、ちゃんと[使用]しないと使えないよ。
+欲しいパーツが買えるまで、打ち上げを繰り返してポイントを貯めよう。
+買ったパーツを付け替えるのもココで。
+＝データ画面＝
+今のスペックが見られるよ。
+＝まとめ＝
+良いパーツを使うと、とんでもない所まで飛んでいける。
+頑張って集めてみよう。
+－－－－－－－その他－－－－－－－－
+※このゲームはネットに接続していなくても遊べます。
 ※各権限は広告配信で使用しています。
 なお、音声はこちらの声の素材を使用しました
 あみたろの声素材工房　http://www14.big.or.jp/~amiami/happy/</t>
@@ -3593,7 +3628,397 @@
     <rPh sb="122" eb="123">
       <t>ミズ</t>
     </rPh>
-    <rPh sb="154" eb="156">
+    <rPh sb="138" eb="139">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>シャテン</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>ミツド</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>ジュウリョク</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="191" eb="192">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="193" eb="194">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="196" eb="197">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="205" eb="207">
+      <t>シャテン</t>
+    </rPh>
+    <rPh sb="209" eb="210">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="211" eb="212">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="220" eb="222">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="223" eb="225">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="225" eb="226">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="237" eb="239">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="269" eb="270">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="271" eb="273">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <rPh sb="294" eb="295">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="296" eb="298">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="299" eb="300">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="306" eb="307">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="308" eb="311">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="312" eb="313">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="316" eb="317">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="324" eb="326">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="327" eb="328">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="334" eb="336">
+      <t>ホンタイ</t>
+    </rPh>
+    <rPh sb="337" eb="339">
+      <t>ハレツ</t>
+    </rPh>
+    <rPh sb="347" eb="351">
+      <t>エキショウヒョウジ</t>
+    </rPh>
+    <rPh sb="352" eb="355">
+      <t>アツリョクケイ</t>
+    </rPh>
+    <rPh sb="358" eb="359">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="363" eb="364">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="365" eb="366">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="368" eb="370">
+      <t>ハッシャ</t>
+    </rPh>
+    <rPh sb="386" eb="387">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="388" eb="389">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="391" eb="392">
+      <t>ソラ</t>
+    </rPh>
+    <rPh sb="393" eb="394">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="397" eb="398">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="400" eb="401">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="406" eb="408">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="408" eb="410">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="411" eb="413">
+      <t>フンシャ</t>
+    </rPh>
+    <rPh sb="427" eb="429">
+      <t>エイセイ</t>
+    </rPh>
+    <rPh sb="430" eb="431">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="437" eb="438">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="439" eb="440">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="441" eb="443">
+      <t>エイセイ</t>
+    </rPh>
+    <rPh sb="443" eb="445">
+      <t>ブンリ</t>
+    </rPh>
+    <rPh sb="456" eb="458">
+      <t>ハッシャ</t>
+    </rPh>
+    <rPh sb="463" eb="465">
+      <t>エイセイ</t>
+    </rPh>
+    <rPh sb="485" eb="487">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="488" eb="489">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="501" eb="502">
+      <t>ソラ</t>
+    </rPh>
+    <rPh sb="503" eb="504">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="510" eb="511">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="513" eb="515">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="516" eb="517">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="526" eb="527">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="529" eb="530">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="539" eb="540">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="541" eb="542">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="543" eb="545">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="546" eb="547">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="554" eb="555">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="567" eb="569">
+      <t>ショルイ</t>
+    </rPh>
+    <rPh sb="575" eb="576">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="579" eb="581">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="581" eb="583">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="584" eb="585">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="590" eb="594">
+      <t>シュウケイガメン</t>
+    </rPh>
+    <rPh sb="597" eb="601">
+      <t>シュウケイガメン</t>
+    </rPh>
+    <rPh sb="604" eb="605">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="607" eb="609">
+      <t>コウド</t>
+    </rPh>
+    <rPh sb="610" eb="612">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="613" eb="614">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="618" eb="619">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="621" eb="622">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="623" eb="624">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="632" eb="633">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="637" eb="640">
+      <t>シンキロク</t>
+    </rPh>
+    <rPh sb="641" eb="642">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="646" eb="648">
+      <t>エイセイ</t>
+    </rPh>
+    <rPh sb="649" eb="651">
+      <t>ホウシュツ</t>
+    </rPh>
+    <rPh sb="672" eb="673">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="674" eb="675">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="688" eb="690">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="690" eb="692">
+      <t>コウコク</t>
+    </rPh>
+    <rPh sb="693" eb="694">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="700" eb="702">
+      <t>オオハバ</t>
+    </rPh>
+    <rPh sb="708" eb="710">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="735" eb="737">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="738" eb="740">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="749" eb="750">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="752" eb="754">
+      <t>イロイロ</t>
+    </rPh>
+    <rPh sb="759" eb="760">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="764" eb="765">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="777" eb="779">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="784" eb="785">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="792" eb="793">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="799" eb="800">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="805" eb="806">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="807" eb="808">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="810" eb="811">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="812" eb="813">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="820" eb="821">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="827" eb="828">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="834" eb="835">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="836" eb="837">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="851" eb="853">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="856" eb="857">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="863" eb="864">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="878" eb="879">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="884" eb="885">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="894" eb="895">
+      <t>トコロ</t>
+    </rPh>
+    <rPh sb="897" eb="898">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="905" eb="907">
+      <t>ガンバ</t>
+    </rPh>
+    <rPh sb="909" eb="910">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="927" eb="928">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="948" eb="950">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="957" eb="958">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="986" eb="988">
       <t>オンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -3801,8 +4226,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15045927020855238"/>
-          <c:y val="4.2141294838145812E-2"/>
-          <c:w val="0.69775377355809542"/>
+          <c:y val="4.2141294838145826E-2"/>
+          <c:w val="0.69775377355809565"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -4306,8 +4731,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="244196864"/>
-        <c:axId val="244198400"/>
+        <c:axId val="244352896"/>
+        <c:axId val="244354432"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -4560,22 +4985,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="244214016"/>
-        <c:axId val="244212480"/>
+        <c:axId val="244365952"/>
+        <c:axId val="244364416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="244196864"/>
+        <c:axId val="244352896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244198400"/>
+        <c:crossAx val="244354432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="244198400"/>
+        <c:axId val="244354432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4583,43 +5008,44 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244196864"/>
+        <c:crossAx val="244352896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="244212480"/>
+        <c:axId val="244364416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244214016"/>
+        <c:crossAx val="244365952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="244214016"/>
+        <c:axId val="244365952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="244212480"/>
+        <c:crossAx val="244364416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5627,7 +6053,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5712,7 +6138,7 @@
         <v>1000</v>
       </c>
       <c r="G6" s="1">
-        <v>5000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="38.25" customHeight="1">
@@ -5905,7 +6331,7 @@
         <v>102</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -6881,7 +7307,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I7" sqref="I7"/>
+      <selection pane="topRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6987,7 +7413,7 @@
         <v>2000</v>
       </c>
       <c r="I6" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="38.25" customHeight="1">
@@ -7074,7 +7500,7 @@
         <v>352</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1">
@@ -7113,7 +7539,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -7171,7 +7597,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -7231,7 +7657,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G9" sqref="G9"/>
+      <selection pane="topRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7246,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7254,19 +7680,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>403</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7285,13 +7711,13 @@
         <v>100</v>
       </c>
       <c r="D6" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E6" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F6" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="38.25" customHeight="1">
@@ -7299,19 +7725,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="E7" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7319,19 +7745,19 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="E8" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="54">
@@ -7339,19 +7765,19 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="E9" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" thickBot="1">
@@ -7366,7 +7792,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -8741,7 +9167,7 @@
   <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8756,114 +9182,114 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>372</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="55.5" customHeight="1">
       <c r="A3" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>375</v>
-      </c>
       <c r="C3" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.5">
       <c r="A4" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>406</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>380</v>
-      </c>
       <c r="C5" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="C7" s="17" t="s">
         <v>383</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>384</v>
       </c>
       <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="C8" s="17" t="s">
         <v>387</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="C9" s="17" t="s">
         <v>390</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="17" t="s">
         <v>393</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>394</v>
       </c>
     </row>
   </sheetData>
